--- a/03.Clasificacion/Intervalos_poligonales/Interval_Motorway_05042024.xlsx
+++ b/03.Clasificacion/Intervalos_poligonales/Interval_Motorway_05042024.xlsx
@@ -752,7 +752,7 @@
         <v>637</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8611111111111112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2222,7 +2222,7 @@
         <v>631</v>
       </c>
       <c r="V25" t="n">
-        <v>26.36481481481481</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="26">
@@ -2292,7 +2292,7 @@
         <v>631</v>
       </c>
       <c r="V26" t="n">
-        <v>26.61851851851852</v>
+        <v>26.60277777777777</v>
       </c>
     </row>
     <row r="27">
@@ -2922,7 +2922,7 @@
         <v>633</v>
       </c>
       <c r="V35" t="n">
-        <v>32.21666666666666</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="36">
@@ -2992,7 +2992,7 @@
         <v>633</v>
       </c>
       <c r="V36" t="n">
-        <v>32.43055555555555</v>
+        <v>32.29722222222222</v>
       </c>
     </row>
     <row r="37">
@@ -3062,7 +3062,7 @@
         <v>633</v>
       </c>
       <c r="V37" t="n">
-        <v>32.64444444444444</v>
+        <v>32.44444444444444</v>
       </c>
     </row>
     <row r="38">
@@ -3132,7 +3132,7 @@
         <v>633</v>
       </c>
       <c r="V38" t="n">
-        <v>32.85833333333333</v>
+        <v>32.77777777777778</v>
       </c>
     </row>
     <row r="39">
@@ -3202,7 +3202,7 @@
         <v>633</v>
       </c>
       <c r="V39" t="n">
-        <v>33.07222222222222</v>
+        <v>33.05555555555556</v>
       </c>
     </row>
     <row r="40">
@@ -3272,7 +3272,7 @@
         <v>630</v>
       </c>
       <c r="V40" t="n">
-        <v>33.28611111111111</v>
+        <v>33.35833333333333</v>
       </c>
     </row>
     <row r="41">
@@ -3342,7 +3342,7 @@
         <v>630</v>
       </c>
       <c r="V41" t="n">
-        <v>33.5</v>
+        <v>33.53888888888888</v>
       </c>
     </row>
     <row r="42">
@@ -3412,7 +3412,7 @@
         <v>630</v>
       </c>
       <c r="V42" t="n">
-        <v>33.71388888888889</v>
+        <v>33.68333333333334</v>
       </c>
     </row>
     <row r="43">
@@ -3482,7 +3482,7 @@
         <v>630</v>
       </c>
       <c r="V43" t="n">
-        <v>33.92777777777778</v>
+        <v>33.86388888888889</v>
       </c>
     </row>
     <row r="44">
@@ -3692,7 +3692,7 @@
         <v>626</v>
       </c>
       <c r="V46" t="n">
-        <v>34.54065972222222</v>
+        <v>34.95277777777778</v>
       </c>
     </row>
     <row r="47">
@@ -3762,7 +3762,7 @@
         <v>623</v>
       </c>
       <c r="V47" t="n">
-        <v>34.56465277777777</v>
+        <v>35.09722222222222</v>
       </c>
     </row>
     <row r="48">
@@ -3832,7 +3832,7 @@
         <v>623</v>
       </c>
       <c r="V48" t="n">
-        <v>34.58864583333333</v>
+        <v>35.24166666666667</v>
       </c>
     </row>
     <row r="49">
@@ -3902,7 +3902,7 @@
         <v>623</v>
       </c>
       <c r="V49" t="n">
-        <v>34.61263888888889</v>
+        <v>35.31296296296296</v>
       </c>
     </row>
     <row r="50">
@@ -3972,7 +3972,7 @@
         <v>623</v>
       </c>
       <c r="V50" t="n">
-        <v>34.63663194444445</v>
+        <v>35.38425925925926</v>
       </c>
     </row>
     <row r="51">
@@ -4042,7 +4042,7 @@
         <v>626</v>
       </c>
       <c r="V51" t="n">
-        <v>34.660625</v>
+        <v>35.45555555555556</v>
       </c>
     </row>
     <row r="52">
@@ -4112,7 +4112,7 @@
         <v>626</v>
       </c>
       <c r="V52" t="n">
-        <v>34.68461805555555</v>
+        <v>35.39444444444445</v>
       </c>
     </row>
     <row r="53">
@@ -4182,7 +4182,7 @@
         <v>626</v>
       </c>
       <c r="V53" t="n">
-        <v>34.70861111111111</v>
+        <v>35.38263888888889</v>
       </c>
     </row>
     <row r="54">
@@ -4252,7 +4252,7 @@
         <v>626</v>
       </c>
       <c r="V54" t="n">
-        <v>34.73260416666667</v>
+        <v>35.37083333333334</v>
       </c>
     </row>
     <row r="55">
@@ -4322,7 +4322,7 @@
         <v>626</v>
       </c>
       <c r="V55" t="n">
-        <v>34.75659722222222</v>
+        <v>35.35902777777778</v>
       </c>
     </row>
     <row r="56">
@@ -4392,7 +4392,7 @@
         <v>626</v>
       </c>
       <c r="V56" t="n">
-        <v>34.78059027777778</v>
+        <v>35.34722222222222</v>
       </c>
     </row>
     <row r="57">
@@ -4462,7 +4462,7 @@
         <v>635</v>
       </c>
       <c r="V57" t="n">
-        <v>34.80458333333333</v>
+        <v>35.33541666666667</v>
       </c>
     </row>
     <row r="58">
@@ -4532,7 +4532,7 @@
         <v>635</v>
       </c>
       <c r="V58" t="n">
-        <v>34.82857638888889</v>
+        <v>35.32361111111111</v>
       </c>
     </row>
     <row r="59">
@@ -4602,7 +4602,7 @@
         <v>635</v>
       </c>
       <c r="V59" t="n">
-        <v>34.85256944444444</v>
+        <v>35.31180555555556</v>
       </c>
     </row>
     <row r="60">
@@ -4672,7 +4672,7 @@
         <v>624</v>
       </c>
       <c r="V60" t="n">
-        <v>34.8765625</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="61">
@@ -4742,7 +4742,7 @@
         <v>624</v>
       </c>
       <c r="V61" t="n">
-        <v>34.90055555555556</v>
+        <v>35.28819444444444</v>
       </c>
     </row>
     <row r="62">
@@ -4812,7 +4812,7 @@
         <v>624</v>
       </c>
       <c r="V62" t="n">
-        <v>34.92454861111111</v>
+        <v>35.27638888888889</v>
       </c>
     </row>
     <row r="63">
@@ -4882,7 +4882,7 @@
         <v>621</v>
       </c>
       <c r="V63" t="n">
-        <v>34.94854166666666</v>
+        <v>35.26458333333333</v>
       </c>
     </row>
     <row r="64">
@@ -4952,7 +4952,7 @@
         <v>621</v>
       </c>
       <c r="V64" t="n">
-        <v>34.97253472222222</v>
+        <v>35.25277777777778</v>
       </c>
     </row>
     <row r="65">
@@ -5022,7 +5022,7 @@
         <v>621</v>
       </c>
       <c r="V65" t="n">
-        <v>34.99652777777778</v>
+        <v>35.24097222222223</v>
       </c>
     </row>
     <row r="66">
@@ -5092,7 +5092,7 @@
         <v>621</v>
       </c>
       <c r="V66" t="n">
-        <v>35.02052083333333</v>
+        <v>35.22916666666666</v>
       </c>
     </row>
     <row r="67">
@@ -5162,7 +5162,7 @@
         <v>621</v>
       </c>
       <c r="V67" t="n">
-        <v>35.04451388888889</v>
+        <v>35.21736111111111</v>
       </c>
     </row>
     <row r="68">
@@ -5232,7 +5232,7 @@
         <v>621</v>
       </c>
       <c r="V68" t="n">
-        <v>35.06850694444444</v>
+        <v>35.20555555555556</v>
       </c>
     </row>
     <row r="69">
@@ -5302,7 +5302,7 @@
         <v>621</v>
       </c>
       <c r="V69" t="n">
-        <v>35.0925</v>
+        <v>35.19375</v>
       </c>
     </row>
     <row r="70">
@@ -5372,7 +5372,7 @@
         <v>623</v>
       </c>
       <c r="V70" t="n">
-        <v>35.11649305555555</v>
+        <v>35.18194444444445</v>
       </c>
     </row>
     <row r="71">
@@ -5442,7 +5442,7 @@
         <v>623</v>
       </c>
       <c r="V71" t="n">
-        <v>35.14048611111111</v>
+        <v>35.17013888888889</v>
       </c>
     </row>
     <row r="72">
@@ -5512,7 +5512,7 @@
         <v>628</v>
       </c>
       <c r="V72" t="n">
-        <v>35.16447916666667</v>
+        <v>35.15833333333333</v>
       </c>
     </row>
     <row r="73">
@@ -5582,7 +5582,7 @@
         <v>628</v>
       </c>
       <c r="V73" t="n">
-        <v>35.18847222222222</v>
+        <v>35.14652777777778</v>
       </c>
     </row>
     <row r="74">
@@ -5652,7 +5652,7 @@
         <v>628</v>
       </c>
       <c r="V74" t="n">
-        <v>35.21246527777777</v>
+        <v>35.13472222222222</v>
       </c>
     </row>
     <row r="75">
@@ -5722,7 +5722,7 @@
         <v>628</v>
       </c>
       <c r="V75" t="n">
-        <v>35.23645833333333</v>
+        <v>35.12291666666667</v>
       </c>
     </row>
     <row r="76">
@@ -5792,7 +5792,7 @@
         <v>630</v>
       </c>
       <c r="V76" t="n">
-        <v>35.26045138888889</v>
+        <v>35.11111111111111</v>
       </c>
     </row>
     <row r="77">
@@ -5862,7 +5862,7 @@
         <v>630</v>
       </c>
       <c r="V77" t="n">
-        <v>35.28444444444445</v>
+        <v>35.09930555555555</v>
       </c>
     </row>
     <row r="78">
@@ -5932,7 +5932,7 @@
         <v>630</v>
       </c>
       <c r="V78" t="n">
-        <v>35.3084375</v>
+        <v>35.0875</v>
       </c>
     </row>
     <row r="79">
@@ -6002,7 +6002,7 @@
         <v>630</v>
       </c>
       <c r="V79" t="n">
-        <v>35.33243055555555</v>
+        <v>35.07569444444444</v>
       </c>
     </row>
     <row r="80">
@@ -6072,7 +6072,7 @@
         <v>630</v>
       </c>
       <c r="V80" t="n">
-        <v>35.35642361111111</v>
+        <v>35.06388888888889</v>
       </c>
     </row>
     <row r="81">
@@ -6142,7 +6142,7 @@
         <v>634</v>
       </c>
       <c r="V81" t="n">
-        <v>35.38041666666667</v>
+        <v>35.05208333333334</v>
       </c>
     </row>
     <row r="82">
@@ -6212,7 +6212,7 @@
         <v>634</v>
       </c>
       <c r="V82" t="n">
-        <v>35.40440972222222</v>
+        <v>35.04027777777777</v>
       </c>
     </row>
     <row r="83">
@@ -6282,7 +6282,7 @@
         <v>634</v>
       </c>
       <c r="V83" t="n">
-        <v>35.42840277777778</v>
+        <v>35.02847222222222</v>
       </c>
     </row>
     <row r="84">
@@ -6352,7 +6352,7 @@
         <v>633</v>
       </c>
       <c r="V84" t="n">
-        <v>35.45239583333333</v>
+        <v>35.01666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -6422,7 +6422,7 @@
         <v>633</v>
       </c>
       <c r="V85" t="n">
-        <v>35.47638888888889</v>
+        <v>35.11944444444444</v>
       </c>
     </row>
     <row r="86">
@@ -6492,7 +6492,7 @@
         <v>633</v>
       </c>
       <c r="V86" t="n">
-        <v>35.50038194444444</v>
+        <v>35.22222222222222</v>
       </c>
     </row>
     <row r="87">
@@ -6562,7 +6562,7 @@
         <v>633</v>
       </c>
       <c r="V87" t="n">
-        <v>35.524375</v>
+        <v>35.36388888888889</v>
       </c>
     </row>
     <row r="88">
@@ -6632,7 +6632,7 @@
         <v>633</v>
       </c>
       <c r="V88" t="n">
-        <v>35.54836805555556</v>
+        <v>35.44537037037037</v>
       </c>
     </row>
     <row r="89">
@@ -6702,7 +6702,7 @@
         <v>633</v>
       </c>
       <c r="V89" t="n">
-        <v>35.57236111111111</v>
+        <v>35.52685185185185</v>
       </c>
     </row>
     <row r="90">
@@ -6772,7 +6772,7 @@
         <v>633</v>
       </c>
       <c r="V90" t="n">
-        <v>35.59635416666666</v>
+        <v>35.60833333333333</v>
       </c>
     </row>
     <row r="91">
@@ -6842,7 +6842,7 @@
         <v>634</v>
       </c>
       <c r="V91" t="n">
-        <v>35.62034722222222</v>
+        <v>35.70925925925926</v>
       </c>
     </row>
     <row r="92">
@@ -6912,7 +6912,7 @@
         <v>634</v>
       </c>
       <c r="V92" t="n">
-        <v>35.64434027777778</v>
+        <v>35.81018518518518</v>
       </c>
     </row>
     <row r="93">
@@ -6982,7 +6982,7 @@
         <v>634</v>
       </c>
       <c r="V93" t="n">
-        <v>35.66833333333333</v>
+        <v>35.81117283950617</v>
       </c>
     </row>
     <row r="94">
@@ -7052,7 +7052,7 @@
         <v>634</v>
       </c>
       <c r="V94" t="n">
-        <v>35.69232638888889</v>
+        <v>35.81216049382716</v>
       </c>
     </row>
     <row r="95">
@@ -7122,7 +7122,7 @@
         <v>634</v>
       </c>
       <c r="V95" t="n">
-        <v>35.71631944444444</v>
+        <v>35.81314814814814</v>
       </c>
     </row>
     <row r="96">
@@ -7192,7 +7192,7 @@
         <v>634</v>
       </c>
       <c r="V96" t="n">
-        <v>35.7403125</v>
+        <v>35.81413580246913</v>
       </c>
     </row>
     <row r="97">
@@ -7262,7 +7262,7 @@
         <v>634</v>
       </c>
       <c r="V97" t="n">
-        <v>35.76430555555555</v>
+        <v>35.81512345679012</v>
       </c>
     </row>
     <row r="98">
@@ -7332,7 +7332,7 @@
         <v>633</v>
       </c>
       <c r="V98" t="n">
-        <v>35.78829861111111</v>
+        <v>35.81611111111111</v>
       </c>
     </row>
     <row r="99">
@@ -7402,7 +7402,7 @@
         <v>633</v>
       </c>
       <c r="V99" t="n">
-        <v>35.81229166666667</v>
+        <v>35.81709876543209</v>
       </c>
     </row>
     <row r="100">
@@ -7472,7 +7472,7 @@
         <v>635</v>
       </c>
       <c r="V100" t="n">
-        <v>35.83628472222222</v>
+        <v>35.81808641975309</v>
       </c>
     </row>
     <row r="101">
@@ -7542,7 +7542,7 @@
         <v>635</v>
       </c>
       <c r="V101" t="n">
-        <v>35.86027777777777</v>
+        <v>35.81907407407407</v>
       </c>
     </row>
     <row r="102">
@@ -7612,7 +7612,7 @@
         <v>635</v>
       </c>
       <c r="V102" t="n">
-        <v>35.88427083333333</v>
+        <v>35.82006172839506</v>
       </c>
     </row>
     <row r="103">
@@ -7682,7 +7682,7 @@
         <v>635</v>
       </c>
       <c r="V103" t="n">
-        <v>35.90826388888889</v>
+        <v>35.82104938271605</v>
       </c>
     </row>
     <row r="104">
@@ -7752,7 +7752,7 @@
         <v>634</v>
       </c>
       <c r="V104" t="n">
-        <v>35.93225694444445</v>
+        <v>35.82203703703703</v>
       </c>
     </row>
     <row r="105">
@@ -7822,7 +7822,7 @@
         <v>634</v>
       </c>
       <c r="V105" t="n">
-        <v>35.95625</v>
+        <v>35.82302469135802</v>
       </c>
     </row>
     <row r="106">
@@ -7892,7 +7892,7 @@
         <v>634</v>
       </c>
       <c r="V106" t="n">
-        <v>35.98024305555555</v>
+        <v>35.82401234567901</v>
       </c>
     </row>
     <row r="107">
@@ -7962,7 +7962,7 @@
         <v>634</v>
       </c>
       <c r="V107" t="n">
-        <v>36.00423611111111</v>
+        <v>35.825</v>
       </c>
     </row>
     <row r="108">
@@ -8032,7 +8032,7 @@
         <v>634</v>
       </c>
       <c r="V108" t="n">
-        <v>36.02822916666666</v>
+        <v>35.84330065359477</v>
       </c>
     </row>
     <row r="109">
@@ -8102,7 +8102,7 @@
         <v>634</v>
       </c>
       <c r="V109" t="n">
-        <v>36.05222222222222</v>
+        <v>35.86160130718954</v>
       </c>
     </row>
     <row r="110">
@@ -8172,7 +8172,7 @@
         <v>632</v>
       </c>
       <c r="V110" t="n">
-        <v>36.07621527777778</v>
+        <v>35.87990196078431</v>
       </c>
     </row>
     <row r="111">
@@ -8242,7 +8242,7 @@
         <v>632</v>
       </c>
       <c r="V111" t="n">
-        <v>36.10020833333333</v>
+        <v>35.89820261437908</v>
       </c>
     </row>
     <row r="112">
@@ -8312,7 +8312,7 @@
         <v>632</v>
       </c>
       <c r="V112" t="n">
-        <v>36.12420138888888</v>
+        <v>35.91650326797385</v>
       </c>
     </row>
     <row r="113">
@@ -8382,7 +8382,7 @@
         <v>634</v>
       </c>
       <c r="V113" t="n">
-        <v>36.14819444444444</v>
+        <v>35.93480392156862</v>
       </c>
     </row>
     <row r="114">
@@ -8452,7 +8452,7 @@
         <v>634</v>
       </c>
       <c r="V114" t="n">
-        <v>36.1721875</v>
+        <v>35.95310457516339</v>
       </c>
     </row>
     <row r="115">
@@ -8522,7 +8522,7 @@
         <v>634</v>
       </c>
       <c r="V115" t="n">
-        <v>36.19618055555556</v>
+        <v>35.97140522875817</v>
       </c>
     </row>
     <row r="116">
@@ -8592,7 +8592,7 @@
         <v>631</v>
       </c>
       <c r="V116" t="n">
-        <v>36.22017361111111</v>
+        <v>35.98970588235294</v>
       </c>
     </row>
     <row r="117">
@@ -8662,7 +8662,7 @@
         <v>631</v>
       </c>
       <c r="V117" t="n">
-        <v>36.24416666666666</v>
+        <v>36.00800653594771</v>
       </c>
     </row>
     <row r="118">
@@ -8732,7 +8732,7 @@
         <v>631</v>
       </c>
       <c r="V118" t="n">
-        <v>36.26815972222222</v>
+        <v>36.02630718954249</v>
       </c>
     </row>
     <row r="119">
@@ -8802,7 +8802,7 @@
         <v>631</v>
       </c>
       <c r="V119" t="n">
-        <v>36.29215277777778</v>
+        <v>36.04460784313726</v>
       </c>
     </row>
     <row r="120">
@@ -8872,7 +8872,7 @@
         <v>631</v>
       </c>
       <c r="V120" t="n">
-        <v>36.31614583333333</v>
+        <v>36.06290849673203</v>
       </c>
     </row>
     <row r="121">
@@ -8942,7 +8942,7 @@
         <v>629</v>
       </c>
       <c r="V121" t="n">
-        <v>36.34013888888889</v>
+        <v>36.0812091503268</v>
       </c>
     </row>
     <row r="122">
@@ -9012,7 +9012,7 @@
         <v>629</v>
       </c>
       <c r="V122" t="n">
-        <v>36.36413194444444</v>
+        <v>36.09950980392157</v>
       </c>
     </row>
     <row r="123">
@@ -9082,7 +9082,7 @@
         <v>629</v>
       </c>
       <c r="V123" t="n">
-        <v>36.388125</v>
+        <v>36.11781045751634</v>
       </c>
     </row>
     <row r="124">
@@ -9152,7 +9152,7 @@
         <v>629</v>
       </c>
       <c r="V124" t="n">
-        <v>36.41211805555555</v>
+        <v>36.13611111111111</v>
       </c>
     </row>
     <row r="125">
@@ -9362,7 +9362,7 @@
         <v>630</v>
       </c>
       <c r="V127" t="n">
-        <v>36.97685185185185</v>
+        <v>37.29722222222222</v>
       </c>
     </row>
     <row r="128">
@@ -9432,7 +9432,7 @@
         <v>630</v>
       </c>
       <c r="V128" t="n">
-        <v>37.08148148148148</v>
+        <v>37.41944444444444</v>
       </c>
     </row>
     <row r="129">
@@ -9642,7 +9642,7 @@
         <v>628</v>
       </c>
       <c r="V131" t="n">
-        <v>36.51888888888889</v>
+        <v>36.19166666666666</v>
       </c>
     </row>
     <row r="132">
@@ -9712,7 +9712,7 @@
         <v>628</v>
       </c>
       <c r="V132" t="n">
-        <v>36.43222222222222</v>
+        <v>36.14074074074074</v>
       </c>
     </row>
     <row r="133">
@@ -9782,7 +9782,7 @@
         <v>628</v>
       </c>
       <c r="V133" t="n">
-        <v>36.34555555555556</v>
+        <v>36.08981481481482</v>
       </c>
     </row>
     <row r="134">
@@ -9852,7 +9852,7 @@
         <v>628</v>
       </c>
       <c r="V134" t="n">
-        <v>36.25888888888889</v>
+        <v>36.03888888888889</v>
       </c>
     </row>
     <row r="135">
@@ -9922,7 +9922,7 @@
         <v>628</v>
       </c>
       <c r="V135" t="n">
-        <v>36.17222222222222</v>
+        <v>35.92777777777778</v>
       </c>
     </row>
     <row r="136">
@@ -9992,7 +9992,7 @@
         <v>628</v>
       </c>
       <c r="V136" t="n">
-        <v>36.08555555555555</v>
+        <v>35.73888888888889</v>
       </c>
     </row>
     <row r="137">
@@ -10062,7 +10062,7 @@
         <v>629</v>
       </c>
       <c r="V137" t="n">
-        <v>35.99888888888889</v>
+        <v>35.67083333333333</v>
       </c>
     </row>
     <row r="138">
@@ -10132,7 +10132,7 @@
         <v>629</v>
       </c>
       <c r="V138" t="n">
-        <v>35.91222222222222</v>
+        <v>35.60277777777777</v>
       </c>
     </row>
     <row r="139">
@@ -10202,7 +10202,7 @@
         <v>629</v>
       </c>
       <c r="V139" t="n">
-        <v>35.82555555555555</v>
+        <v>35.67083333333333</v>
       </c>
     </row>
     <row r="140">
@@ -10342,7 +10342,7 @@
         <v>629</v>
       </c>
       <c r="V141" t="n">
-        <v>35.61767676767676</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="142">
@@ -10412,7 +10412,7 @@
         <v>627</v>
       </c>
       <c r="V142" t="n">
-        <v>35.49646464646464</v>
+        <v>35.04722222222222</v>
       </c>
     </row>
     <row r="143">
@@ -10482,7 +10482,7 @@
         <v>627</v>
       </c>
       <c r="V143" t="n">
-        <v>35.37525252525252</v>
+        <v>34.92777777777778</v>
       </c>
     </row>
     <row r="144">
@@ -10552,7 +10552,7 @@
         <v>627</v>
       </c>
       <c r="V144" t="n">
-        <v>35.2540404040404</v>
+        <v>34.72222222222222</v>
       </c>
     </row>
     <row r="145">
@@ -10622,7 +10622,7 @@
         <v>627</v>
       </c>
       <c r="V145" t="n">
-        <v>35.13282828282828</v>
+        <v>34.51666666666667</v>
       </c>
     </row>
     <row r="146">
@@ -10692,7 +10692,7 @@
         <v>627</v>
       </c>
       <c r="V146" t="n">
-        <v>35.01161616161616</v>
+        <v>34.45166666666667</v>
       </c>
     </row>
     <row r="147">
@@ -10762,7 +10762,7 @@
         <v>627</v>
       </c>
       <c r="V147" t="n">
-        <v>34.89040404040404</v>
+        <v>34.38666666666667</v>
       </c>
     </row>
     <row r="148">
@@ -10832,7 +10832,7 @@
         <v>629</v>
       </c>
       <c r="V148" t="n">
-        <v>34.76919191919192</v>
+        <v>34.32166666666667</v>
       </c>
     </row>
     <row r="149">
@@ -10902,7 +10902,7 @@
         <v>629</v>
       </c>
       <c r="V149" t="n">
-        <v>34.64797979797979</v>
+        <v>34.25666666666667</v>
       </c>
     </row>
     <row r="150">
@@ -10972,7 +10972,7 @@
         <v>629</v>
       </c>
       <c r="V150" t="n">
-        <v>34.52676767676768</v>
+        <v>34.19166666666667</v>
       </c>
     </row>
     <row r="151">
@@ -11182,7 +11182,7 @@
         <v>630</v>
       </c>
       <c r="V153" t="n">
-        <v>34.73824786324786</v>
+        <v>35.14444444444445</v>
       </c>
     </row>
     <row r="154">
@@ -11252,7 +11252,7 @@
         <v>630</v>
       </c>
       <c r="V154" t="n">
-        <v>34.71260683760684</v>
+        <v>35.44166666666667</v>
       </c>
     </row>
     <row r="155">
@@ -11322,7 +11322,7 @@
         <v>630</v>
       </c>
       <c r="V155" t="n">
-        <v>34.68696581196581</v>
+        <v>35.55277777777778</v>
       </c>
     </row>
     <row r="156">
@@ -11392,7 +11392,7 @@
         <v>630</v>
       </c>
       <c r="V156" t="n">
-        <v>34.66132478632479</v>
+        <v>35.59944444444444</v>
       </c>
     </row>
     <row r="157">
@@ -11462,7 +11462,7 @@
         <v>630</v>
       </c>
       <c r="V157" t="n">
-        <v>34.63568376068376</v>
+        <v>35.64611111111111</v>
       </c>
     </row>
     <row r="158">
@@ -11532,7 +11532,7 @@
         <v>629</v>
       </c>
       <c r="V158" t="n">
-        <v>34.61004273504274</v>
+        <v>35.69277777777778</v>
       </c>
     </row>
     <row r="159">
@@ -11602,7 +11602,7 @@
         <v>629</v>
       </c>
       <c r="V159" t="n">
-        <v>34.58440170940171</v>
+        <v>35.73944444444444</v>
       </c>
     </row>
     <row r="160">
@@ -11672,7 +11672,7 @@
         <v>629</v>
       </c>
       <c r="V160" t="n">
-        <v>34.55876068376069</v>
+        <v>35.78611111111111</v>
       </c>
     </row>
     <row r="161">
@@ -11742,7 +11742,7 @@
         <v>629</v>
       </c>
       <c r="V161" t="n">
-        <v>34.53311965811966</v>
+        <v>35.58055555555556</v>
       </c>
     </row>
     <row r="162">
@@ -11812,7 +11812,7 @@
         <v>629</v>
       </c>
       <c r="V162" t="n">
-        <v>34.50747863247864</v>
+        <v>35.27777777777778</v>
       </c>
     </row>
     <row r="163">
@@ -11882,7 +11882,7 @@
         <v>629</v>
       </c>
       <c r="V163" t="n">
-        <v>34.48183760683761</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
@@ -11952,7 +11952,7 @@
         <v>630</v>
       </c>
       <c r="V164" t="n">
-        <v>34.45619658119659</v>
+        <v>34.73055555555555</v>
       </c>
     </row>
     <row r="165">
@@ -12162,7 +12162,7 @@
         <v>632</v>
       </c>
       <c r="V167" t="n">
-        <v>34.03045751633987</v>
+        <v>33.64444444444445</v>
       </c>
     </row>
     <row r="168">
@@ -12232,7 +12232,7 @@
         <v>632</v>
       </c>
       <c r="V168" t="n">
-        <v>34.01924836601307</v>
+        <v>33.31944444444444</v>
       </c>
     </row>
     <row r="169">
@@ -12302,7 +12302,7 @@
         <v>632</v>
       </c>
       <c r="V169" t="n">
-        <v>34.00803921568627</v>
+        <v>33.05555555555556</v>
       </c>
     </row>
     <row r="170">
@@ -12372,7 +12372,7 @@
         <v>629</v>
       </c>
       <c r="V170" t="n">
-        <v>33.99683006535948</v>
+        <v>32.77777777777778</v>
       </c>
     </row>
     <row r="171">
@@ -12442,7 +12442,7 @@
         <v>629</v>
       </c>
       <c r="V171" t="n">
-        <v>33.98562091503268</v>
+        <v>32.71736111111111</v>
       </c>
     </row>
     <row r="172">
@@ -12512,7 +12512,7 @@
         <v>629</v>
       </c>
       <c r="V172" t="n">
-        <v>33.97441176470588</v>
+        <v>32.65694444444445</v>
       </c>
     </row>
     <row r="173">
@@ -12582,7 +12582,7 @@
         <v>629</v>
       </c>
       <c r="V173" t="n">
-        <v>33.96320261437909</v>
+        <v>32.59652777777778</v>
       </c>
     </row>
     <row r="174">
@@ -12652,7 +12652,7 @@
         <v>629</v>
       </c>
       <c r="V174" t="n">
-        <v>33.95199346405229</v>
+        <v>32.53611111111111</v>
       </c>
     </row>
     <row r="175">
@@ -12722,7 +12722,7 @@
         <v>629</v>
       </c>
       <c r="V175" t="n">
-        <v>33.94078431372549</v>
+        <v>32.47569444444444</v>
       </c>
     </row>
     <row r="176">
@@ -12792,7 +12792,7 @@
         <v>629</v>
       </c>
       <c r="V176" t="n">
-        <v>33.92957516339869</v>
+        <v>32.41527777777777</v>
       </c>
     </row>
     <row r="177">
@@ -12862,7 +12862,7 @@
         <v>627</v>
       </c>
       <c r="V177" t="n">
-        <v>33.9183660130719</v>
+        <v>32.35486111111111</v>
       </c>
     </row>
     <row r="178">
@@ -12932,7 +12932,7 @@
         <v>626</v>
       </c>
       <c r="V178" t="n">
-        <v>33.9071568627451</v>
+        <v>32.29444444444444</v>
       </c>
     </row>
     <row r="179">
@@ -13002,7 +13002,7 @@
         <v>626</v>
       </c>
       <c r="V179" t="n">
-        <v>33.8959477124183</v>
+        <v>32.40555555555555</v>
       </c>
     </row>
     <row r="180">
@@ -13072,7 +13072,7 @@
         <v>626</v>
       </c>
       <c r="V180" t="n">
-        <v>33.8847385620915</v>
+        <v>32.57222222222222</v>
       </c>
     </row>
     <row r="181">
@@ -13142,7 +13142,7 @@
         <v>626</v>
       </c>
       <c r="V181" t="n">
-        <v>33.8735294117647</v>
+        <v>32.60959595959596</v>
       </c>
     </row>
     <row r="182">
@@ -13212,7 +13212,7 @@
         <v>626</v>
       </c>
       <c r="V182" t="n">
-        <v>33.86232026143791</v>
+        <v>32.6469696969697</v>
       </c>
     </row>
     <row r="183">
@@ -13282,7 +13282,7 @@
         <v>630</v>
       </c>
       <c r="V183" t="n">
-        <v>33.85111111111111</v>
+        <v>32.68434343434343</v>
       </c>
     </row>
     <row r="184">
@@ -13352,7 +13352,7 @@
         <v>630</v>
       </c>
       <c r="V184" t="n">
-        <v>33.83990196078431</v>
+        <v>32.72171717171717</v>
       </c>
     </row>
     <row r="185">
@@ -13422,7 +13422,7 @@
         <v>630</v>
       </c>
       <c r="V185" t="n">
-        <v>33.82869281045751</v>
+        <v>32.75909090909091</v>
       </c>
     </row>
     <row r="186">
@@ -13492,7 +13492,7 @@
         <v>630</v>
       </c>
       <c r="V186" t="n">
-        <v>33.81748366013072</v>
+        <v>32.79646464646465</v>
       </c>
     </row>
     <row r="187">
@@ -13562,7 +13562,7 @@
         <v>630</v>
       </c>
       <c r="V187" t="n">
-        <v>33.80627450980392</v>
+        <v>32.83383838383838</v>
       </c>
     </row>
     <row r="188">
@@ -13632,7 +13632,7 @@
         <v>630</v>
       </c>
       <c r="V188" t="n">
-        <v>33.79506535947712</v>
+        <v>32.87121212121212</v>
       </c>
     </row>
     <row r="189">
@@ -13702,7 +13702,7 @@
         <v>629</v>
       </c>
       <c r="V189" t="n">
-        <v>33.78385620915032</v>
+        <v>32.90858585858586</v>
       </c>
     </row>
     <row r="190">
@@ -13772,7 +13772,7 @@
         <v>629</v>
       </c>
       <c r="V190" t="n">
-        <v>33.77264705882353</v>
+        <v>32.9459595959596</v>
       </c>
     </row>
     <row r="191">
@@ -13842,7 +13842,7 @@
         <v>629</v>
       </c>
       <c r="V191" t="n">
-        <v>33.76143790849673</v>
+        <v>32.98333333333333</v>
       </c>
     </row>
     <row r="192">
@@ -13912,7 +13912,7 @@
         <v>629</v>
       </c>
       <c r="V192" t="n">
-        <v>33.75022875816993</v>
+        <v>32.91666666666666</v>
       </c>
     </row>
     <row r="193">
@@ -13982,7 +13982,7 @@
         <v>629</v>
       </c>
       <c r="V193" t="n">
-        <v>33.73901960784313</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="194">
@@ -14052,7 +14052,7 @@
         <v>632</v>
       </c>
       <c r="V194" t="n">
-        <v>33.72781045751634</v>
+        <v>32.78333333333333</v>
       </c>
     </row>
     <row r="195">
@@ -14122,7 +14122,7 @@
         <v>632</v>
       </c>
       <c r="V195" t="n">
-        <v>33.71660130718954</v>
+        <v>32.68333333333333</v>
       </c>
     </row>
     <row r="196">
@@ -14192,7 +14192,7 @@
         <v>632</v>
       </c>
       <c r="V196" t="n">
-        <v>33.70539215686274</v>
+        <v>32.57777777777778</v>
       </c>
     </row>
     <row r="197">
@@ -14262,7 +14262,7 @@
         <v>632</v>
       </c>
       <c r="V197" t="n">
-        <v>33.69418300653594</v>
+        <v>32.40833333333333</v>
       </c>
     </row>
     <row r="198">
@@ -14332,7 +14332,7 @@
         <v>632</v>
       </c>
       <c r="V198" t="n">
-        <v>33.68297385620914</v>
+        <v>32.32222222222222</v>
       </c>
     </row>
     <row r="199">
@@ -14402,7 +14402,7 @@
         <v>632</v>
       </c>
       <c r="V199" t="n">
-        <v>33.67176470588235</v>
+        <v>32.23611111111111</v>
       </c>
     </row>
     <row r="200">
@@ -14472,7 +14472,7 @@
         <v>633</v>
       </c>
       <c r="V200" t="n">
-        <v>33.66055555555555</v>
+        <v>32.21614583333333</v>
       </c>
     </row>
     <row r="201">
@@ -14542,7 +14542,7 @@
         <v>633</v>
       </c>
       <c r="V201" t="n">
-        <v>33.64934640522875</v>
+        <v>32.19618055555555</v>
       </c>
     </row>
     <row r="202">
@@ -14612,7 +14612,7 @@
         <v>633</v>
       </c>
       <c r="V202" t="n">
-        <v>33.63813725490196</v>
+        <v>32.17621527777777</v>
       </c>
     </row>
     <row r="203">
@@ -14682,7 +14682,7 @@
         <v>632</v>
       </c>
       <c r="V203" t="n">
-        <v>33.62692810457516</v>
+        <v>32.15625</v>
       </c>
     </row>
     <row r="204">
@@ -14752,7 +14752,7 @@
         <v>632</v>
       </c>
       <c r="V204" t="n">
-        <v>33.61571895424836</v>
+        <v>32.13628472222222</v>
       </c>
     </row>
     <row r="205">
@@ -14822,7 +14822,7 @@
         <v>632</v>
       </c>
       <c r="V205" t="n">
-        <v>33.60450980392157</v>
+        <v>32.11631944444444</v>
       </c>
     </row>
     <row r="206">
@@ -14892,7 +14892,7 @@
         <v>630</v>
       </c>
       <c r="V206" t="n">
-        <v>33.59330065359477</v>
+        <v>32.09635416666666</v>
       </c>
     </row>
     <row r="207">
@@ -14962,7 +14962,7 @@
         <v>630</v>
       </c>
       <c r="V207" t="n">
-        <v>33.58209150326797</v>
+        <v>32.07638888888889</v>
       </c>
     </row>
     <row r="208">
@@ -15032,7 +15032,7 @@
         <v>630</v>
       </c>
       <c r="V208" t="n">
-        <v>33.57088235294118</v>
+        <v>32.05642361111111</v>
       </c>
     </row>
     <row r="209">
@@ -15102,7 +15102,7 @@
         <v>630</v>
       </c>
       <c r="V209" t="n">
-        <v>33.55967320261438</v>
+        <v>32.03645833333334</v>
       </c>
     </row>
     <row r="210">
@@ -15172,7 +15172,7 @@
         <v>630</v>
       </c>
       <c r="V210" t="n">
-        <v>33.54846405228758</v>
+        <v>32.01649305555556</v>
       </c>
     </row>
     <row r="211">
@@ -15242,7 +15242,7 @@
         <v>632</v>
       </c>
       <c r="V211" t="n">
-        <v>33.53725490196078</v>
+        <v>31.99652777777778</v>
       </c>
     </row>
     <row r="212">
@@ -15312,7 +15312,7 @@
         <v>632</v>
       </c>
       <c r="V212" t="n">
-        <v>33.52604575163399</v>
+        <v>31.9765625</v>
       </c>
     </row>
     <row r="213">
@@ -15382,7 +15382,7 @@
         <v>632</v>
       </c>
       <c r="V213" t="n">
-        <v>33.51483660130719</v>
+        <v>31.95659722222222</v>
       </c>
     </row>
     <row r="214">
@@ -15452,7 +15452,7 @@
         <v>632</v>
       </c>
       <c r="V214" t="n">
-        <v>33.50362745098039</v>
+        <v>31.93663194444445</v>
       </c>
     </row>
     <row r="215">
@@ -15522,7 +15522,7 @@
         <v>632</v>
       </c>
       <c r="V215" t="n">
-        <v>33.49241830065359</v>
+        <v>31.91666666666667</v>
       </c>
     </row>
     <row r="216">
@@ -15592,7 +15592,7 @@
         <v>630</v>
       </c>
       <c r="V216" t="n">
-        <v>33.4812091503268</v>
+        <v>31.81388888888889</v>
       </c>
     </row>
     <row r="217">
@@ -15662,7 +15662,7 @@
         <v>630</v>
       </c>
       <c r="V217" t="n">
-        <v>33.47</v>
+        <v>31.71111111111111</v>
       </c>
     </row>
     <row r="218">
@@ -15732,7 +15732,7 @@
         <v>630</v>
       </c>
       <c r="V218" t="n">
-        <v>33.4587908496732</v>
+        <v>31.60833333333333</v>
       </c>
     </row>
     <row r="219">
@@ -15802,7 +15802,7 @@
         <v>630</v>
       </c>
       <c r="V219" t="n">
-        <v>33.4475816993464</v>
+        <v>31.38888888888889</v>
       </c>
     </row>
     <row r="220">
@@ -15872,7 +15872,7 @@
         <v>630</v>
       </c>
       <c r="V220" t="n">
-        <v>33.43637254901961</v>
+        <v>31.18333333333333</v>
       </c>
     </row>
     <row r="221">
@@ -15942,7 +15942,7 @@
         <v>630</v>
       </c>
       <c r="V221" t="n">
-        <v>33.42516339869281</v>
+        <v>31.01666666666667</v>
       </c>
     </row>
     <row r="222">
@@ -16012,7 +16012,7 @@
         <v>630</v>
       </c>
       <c r="V222" t="n">
-        <v>33.41395424836601</v>
+        <v>30.93981481481481</v>
       </c>
     </row>
     <row r="223">
@@ -16082,7 +16082,7 @@
         <v>630</v>
       </c>
       <c r="V223" t="n">
-        <v>33.40274509803921</v>
+        <v>30.86296296296296</v>
       </c>
     </row>
     <row r="224">
@@ -16152,7 +16152,7 @@
         <v>630</v>
       </c>
       <c r="V224" t="n">
-        <v>33.39153594771241</v>
+        <v>30.78611111111111</v>
       </c>
     </row>
     <row r="225">
@@ -16222,7 +16222,7 @@
         <v>630</v>
       </c>
       <c r="V225" t="n">
-        <v>33.38032679738562</v>
+        <v>30.55555555555555</v>
       </c>
     </row>
     <row r="226">
@@ -16292,7 +16292,7 @@
         <v>630</v>
       </c>
       <c r="V226" t="n">
-        <v>33.36911764705882</v>
+        <v>30.35</v>
       </c>
     </row>
     <row r="227">
@@ -16362,7 +16362,7 @@
         <v>630</v>
       </c>
       <c r="V227" t="n">
-        <v>33.35790849673202</v>
+        <v>30.18333333333333</v>
       </c>
     </row>
     <row r="228">
@@ -16432,7 +16432,7 @@
         <v>630</v>
       </c>
       <c r="V228" t="n">
-        <v>33.34669934640522</v>
+        <v>30.09814814814814</v>
       </c>
     </row>
     <row r="229">
@@ -16502,7 +16502,7 @@
         <v>630</v>
       </c>
       <c r="V229" t="n">
-        <v>33.33549019607843</v>
+        <v>30.01296296296296</v>
       </c>
     </row>
     <row r="230">
@@ -16572,7 +16572,7 @@
         <v>630</v>
       </c>
       <c r="V230" t="n">
-        <v>33.32428104575163</v>
+        <v>29.92777777777778</v>
       </c>
     </row>
     <row r="231">
@@ -16642,7 +16642,7 @@
         <v>630</v>
       </c>
       <c r="V231" t="n">
-        <v>33.31307189542483</v>
+        <v>29.81666666666667</v>
       </c>
     </row>
     <row r="232">
@@ -16712,7 +16712,7 @@
         <v>630</v>
       </c>
       <c r="V232" t="n">
-        <v>33.30186274509803</v>
+        <v>29.62777777777778</v>
       </c>
     </row>
     <row r="233">
@@ -16782,7 +16782,7 @@
         <v>630</v>
       </c>
       <c r="V233" t="n">
-        <v>33.29065359477124</v>
+        <v>29.54259259259259</v>
       </c>
     </row>
     <row r="234">
@@ -16852,7 +16852,7 @@
         <v>628</v>
       </c>
       <c r="V234" t="n">
-        <v>33.27944444444444</v>
+        <v>29.45740740740741</v>
       </c>
     </row>
     <row r="235">
@@ -16922,7 +16922,7 @@
         <v>628</v>
       </c>
       <c r="V235" t="n">
-        <v>33.26823529411764</v>
+        <v>29.37222222222222</v>
       </c>
     </row>
     <row r="236">
@@ -16992,7 +16992,7 @@
         <v>628</v>
       </c>
       <c r="V236" t="n">
-        <v>33.25702614379085</v>
+        <v>29.23888888888889</v>
       </c>
     </row>
     <row r="237">
@@ -17062,7 +17062,7 @@
         <v>628</v>
       </c>
       <c r="V237" t="n">
-        <v>33.24581699346405</v>
+        <v>29.11944444444444</v>
       </c>
     </row>
     <row r="238">
@@ -17132,7 +17132,7 @@
         <v>628</v>
       </c>
       <c r="V238" t="n">
-        <v>33.23460784313725</v>
+        <v>29.23888888888889</v>
       </c>
     </row>
     <row r="239">
@@ -17202,7 +17202,7 @@
         <v>628</v>
       </c>
       <c r="V239" t="n">
-        <v>33.22339869281046</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="240">
@@ -17272,7 +17272,7 @@
         <v>626</v>
       </c>
       <c r="V240" t="n">
-        <v>33.21218954248366</v>
+        <v>29.48888888888889</v>
       </c>
     </row>
     <row r="241">
@@ -17342,7 +17342,7 @@
         <v>626</v>
       </c>
       <c r="V241" t="n">
-        <v>33.20098039215686</v>
+        <v>29.62777777777778</v>
       </c>
     </row>
     <row r="242">
@@ -17412,7 +17412,7 @@
         <v>626</v>
       </c>
       <c r="V242" t="n">
-        <v>33.18977124183007</v>
+        <v>29.63282828282828</v>
       </c>
     </row>
     <row r="243">
@@ -17482,7 +17482,7 @@
         <v>626</v>
       </c>
       <c r="V243" t="n">
-        <v>33.17856209150327</v>
+        <v>29.63787878787879</v>
       </c>
     </row>
     <row r="244">
@@ -17552,7 +17552,7 @@
         <v>626</v>
       </c>
       <c r="V244" t="n">
-        <v>33.16735294117647</v>
+        <v>29.64292929292929</v>
       </c>
     </row>
     <row r="245">
@@ -17622,7 +17622,7 @@
         <v>626</v>
       </c>
       <c r="V245" t="n">
-        <v>33.15614379084967</v>
+        <v>29.6479797979798</v>
       </c>
     </row>
     <row r="246">
@@ -17692,7 +17692,7 @@
         <v>626</v>
       </c>
       <c r="V246" t="n">
-        <v>33.14493464052288</v>
+        <v>29.6530303030303</v>
       </c>
     </row>
     <row r="247">
@@ -17762,7 +17762,7 @@
         <v>628</v>
       </c>
       <c r="V247" t="n">
-        <v>33.13372549019608</v>
+        <v>29.65808080808081</v>
       </c>
     </row>
     <row r="248">
@@ -17832,7 +17832,7 @@
         <v>625</v>
       </c>
       <c r="V248" t="n">
-        <v>33.12251633986928</v>
+        <v>29.66313131313131</v>
       </c>
     </row>
     <row r="249">
@@ -17902,7 +17902,7 @@
         <v>625</v>
       </c>
       <c r="V249" t="n">
-        <v>33.11130718954248</v>
+        <v>29.66818181818182</v>
       </c>
     </row>
     <row r="250">
@@ -17972,7 +17972,7 @@
         <v>625</v>
       </c>
       <c r="V250" t="n">
-        <v>33.10009803921569</v>
+        <v>29.67323232323232</v>
       </c>
     </row>
     <row r="251">
@@ -18042,7 +18042,7 @@
         <v>625</v>
       </c>
       <c r="V251" t="n">
-        <v>33.08888888888889</v>
+        <v>29.67828282828283</v>
       </c>
     </row>
     <row r="252">
@@ -18112,7 +18112,7 @@
         <v>625</v>
       </c>
       <c r="V252" t="n">
-        <v>33.07767973856209</v>
+        <v>29.68333333333333</v>
       </c>
     </row>
     <row r="253">
@@ -18182,7 +18182,7 @@
         <v>627</v>
       </c>
       <c r="V253" t="n">
-        <v>33.06647058823529</v>
+        <v>29.68838383838384</v>
       </c>
     </row>
     <row r="254">
@@ -18252,7 +18252,7 @@
         <v>627</v>
       </c>
       <c r="V254" t="n">
-        <v>33.05526143790849</v>
+        <v>29.69343434343434</v>
       </c>
     </row>
     <row r="255">
@@ -18322,7 +18322,7 @@
         <v>627</v>
       </c>
       <c r="V255" t="n">
-        <v>33.0440522875817</v>
+        <v>29.69848484848485</v>
       </c>
     </row>
     <row r="256">
@@ -18392,7 +18392,7 @@
         <v>627</v>
       </c>
       <c r="V256" t="n">
-        <v>33.0328431372549</v>
+        <v>29.70353535353535</v>
       </c>
     </row>
     <row r="257">
@@ -18462,7 +18462,7 @@
         <v>627</v>
       </c>
       <c r="V257" t="n">
-        <v>33.0216339869281</v>
+        <v>29.70858585858586</v>
       </c>
     </row>
     <row r="258">
@@ -18532,7 +18532,7 @@
         <v>627</v>
       </c>
       <c r="V258" t="n">
-        <v>33.0104248366013</v>
+        <v>29.71363636363636</v>
       </c>
     </row>
     <row r="259">
@@ -18602,7 +18602,7 @@
         <v>627</v>
       </c>
       <c r="V259" t="n">
-        <v>32.99921568627451</v>
+        <v>29.71868686868687</v>
       </c>
     </row>
     <row r="260">
@@ -18672,7 +18672,7 @@
         <v>627</v>
       </c>
       <c r="V260" t="n">
-        <v>32.98800653594771</v>
+        <v>29.72373737373737</v>
       </c>
     </row>
     <row r="261">
@@ -18742,7 +18742,7 @@
         <v>627</v>
       </c>
       <c r="V261" t="n">
-        <v>32.97679738562091</v>
+        <v>29.72878787878788</v>
       </c>
     </row>
     <row r="262">
@@ -18812,7 +18812,7 @@
         <v>627</v>
       </c>
       <c r="V262" t="n">
-        <v>32.96558823529411</v>
+        <v>29.73383838383838</v>
       </c>
     </row>
     <row r="263">
@@ -18882,7 +18882,7 @@
         <v>624</v>
       </c>
       <c r="V263" t="n">
-        <v>32.95437908496732</v>
+        <v>29.73888888888889</v>
       </c>
     </row>
     <row r="264">
@@ -18952,7 +18952,7 @@
         <v>624</v>
       </c>
       <c r="V264" t="n">
-        <v>32.94316993464052</v>
+        <v>29.74747474747475</v>
       </c>
     </row>
     <row r="265">
@@ -19022,7 +19022,7 @@
         <v>624</v>
       </c>
       <c r="V265" t="n">
-        <v>32.93196078431372</v>
+        <v>29.7560606060606</v>
       </c>
     </row>
     <row r="266">
@@ -19092,7 +19092,7 @@
         <v>624</v>
       </c>
       <c r="V266" t="n">
-        <v>32.92075163398692</v>
+        <v>29.76464646464646</v>
       </c>
     </row>
     <row r="267">
@@ -19162,7 +19162,7 @@
         <v>624</v>
       </c>
       <c r="V267" t="n">
-        <v>32.90954248366013</v>
+        <v>29.77323232323232</v>
       </c>
     </row>
     <row r="268">
@@ -19232,7 +19232,7 @@
         <v>624</v>
       </c>
       <c r="V268" t="n">
-        <v>32.89833333333333</v>
+        <v>29.78181818181818</v>
       </c>
     </row>
     <row r="269">
@@ -19302,7 +19302,7 @@
         <v>623</v>
       </c>
       <c r="V269" t="n">
-        <v>32.88712418300653</v>
+        <v>29.79040404040404</v>
       </c>
     </row>
     <row r="270">
@@ -19372,7 +19372,7 @@
         <v>623</v>
       </c>
       <c r="V270" t="n">
-        <v>32.87591503267974</v>
+        <v>29.7989898989899</v>
       </c>
     </row>
     <row r="271">
@@ -19442,7 +19442,7 @@
         <v>623</v>
       </c>
       <c r="V271" t="n">
-        <v>32.86470588235294</v>
+        <v>29.80757575757575</v>
       </c>
     </row>
     <row r="272">
@@ -19512,7 +19512,7 @@
         <v>623</v>
       </c>
       <c r="V272" t="n">
-        <v>32.85349673202614</v>
+        <v>29.81616161616162</v>
       </c>
     </row>
     <row r="273">
@@ -19582,7 +19582,7 @@
         <v>620</v>
       </c>
       <c r="V273" t="n">
-        <v>32.84228758169935</v>
+        <v>29.82474747474747</v>
       </c>
     </row>
     <row r="274">
@@ -19652,7 +19652,7 @@
         <v>620</v>
       </c>
       <c r="V274" t="n">
-        <v>32.83107843137255</v>
+        <v>29.83333333333333</v>
       </c>
     </row>
     <row r="275">
@@ -19722,7 +19722,7 @@
         <v>620</v>
       </c>
       <c r="V275" t="n">
-        <v>32.81986928104575</v>
+        <v>29.84191919191919</v>
       </c>
     </row>
     <row r="276">
@@ -19792,7 +19792,7 @@
         <v>622</v>
       </c>
       <c r="V276" t="n">
-        <v>32.80866013071896</v>
+        <v>29.85050505050505</v>
       </c>
     </row>
     <row r="277">
@@ -19862,7 +19862,7 @@
         <v>622</v>
       </c>
       <c r="V277" t="n">
-        <v>32.79745098039216</v>
+        <v>29.85909090909091</v>
       </c>
     </row>
     <row r="278">
@@ -19932,7 +19932,7 @@
         <v>622</v>
       </c>
       <c r="V278" t="n">
-        <v>32.78624183006536</v>
+        <v>29.86767676767677</v>
       </c>
     </row>
     <row r="279">
@@ -20002,7 +20002,7 @@
         <v>622</v>
       </c>
       <c r="V279" t="n">
-        <v>32.77503267973856</v>
+        <v>29.87626262626263</v>
       </c>
     </row>
     <row r="280">
@@ -20072,7 +20072,7 @@
         <v>622</v>
       </c>
       <c r="V280" t="n">
-        <v>32.76382352941177</v>
+        <v>29.88484848484848</v>
       </c>
     </row>
     <row r="281">
@@ -20142,7 +20142,7 @@
         <v>622</v>
       </c>
       <c r="V281" t="n">
-        <v>32.75261437908497</v>
+        <v>29.89343434343434</v>
       </c>
     </row>
     <row r="282">
@@ -20212,7 +20212,7 @@
         <v>622</v>
       </c>
       <c r="V282" t="n">
-        <v>32.74140522875817</v>
+        <v>29.9020202020202</v>
       </c>
     </row>
     <row r="283">
@@ -20282,7 +20282,7 @@
         <v>622</v>
       </c>
       <c r="V283" t="n">
-        <v>32.73019607843137</v>
+        <v>29.91060606060606</v>
       </c>
     </row>
     <row r="284">
@@ -20352,7 +20352,7 @@
         <v>622</v>
       </c>
       <c r="V284" t="n">
-        <v>32.71898692810457</v>
+        <v>29.91919191919192</v>
       </c>
     </row>
     <row r="285">
@@ -20422,7 +20422,7 @@
         <v>621</v>
       </c>
       <c r="V285" t="n">
-        <v>32.70777777777778</v>
+        <v>29.92777777777778</v>
       </c>
     </row>
     <row r="286">
@@ -20492,7 +20492,7 @@
         <v>621</v>
       </c>
       <c r="V286" t="n">
-        <v>32.69656862745098</v>
+        <v>29.83518518518519</v>
       </c>
     </row>
     <row r="287">
@@ -20562,7 +20562,7 @@
         <v>621</v>
       </c>
       <c r="V287" t="n">
-        <v>32.68535947712418</v>
+        <v>29.74259259259259</v>
       </c>
     </row>
     <row r="288">
@@ -20632,7 +20632,7 @@
         <v>621</v>
       </c>
       <c r="V288" t="n">
-        <v>32.67415032679738</v>
+        <v>29.71748971193415</v>
       </c>
     </row>
     <row r="289">
@@ -20702,7 +20702,7 @@
         <v>621</v>
       </c>
       <c r="V289" t="n">
-        <v>32.66294117647059</v>
+        <v>29.69238683127572</v>
       </c>
     </row>
     <row r="290">
@@ -20772,7 +20772,7 @@
         <v>621</v>
       </c>
       <c r="V290" t="n">
-        <v>32.65173202614379</v>
+        <v>29.66728395061728</v>
       </c>
     </row>
     <row r="291">
@@ -20842,7 +20842,7 @@
         <v>622</v>
       </c>
       <c r="V291" t="n">
-        <v>32.64052287581699</v>
+        <v>29.64218106995884</v>
       </c>
     </row>
     <row r="292">
@@ -20912,7 +20912,7 @@
         <v>622</v>
       </c>
       <c r="V292" t="n">
-        <v>32.62931372549019</v>
+        <v>29.61707818930041</v>
       </c>
     </row>
     <row r="293">
@@ -20982,7 +20982,7 @@
         <v>622</v>
       </c>
       <c r="V293" t="n">
-        <v>32.6181045751634</v>
+        <v>29.59197530864197</v>
       </c>
     </row>
     <row r="294">
@@ -21052,7 +21052,7 @@
         <v>622</v>
       </c>
       <c r="V294" t="n">
-        <v>32.6068954248366</v>
+        <v>29.56687242798354</v>
       </c>
     </row>
     <row r="295">
@@ -21122,7 +21122,7 @@
         <v>622</v>
       </c>
       <c r="V295" t="n">
-        <v>32.5956862745098</v>
+        <v>29.5417695473251</v>
       </c>
     </row>
     <row r="296">
@@ -21192,7 +21192,7 @@
         <v>622</v>
       </c>
       <c r="V296" t="n">
-        <v>32.584477124183</v>
+        <v>29.51666666666667</v>
       </c>
     </row>
     <row r="297">
@@ -21262,7 +21262,7 @@
         <v>622</v>
       </c>
       <c r="V297" t="n">
-        <v>32.5732679738562</v>
+        <v>29.60925925925926</v>
       </c>
     </row>
     <row r="298">
@@ -21332,7 +21332,7 @@
         <v>622</v>
       </c>
       <c r="V298" t="n">
-        <v>32.56205882352941</v>
+        <v>29.70185185185185</v>
       </c>
     </row>
     <row r="299">
@@ -21402,7 +21402,7 @@
         <v>620</v>
       </c>
       <c r="V299" t="n">
-        <v>32.55084967320261</v>
+        <v>29.79444444444444</v>
       </c>
     </row>
     <row r="300">
@@ -21472,7 +21472,7 @@
         <v>620</v>
       </c>
       <c r="V300" t="n">
-        <v>32.53964052287581</v>
+        <v>29.90555555555556</v>
       </c>
     </row>
     <row r="301">
@@ -21542,7 +21542,7 @@
         <v>620</v>
       </c>
       <c r="V301" t="n">
-        <v>32.52843137254902</v>
+        <v>29.94305555555555</v>
       </c>
     </row>
     <row r="302">
@@ -21612,7 +21612,7 @@
         <v>620</v>
       </c>
       <c r="V302" t="n">
-        <v>32.51722222222222</v>
+        <v>29.98055555555555</v>
       </c>
     </row>
     <row r="303">
@@ -21682,7 +21682,7 @@
         <v>620</v>
       </c>
       <c r="V303" t="n">
-        <v>32.50601307189542</v>
+        <v>30.01805555555556</v>
       </c>
     </row>
     <row r="304">
@@ -21752,7 +21752,7 @@
         <v>620</v>
       </c>
       <c r="V304" t="n">
-        <v>32.49480392156863</v>
+        <v>30.05555555555555</v>
       </c>
     </row>
     <row r="305">
@@ -21822,7 +21822,7 @@
         <v>621</v>
       </c>
       <c r="V305" t="n">
-        <v>32.48359477124183</v>
+        <v>30.09305555555555</v>
       </c>
     </row>
     <row r="306">
@@ -21892,7 +21892,7 @@
         <v>621</v>
       </c>
       <c r="V306" t="n">
-        <v>32.47238562091503</v>
+        <v>30.13055555555555</v>
       </c>
     </row>
     <row r="307">
@@ -21962,7 +21962,7 @@
         <v>621</v>
       </c>
       <c r="V307" t="n">
-        <v>32.46117647058824</v>
+        <v>30.16805555555555</v>
       </c>
     </row>
     <row r="308">
@@ -22032,7 +22032,7 @@
         <v>621</v>
       </c>
       <c r="V308" t="n">
-        <v>32.44996732026144</v>
+        <v>30.20555555555555</v>
       </c>
     </row>
     <row r="309">
@@ -22102,7 +22102,7 @@
         <v>621</v>
       </c>
       <c r="V309" t="n">
-        <v>32.43875816993464</v>
+        <v>30.13611111111111</v>
       </c>
     </row>
     <row r="310">
@@ -22172,7 +22172,7 @@
         <v>621</v>
       </c>
       <c r="V310" t="n">
-        <v>32.42754901960784</v>
+        <v>30.06666666666666</v>
       </c>
     </row>
     <row r="311">
@@ -22242,7 +22242,7 @@
         <v>621</v>
       </c>
       <c r="V311" t="n">
-        <v>32.41633986928105</v>
+        <v>29.99722222222222</v>
       </c>
     </row>
     <row r="312">
@@ -22312,7 +22312,7 @@
         <v>620</v>
       </c>
       <c r="V312" t="n">
-        <v>32.40513071895425</v>
+        <v>29.92777777777778</v>
       </c>
     </row>
     <row r="313">
@@ -22382,7 +22382,7 @@
         <v>620</v>
       </c>
       <c r="V313" t="n">
-        <v>32.39392156862745</v>
+        <v>29.81666666666667</v>
       </c>
     </row>
     <row r="314">
@@ -22452,7 +22452,7 @@
         <v>620</v>
       </c>
       <c r="V314" t="n">
-        <v>32.38271241830065</v>
+        <v>29.62777777777778</v>
       </c>
     </row>
     <row r="315">
@@ -22522,7 +22522,7 @@
         <v>620</v>
       </c>
       <c r="V315" t="n">
-        <v>32.37150326797386</v>
+        <v>29.54259259259259</v>
       </c>
     </row>
     <row r="316">
@@ -22592,7 +22592,7 @@
         <v>619</v>
       </c>
       <c r="V316" t="n">
-        <v>32.36029411764706</v>
+        <v>29.45740740740741</v>
       </c>
     </row>
     <row r="317">
@@ -22662,7 +22662,7 @@
         <v>619</v>
       </c>
       <c r="V317" t="n">
-        <v>32.34908496732026</v>
+        <v>29.37222222222222</v>
       </c>
     </row>
     <row r="318">
@@ -22732,7 +22732,7 @@
         <v>623</v>
       </c>
       <c r="V318" t="n">
-        <v>32.33787581699346</v>
+        <v>29.23888888888889</v>
       </c>
     </row>
     <row r="319">
@@ -22802,7 +22802,7 @@
         <v>623</v>
       </c>
       <c r="V319" t="n">
-        <v>32.32666666666667</v>
+        <v>29.11944444444444</v>
       </c>
     </row>
     <row r="320">
@@ -22872,7 +22872,7 @@
         <v>623</v>
       </c>
       <c r="V320" t="n">
-        <v>32.31545751633987</v>
+        <v>29.23888888888889</v>
       </c>
     </row>
     <row r="321">
@@ -22942,7 +22942,7 @@
         <v>623</v>
       </c>
       <c r="V321" t="n">
-        <v>32.30424836601307</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="322">
@@ -23012,7 +23012,7 @@
         <v>623</v>
       </c>
       <c r="V322" t="n">
-        <v>32.29303921568627</v>
+        <v>29.51666666666667</v>
       </c>
     </row>
     <row r="323">
@@ -23082,7 +23082,7 @@
         <v>623</v>
       </c>
       <c r="V323" t="n">
-        <v>32.28183006535947</v>
+        <v>29.58253968253968</v>
       </c>
     </row>
     <row r="324">
@@ -23152,7 +23152,7 @@
         <v>623</v>
       </c>
       <c r="V324" t="n">
-        <v>32.27062091503268</v>
+        <v>29.6484126984127</v>
       </c>
     </row>
     <row r="325">
@@ -23222,7 +23222,7 @@
         <v>620</v>
       </c>
       <c r="V325" t="n">
-        <v>32.25941176470588</v>
+        <v>29.71428571428572</v>
       </c>
     </row>
     <row r="326">
@@ -23292,7 +23292,7 @@
         <v>620</v>
       </c>
       <c r="V326" t="n">
-        <v>32.24820261437908</v>
+        <v>29.78015873015873</v>
       </c>
     </row>
     <row r="327">
@@ -23362,7 +23362,7 @@
         <v>620</v>
       </c>
       <c r="V327" t="n">
-        <v>32.23699346405228</v>
+        <v>29.84603174603174</v>
       </c>
     </row>
     <row r="328">
@@ -23432,7 +23432,7 @@
         <v>620</v>
       </c>
       <c r="V328" t="n">
-        <v>32.22578431372549</v>
+        <v>29.91190476190476</v>
       </c>
     </row>
     <row r="329">
@@ -23502,7 +23502,7 @@
         <v>620</v>
       </c>
       <c r="V329" t="n">
-        <v>32.21457516339869</v>
+        <v>29.97777777777778</v>
       </c>
     </row>
     <row r="330">
@@ -23572,7 +23572,7 @@
         <v>620</v>
       </c>
       <c r="V330" t="n">
-        <v>32.20336601307189</v>
+        <v>29.9479797979798</v>
       </c>
     </row>
     <row r="331">
@@ -23642,7 +23642,7 @@
         <v>622</v>
       </c>
       <c r="V331" t="n">
-        <v>32.19215686274509</v>
+        <v>29.91818181818182</v>
       </c>
     </row>
     <row r="332">
@@ -23712,7 +23712,7 @@
         <v>622</v>
       </c>
       <c r="V332" t="n">
-        <v>32.1809477124183</v>
+        <v>29.88838383838384</v>
       </c>
     </row>
     <row r="333">
@@ -23782,7 +23782,7 @@
         <v>622</v>
       </c>
       <c r="V333" t="n">
-        <v>32.1697385620915</v>
+        <v>29.85858585858586</v>
       </c>
     </row>
     <row r="334">
@@ -23852,7 +23852,7 @@
         <v>622</v>
       </c>
       <c r="V334" t="n">
-        <v>32.1585294117647</v>
+        <v>29.82878787878788</v>
       </c>
     </row>
     <row r="335">
@@ -23922,7 +23922,7 @@
         <v>622</v>
       </c>
       <c r="V335" t="n">
-        <v>32.1473202614379</v>
+        <v>29.7989898989899</v>
       </c>
     </row>
     <row r="336">
@@ -23992,7 +23992,7 @@
         <v>622</v>
       </c>
       <c r="V336" t="n">
-        <v>32.13611111111111</v>
+        <v>29.76919191919192</v>
       </c>
     </row>
     <row r="337">
@@ -24062,7 +24062,7 @@
         <v>622</v>
       </c>
       <c r="V337" t="n">
-        <v>32.12490196078431</v>
+        <v>29.73939393939394</v>
       </c>
     </row>
     <row r="338">
@@ -24132,7 +24132,7 @@
         <v>622</v>
       </c>
       <c r="V338" t="n">
-        <v>32.11369281045751</v>
+        <v>29.70959595959596</v>
       </c>
     </row>
     <row r="339">
@@ -24202,7 +24202,7 @@
         <v>622</v>
       </c>
       <c r="V339" t="n">
-        <v>32.10248366013072</v>
+        <v>29.67979797979798</v>
       </c>
     </row>
     <row r="340">
@@ -24272,7 +24272,7 @@
         <v>622</v>
       </c>
       <c r="V340" t="n">
-        <v>32.09127450980392</v>
+        <v>29.65</v>
       </c>
     </row>
     <row r="341">
@@ -24342,7 +24342,7 @@
         <v>622</v>
       </c>
       <c r="V341" t="n">
-        <v>32.08006535947712</v>
+        <v>29.51666666666667</v>
       </c>
     </row>
     <row r="342">
@@ -24412,7 +24412,7 @@
         <v>622</v>
       </c>
       <c r="V342" t="n">
-        <v>32.06885620915033</v>
+        <v>29.39722222222222</v>
       </c>
     </row>
     <row r="343">
@@ -24482,7 +24482,7 @@
         <v>626</v>
       </c>
       <c r="V343" t="n">
-        <v>32.05764705882353</v>
+        <v>29.42559523809524</v>
       </c>
     </row>
     <row r="344">
@@ -24552,7 +24552,7 @@
         <v>626</v>
       </c>
       <c r="V344" t="n">
-        <v>32.04643790849673</v>
+        <v>29.45396825396825</v>
       </c>
     </row>
     <row r="345">
@@ -24622,7 +24622,7 @@
         <v>626</v>
       </c>
       <c r="V345" t="n">
-        <v>32.03522875816994</v>
+        <v>29.48234126984127</v>
       </c>
     </row>
     <row r="346">
@@ -24692,7 +24692,7 @@
         <v>626</v>
       </c>
       <c r="V346" t="n">
-        <v>32.02401960784314</v>
+        <v>29.51071428571429</v>
       </c>
     </row>
     <row r="347">
@@ -24762,7 +24762,7 @@
         <v>626</v>
       </c>
       <c r="V347" t="n">
-        <v>32.01281045751634</v>
+        <v>29.5390873015873</v>
       </c>
     </row>
     <row r="348">
@@ -24832,7 +24832,7 @@
         <v>626</v>
       </c>
       <c r="V348" t="n">
-        <v>32.00160130718954</v>
+        <v>29.56746031746032</v>
       </c>
     </row>
     <row r="349">
@@ -24902,7 +24902,7 @@
         <v>629</v>
       </c>
       <c r="V349" t="n">
-        <v>31.99039215686274</v>
+        <v>29.59583333333333</v>
       </c>
     </row>
     <row r="350">
@@ -24972,7 +24972,7 @@
         <v>629</v>
       </c>
       <c r="V350" t="n">
-        <v>31.97918300653595</v>
+        <v>29.62420634920635</v>
       </c>
     </row>
     <row r="351">
@@ -25042,7 +25042,7 @@
         <v>629</v>
       </c>
       <c r="V351" t="n">
-        <v>31.96797385620915</v>
+        <v>29.65257936507937</v>
       </c>
     </row>
     <row r="352">
@@ -25112,7 +25112,7 @@
         <v>629</v>
       </c>
       <c r="V352" t="n">
-        <v>31.95676470588235</v>
+        <v>29.68095238095238</v>
       </c>
     </row>
     <row r="353">
@@ -25182,7 +25182,7 @@
         <v>629</v>
       </c>
       <c r="V353" t="n">
-        <v>31.94555555555555</v>
+        <v>29.7093253968254</v>
       </c>
     </row>
     <row r="354">
@@ -25252,7 +25252,7 @@
         <v>629</v>
       </c>
       <c r="V354" t="n">
-        <v>31.93434640522876</v>
+        <v>29.73769841269841</v>
       </c>
     </row>
     <row r="355">
@@ -25322,7 +25322,7 @@
         <v>629</v>
       </c>
       <c r="V355" t="n">
-        <v>31.92313725490196</v>
+        <v>29.76607142857143</v>
       </c>
     </row>
     <row r="356">
@@ -25392,7 +25392,7 @@
         <v>628</v>
       </c>
       <c r="V356" t="n">
-        <v>31.91192810457516</v>
+        <v>29.79444444444444</v>
       </c>
     </row>
     <row r="357">
@@ -25462,7 +25462,7 @@
         <v>628</v>
       </c>
       <c r="V357" t="n">
-        <v>31.90071895424837</v>
+        <v>29.86388888888889</v>
       </c>
     </row>
     <row r="358">
@@ -25532,7 +25532,7 @@
         <v>628</v>
       </c>
       <c r="V358" t="n">
-        <v>31.88950980392157</v>
+        <v>29.93333333333333</v>
       </c>
     </row>
     <row r="359">
@@ -25602,7 +25602,7 @@
         <v>628</v>
       </c>
       <c r="V359" t="n">
-        <v>31.87830065359477</v>
+        <v>30.00277777777778</v>
       </c>
     </row>
     <row r="360">
@@ -25672,7 +25672,7 @@
         <v>628</v>
       </c>
       <c r="V360" t="n">
-        <v>31.86709150326797</v>
+        <v>30.07222222222222</v>
       </c>
     </row>
     <row r="361">
@@ -25742,7 +25742,7 @@
         <v>632</v>
       </c>
       <c r="V361" t="n">
-        <v>31.85588235294118</v>
+        <v>30.12833333333333</v>
       </c>
     </row>
     <row r="362">
@@ -25812,7 +25812,7 @@
         <v>631</v>
       </c>
       <c r="V362" t="n">
-        <v>31.84467320261438</v>
+        <v>30.18444444444444</v>
       </c>
     </row>
     <row r="363">
@@ -25882,7 +25882,7 @@
         <v>631</v>
       </c>
       <c r="V363" t="n">
-        <v>31.83346405228758</v>
+        <v>30.24055555555555</v>
       </c>
     </row>
     <row r="364">
@@ -25952,7 +25952,7 @@
         <v>631</v>
       </c>
       <c r="V364" t="n">
-        <v>31.82225490196078</v>
+        <v>30.29666666666666</v>
       </c>
     </row>
     <row r="365">
@@ -26022,7 +26022,7 @@
         <v>631</v>
       </c>
       <c r="V365" t="n">
-        <v>31.81104575163398</v>
+        <v>30.35277777777777</v>
       </c>
     </row>
     <row r="366">
@@ -26092,7 +26092,7 @@
         <v>631</v>
       </c>
       <c r="V366" t="n">
-        <v>31.79983660130719</v>
+        <v>30.24166666666667</v>
       </c>
     </row>
     <row r="367">
@@ -26162,7 +26162,7 @@
         <v>631</v>
       </c>
       <c r="V367" t="n">
-        <v>31.78862745098039</v>
+        <v>30.17888888888889</v>
       </c>
     </row>
     <row r="368">
@@ -26232,7 +26232,7 @@
         <v>630</v>
       </c>
       <c r="V368" t="n">
-        <v>31.77741830065359</v>
+        <v>30.11611111111111</v>
       </c>
     </row>
     <row r="369">
@@ -26302,7 +26302,7 @@
         <v>630</v>
       </c>
       <c r="V369" t="n">
-        <v>31.76620915032679</v>
+        <v>30.05333333333333</v>
       </c>
     </row>
     <row r="370">
@@ -26372,7 +26372,7 @@
         <v>630</v>
       </c>
       <c r="V370" t="n">
-        <v>31.755</v>
+        <v>29.99055555555556</v>
       </c>
     </row>
     <row r="371">
@@ -26442,7 +26442,7 @@
         <v>630</v>
       </c>
       <c r="V371" t="n">
-        <v>31.7437908496732</v>
+        <v>29.94768518518519</v>
       </c>
     </row>
     <row r="372">
@@ -26512,7 +26512,7 @@
         <v>630</v>
       </c>
       <c r="V372" t="n">
-        <v>31.7325816993464</v>
+        <v>29.90481481481482</v>
       </c>
     </row>
     <row r="373">
@@ -26582,7 +26582,7 @@
         <v>630</v>
       </c>
       <c r="V373" t="n">
-        <v>31.72137254901961</v>
+        <v>29.86194444444445</v>
       </c>
     </row>
     <row r="374">
@@ -26652,7 +26652,7 @@
         <v>630</v>
       </c>
       <c r="V374" t="n">
-        <v>31.71016339869281</v>
+        <v>29.81907407407407</v>
       </c>
     </row>
     <row r="375">
@@ -26722,7 +26722,7 @@
         <v>630</v>
       </c>
       <c r="V375" t="n">
-        <v>31.69895424836601</v>
+        <v>29.7762037037037</v>
       </c>
     </row>
     <row r="376">
@@ -26792,7 +26792,7 @@
         <v>630</v>
       </c>
       <c r="V376" t="n">
-        <v>31.68774509803922</v>
+        <v>29.73333333333333</v>
       </c>
     </row>
     <row r="377">
@@ -26862,7 +26862,7 @@
         <v>630</v>
       </c>
       <c r="V377" t="n">
-        <v>31.67653594771242</v>
+        <v>29.7510101010101</v>
       </c>
     </row>
     <row r="378">
@@ -26932,7 +26932,7 @@
         <v>630</v>
       </c>
       <c r="V378" t="n">
-        <v>31.66532679738562</v>
+        <v>29.76868686868687</v>
       </c>
     </row>
     <row r="379">
@@ -27002,7 +27002,7 @@
         <v>630</v>
       </c>
       <c r="V379" t="n">
-        <v>31.65411764705882</v>
+        <v>29.78636363636364</v>
       </c>
     </row>
     <row r="380">
@@ -27072,7 +27072,7 @@
         <v>630</v>
       </c>
       <c r="V380" t="n">
-        <v>31.64290849673203</v>
+        <v>29.8040404040404</v>
       </c>
     </row>
     <row r="381">
@@ -27142,7 +27142,7 @@
         <v>630</v>
       </c>
       <c r="V381" t="n">
-        <v>31.63169934640523</v>
+        <v>29.82171717171717</v>
       </c>
     </row>
     <row r="382">
@@ -27212,7 +27212,7 @@
         <v>630</v>
       </c>
       <c r="V382" t="n">
-        <v>31.62049019607843</v>
+        <v>29.83939393939394</v>
       </c>
     </row>
     <row r="383">
@@ -27282,7 +27282,7 @@
         <v>630</v>
       </c>
       <c r="V383" t="n">
-        <v>31.60928104575163</v>
+        <v>29.85707070707071</v>
       </c>
     </row>
     <row r="384">
@@ -27352,7 +27352,7 @@
         <v>630</v>
       </c>
       <c r="V384" t="n">
-        <v>31.59807189542483</v>
+        <v>29.87474747474748</v>
       </c>
     </row>
     <row r="385">
@@ -27422,7 +27422,7 @@
         <v>630</v>
       </c>
       <c r="V385" t="n">
-        <v>31.58686274509804</v>
+        <v>29.89242424242424</v>
       </c>
     </row>
     <row r="386">
@@ -27492,7 +27492,7 @@
         <v>628</v>
       </c>
       <c r="V386" t="n">
-        <v>31.57565359477124</v>
+        <v>29.91010101010101</v>
       </c>
     </row>
     <row r="387">
@@ -27562,7 +27562,7 @@
         <v>628</v>
       </c>
       <c r="V387" t="n">
-        <v>31.56444444444444</v>
+        <v>29.92777777777778</v>
       </c>
     </row>
     <row r="388">
@@ -27632,7 +27632,7 @@
         <v>628</v>
       </c>
       <c r="V388" t="n">
-        <v>31.55323529411764</v>
+        <v>29.83518518518519</v>
       </c>
     </row>
     <row r="389">
@@ -27702,7 +27702,7 @@
         <v>628</v>
       </c>
       <c r="V389" t="n">
-        <v>31.54202614379085</v>
+        <v>29.74259259259259</v>
       </c>
     </row>
     <row r="390">
@@ -27772,7 +27772,7 @@
         <v>628</v>
       </c>
       <c r="V390" t="n">
-        <v>31.53081699346405</v>
+        <v>29.74734093067426</v>
       </c>
     </row>
     <row r="391">
@@ -27842,7 +27842,7 @@
         <v>628</v>
       </c>
       <c r="V391" t="n">
-        <v>31.51960784313725</v>
+        <v>29.75208926875593</v>
       </c>
     </row>
     <row r="392">
@@ -27912,7 +27912,7 @@
         <v>628</v>
       </c>
       <c r="V392" t="n">
-        <v>31.50839869281046</v>
+        <v>29.7568376068376</v>
       </c>
     </row>
     <row r="393">
@@ -27982,7 +27982,7 @@
         <v>628</v>
       </c>
       <c r="V393" t="n">
-        <v>31.49718954248366</v>
+        <v>29.76158594491928</v>
       </c>
     </row>
     <row r="394">
@@ -28052,7 +28052,7 @@
         <v>632</v>
       </c>
       <c r="V394" t="n">
-        <v>31.48598039215686</v>
+        <v>29.76633428300095</v>
       </c>
     </row>
     <row r="395">
@@ -28122,7 +28122,7 @@
         <v>632</v>
       </c>
       <c r="V395" t="n">
-        <v>31.47477124183006</v>
+        <v>29.77108262108262</v>
       </c>
     </row>
     <row r="396">
@@ -28192,7 +28192,7 @@
         <v>632</v>
       </c>
       <c r="V396" t="n">
-        <v>31.46356209150327</v>
+        <v>29.77583095916429</v>
       </c>
     </row>
     <row r="397">
@@ -28262,7 +28262,7 @@
         <v>632</v>
       </c>
       <c r="V397" t="n">
-        <v>31.45235294117647</v>
+        <v>29.78057929724596</v>
       </c>
     </row>
     <row r="398">
@@ -28332,7 +28332,7 @@
         <v>632</v>
       </c>
       <c r="V398" t="n">
-        <v>31.44114379084967</v>
+        <v>29.78532763532763</v>
       </c>
     </row>
     <row r="399">
@@ -28402,7 +28402,7 @@
         <v>631</v>
       </c>
       <c r="V399" t="n">
-        <v>31.42993464052287</v>
+        <v>29.79007597340931</v>
       </c>
     </row>
     <row r="400">
@@ -28472,7 +28472,7 @@
         <v>631</v>
       </c>
       <c r="V400" t="n">
-        <v>31.41872549019608</v>
+        <v>29.79482431149098</v>
       </c>
     </row>
     <row r="401">
@@ -28542,7 +28542,7 @@
         <v>631</v>
       </c>
       <c r="V401" t="n">
-        <v>31.40751633986928</v>
+        <v>29.79957264957265</v>
       </c>
     </row>
     <row r="402">
@@ -28612,7 +28612,7 @@
         <v>631</v>
       </c>
       <c r="V402" t="n">
-        <v>31.39630718954248</v>
+        <v>29.80432098765432</v>
       </c>
     </row>
     <row r="403">
@@ -28682,7 +28682,7 @@
         <v>631</v>
       </c>
       <c r="V403" t="n">
-        <v>31.38509803921568</v>
+        <v>29.80906932573599</v>
       </c>
     </row>
     <row r="404">
@@ -28752,7 +28752,7 @@
         <v>631</v>
       </c>
       <c r="V404" t="n">
-        <v>31.37388888888889</v>
+        <v>29.81381766381766</v>
       </c>
     </row>
     <row r="405">
@@ -28822,7 +28822,7 @@
         <v>630</v>
       </c>
       <c r="V405" t="n">
-        <v>31.36267973856209</v>
+        <v>29.81856600189933</v>
       </c>
     </row>
     <row r="406">
@@ -28892,7 +28892,7 @@
         <v>630</v>
       </c>
       <c r="V406" t="n">
-        <v>31.35147058823529</v>
+        <v>29.82331433998101</v>
       </c>
     </row>
     <row r="407">
@@ -28962,7 +28962,7 @@
         <v>630</v>
       </c>
       <c r="V407" t="n">
-        <v>31.3402614379085</v>
+        <v>29.82806267806268</v>
       </c>
     </row>
     <row r="408">
@@ -29032,7 +29032,7 @@
         <v>630</v>
       </c>
       <c r="V408" t="n">
-        <v>31.3290522875817</v>
+        <v>29.83281101614435</v>
       </c>
     </row>
     <row r="409">
@@ -29102,7 +29102,7 @@
         <v>630</v>
       </c>
       <c r="V409" t="n">
-        <v>31.3178431372549</v>
+        <v>29.83755935422602</v>
       </c>
     </row>
     <row r="410">
@@ -29172,7 +29172,7 @@
         <v>630</v>
       </c>
       <c r="V410" t="n">
-        <v>31.3066339869281</v>
+        <v>29.84230769230769</v>
       </c>
     </row>
     <row r="411">
@@ -29242,7 +29242,7 @@
         <v>630</v>
       </c>
       <c r="V411" t="n">
-        <v>31.29542483660131</v>
+        <v>29.84705603038936</v>
       </c>
     </row>
     <row r="412">
@@ -29312,7 +29312,7 @@
         <v>628</v>
       </c>
       <c r="V412" t="n">
-        <v>31.28421568627451</v>
+        <v>29.85180436847103</v>
       </c>
     </row>
     <row r="413">
@@ -29382,7 +29382,7 @@
         <v>629</v>
       </c>
       <c r="V413" t="n">
-        <v>31.27300653594771</v>
+        <v>29.8565527065527</v>
       </c>
     </row>
     <row r="414">
@@ -29452,7 +29452,7 @@
         <v>629</v>
       </c>
       <c r="V414" t="n">
-        <v>31.26179738562091</v>
+        <v>29.86130104463438</v>
       </c>
     </row>
     <row r="415">
@@ -29522,7 +29522,7 @@
         <v>629</v>
       </c>
       <c r="V415" t="n">
-        <v>31.25058823529412</v>
+        <v>29.86604938271605</v>
       </c>
     </row>
     <row r="416">
@@ -29592,7 +29592,7 @@
         <v>629</v>
       </c>
       <c r="V416" t="n">
-        <v>31.23937908496732</v>
+        <v>29.87079772079772</v>
       </c>
     </row>
     <row r="417">
@@ -29662,7 +29662,7 @@
         <v>629</v>
       </c>
       <c r="V417" t="n">
-        <v>31.22816993464052</v>
+        <v>29.87554605887939</v>
       </c>
     </row>
     <row r="418">
@@ -29732,7 +29732,7 @@
         <v>629</v>
       </c>
       <c r="V418" t="n">
-        <v>31.21696078431372</v>
+        <v>29.88029439696106</v>
       </c>
     </row>
     <row r="419">
@@ -29802,7 +29802,7 @@
         <v>626</v>
       </c>
       <c r="V419" t="n">
-        <v>31.20575163398693</v>
+        <v>29.88504273504273</v>
       </c>
     </row>
     <row r="420">
@@ -29872,7 +29872,7 @@
         <v>626</v>
       </c>
       <c r="V420" t="n">
-        <v>31.19454248366013</v>
+        <v>29.88979107312441</v>
       </c>
     </row>
     <row r="421">
@@ -29942,7 +29942,7 @@
         <v>626</v>
       </c>
       <c r="V421" t="n">
-        <v>31.18333333333333</v>
+        <v>29.89453941120608</v>
       </c>
     </row>
     <row r="422">
@@ -30012,7 +30012,7 @@
         <v>626</v>
       </c>
       <c r="V422" t="n">
-        <v>31.17212418300653</v>
+        <v>29.89928774928775</v>
       </c>
     </row>
     <row r="423">
@@ -30082,7 +30082,7 @@
         <v>626</v>
       </c>
       <c r="V423" t="n">
-        <v>31.16091503267974</v>
+        <v>29.90403608736942</v>
       </c>
     </row>
     <row r="424">
@@ -30152,7 +30152,7 @@
         <v>626</v>
       </c>
       <c r="V424" t="n">
-        <v>31.14970588235294</v>
+        <v>29.90878442545109</v>
       </c>
     </row>
     <row r="425">
@@ -30222,7 +30222,7 @@
         <v>626</v>
       </c>
       <c r="V425" t="n">
-        <v>31.13849673202614</v>
+        <v>29.91353276353276</v>
       </c>
     </row>
     <row r="426">
@@ -30292,7 +30292,7 @@
         <v>626</v>
       </c>
       <c r="V426" t="n">
-        <v>31.12728758169935</v>
+        <v>29.91828110161443</v>
       </c>
     </row>
     <row r="427">
@@ -30362,7 +30362,7 @@
         <v>623</v>
       </c>
       <c r="V427" t="n">
-        <v>31.11607843137255</v>
+        <v>29.9230294396961</v>
       </c>
     </row>
     <row r="428">
@@ -30432,7 +30432,7 @@
         <v>625</v>
       </c>
       <c r="V428" t="n">
-        <v>31.10486928104575</v>
+        <v>29.92777777777778</v>
       </c>
     </row>
     <row r="429">
@@ -30502,7 +30502,7 @@
         <v>625</v>
       </c>
       <c r="V429" t="n">
-        <v>31.09366013071895</v>
+        <v>29.87222222222222</v>
       </c>
     </row>
     <row r="430">
@@ -30572,7 +30572,7 @@
         <v>625</v>
       </c>
       <c r="V430" t="n">
-        <v>31.08245098039216</v>
+        <v>29.81666666666667</v>
       </c>
     </row>
     <row r="431">
@@ -30642,7 +30642,7 @@
         <v>625</v>
       </c>
       <c r="V431" t="n">
-        <v>31.07124183006536</v>
+        <v>29.76111111111111</v>
       </c>
     </row>
     <row r="432">
@@ -30712,7 +30712,7 @@
         <v>625</v>
       </c>
       <c r="V432" t="n">
-        <v>31.06003267973856</v>
+        <v>29.70555555555556</v>
       </c>
     </row>
     <row r="433">
@@ -30782,7 +30782,7 @@
         <v>628</v>
       </c>
       <c r="V433" t="n">
-        <v>31.04882352941176</v>
+        <v>29.65611111111111</v>
       </c>
     </row>
     <row r="434">
@@ -30852,7 +30852,7 @@
         <v>628</v>
       </c>
       <c r="V434" t="n">
-        <v>31.03761437908497</v>
+        <v>29.60666666666667</v>
       </c>
     </row>
     <row r="435">
@@ -30922,7 +30922,7 @@
         <v>628</v>
       </c>
       <c r="V435" t="n">
-        <v>31.02640522875817</v>
+        <v>29.55722222222222</v>
       </c>
     </row>
     <row r="436">
@@ -30992,7 +30992,7 @@
         <v>628</v>
       </c>
       <c r="V436" t="n">
-        <v>31.01519607843137</v>
+        <v>29.50777777777778</v>
       </c>
     </row>
     <row r="437">
@@ -31062,7 +31062,7 @@
         <v>628</v>
       </c>
       <c r="V437" t="n">
-        <v>31.00398692810457</v>
+        <v>29.45833333333333</v>
       </c>
     </row>
     <row r="438">
@@ -31132,7 +31132,7 @@
         <v>628</v>
       </c>
       <c r="V438" t="n">
-        <v>30.99277777777777</v>
+        <v>29.47380952380952</v>
       </c>
     </row>
     <row r="439">
@@ -31202,7 +31202,7 @@
         <v>628</v>
       </c>
       <c r="V439" t="n">
-        <v>30.98156862745098</v>
+        <v>29.48928571428571</v>
       </c>
     </row>
     <row r="440">
@@ -31272,7 +31272,7 @@
         <v>628</v>
       </c>
       <c r="V440" t="n">
-        <v>30.97035947712418</v>
+        <v>29.5047619047619</v>
       </c>
     </row>
     <row r="441">
@@ -31342,7 +31342,7 @@
         <v>628</v>
       </c>
       <c r="V441" t="n">
-        <v>30.95915032679738</v>
+        <v>29.5202380952381</v>
       </c>
     </row>
     <row r="442">
@@ -31412,7 +31412,7 @@
         <v>628</v>
       </c>
       <c r="V442" t="n">
-        <v>30.94794117647059</v>
+        <v>29.53571428571428</v>
       </c>
     </row>
     <row r="443">
@@ -31482,7 +31482,7 @@
         <v>627</v>
       </c>
       <c r="V443" t="n">
-        <v>30.93673202614379</v>
+        <v>29.55119047619047</v>
       </c>
     </row>
     <row r="444">
@@ -31552,7 +31552,7 @@
         <v>627</v>
       </c>
       <c r="V444" t="n">
-        <v>30.92552287581699</v>
+        <v>29.56666666666667</v>
       </c>
     </row>
     <row r="445">
@@ -31622,7 +31622,7 @@
         <v>627</v>
       </c>
       <c r="V445" t="n">
-        <v>30.9143137254902</v>
+        <v>29.58214285714286</v>
       </c>
     </row>
     <row r="446">
@@ -31692,7 +31692,7 @@
         <v>627</v>
       </c>
       <c r="V446" t="n">
-        <v>30.9031045751634</v>
+        <v>29.59761904761905</v>
       </c>
     </row>
     <row r="447">
@@ -31762,7 +31762,7 @@
         <v>627</v>
       </c>
       <c r="V447" t="n">
-        <v>30.8918954248366</v>
+        <v>29.61309523809524</v>
       </c>
     </row>
     <row r="448">
@@ -31832,7 +31832,7 @@
         <v>626</v>
       </c>
       <c r="V448" t="n">
-        <v>30.8806862745098</v>
+        <v>29.62857142857143</v>
       </c>
     </row>
     <row r="449">
@@ -31902,7 +31902,7 @@
         <v>626</v>
       </c>
       <c r="V449" t="n">
-        <v>30.86947712418301</v>
+        <v>29.64404761904762</v>
       </c>
     </row>
     <row r="450">
@@ -31972,7 +31972,7 @@
         <v>626</v>
       </c>
       <c r="V450" t="n">
-        <v>30.85826797385621</v>
+        <v>29.65952380952381</v>
       </c>
     </row>
     <row r="451">
@@ -32042,7 +32042,7 @@
         <v>626</v>
       </c>
       <c r="V451" t="n">
-        <v>30.84705882352941</v>
+        <v>29.675</v>
       </c>
     </row>
     <row r="452">
@@ -32112,7 +32112,7 @@
         <v>626</v>
       </c>
       <c r="V452" t="n">
-        <v>30.83584967320261</v>
+        <v>29.69047619047619</v>
       </c>
     </row>
     <row r="453">
@@ -32182,7 +32182,7 @@
         <v>626</v>
       </c>
       <c r="V453" t="n">
-        <v>30.82464052287581</v>
+        <v>29.70595238095238</v>
       </c>
     </row>
     <row r="454">
@@ -32252,7 +32252,7 @@
         <v>626</v>
       </c>
       <c r="V454" t="n">
-        <v>30.81343137254902</v>
+        <v>29.72142857142857</v>
       </c>
     </row>
     <row r="455">
@@ -32322,7 +32322,7 @@
         <v>624</v>
       </c>
       <c r="V455" t="n">
-        <v>30.80222222222222</v>
+        <v>29.73690476190476</v>
       </c>
     </row>
     <row r="456">
@@ -32392,7 +32392,7 @@
         <v>624</v>
       </c>
       <c r="V456" t="n">
-        <v>30.79101307189542</v>
+        <v>29.75238095238095</v>
       </c>
     </row>
     <row r="457">
@@ -32462,7 +32462,7 @@
         <v>624</v>
       </c>
       <c r="V457" t="n">
-        <v>30.77980392156863</v>
+        <v>29.76785714285714</v>
       </c>
     </row>
     <row r="458">
@@ -32532,7 +32532,7 @@
         <v>624</v>
       </c>
       <c r="V458" t="n">
-        <v>30.76859477124183</v>
+        <v>29.78333333333333</v>
       </c>
     </row>
     <row r="459">
@@ -32602,7 +32602,7 @@
         <v>627</v>
       </c>
       <c r="V459" t="n">
-        <v>30.75738562091503</v>
+        <v>29.79880952380952</v>
       </c>
     </row>
     <row r="460">
@@ -32672,7 +32672,7 @@
         <v>627</v>
       </c>
       <c r="V460" t="n">
-        <v>30.74617647058824</v>
+        <v>29.81428571428571</v>
       </c>
     </row>
     <row r="461">
@@ -32742,7 +32742,7 @@
         <v>627</v>
       </c>
       <c r="V461" t="n">
-        <v>30.73496732026144</v>
+        <v>29.82976190476191</v>
       </c>
     </row>
     <row r="462">
@@ -32812,7 +32812,7 @@
         <v>623</v>
       </c>
       <c r="V462" t="n">
-        <v>30.72375816993464</v>
+        <v>29.84523809523809</v>
       </c>
     </row>
     <row r="463">
@@ -32882,7 +32882,7 @@
         <v>623</v>
       </c>
       <c r="V463" t="n">
-        <v>30.71254901960784</v>
+        <v>29.86071428571428</v>
       </c>
     </row>
     <row r="464">
@@ -32952,7 +32952,7 @@
         <v>623</v>
       </c>
       <c r="V464" t="n">
-        <v>30.70133986928104</v>
+        <v>29.87619047619048</v>
       </c>
     </row>
     <row r="465">
@@ -33022,7 +33022,7 @@
         <v>623</v>
       </c>
       <c r="V465" t="n">
-        <v>30.69013071895425</v>
+        <v>29.89166666666667</v>
       </c>
     </row>
     <row r="466">
@@ -33092,7 +33092,7 @@
         <v>623</v>
       </c>
       <c r="V466" t="n">
-        <v>30.67892156862745</v>
+        <v>29.90714285714286</v>
       </c>
     </row>
     <row r="467">
@@ -33162,7 +33162,7 @@
         <v>623</v>
       </c>
       <c r="V467" t="n">
-        <v>30.66771241830065</v>
+        <v>29.92261904761905</v>
       </c>
     </row>
     <row r="468">
@@ -33232,7 +33232,7 @@
         <v>621</v>
       </c>
       <c r="V468" t="n">
-        <v>30.65650326797385</v>
+        <v>29.93809523809524</v>
       </c>
     </row>
     <row r="469">
@@ -33302,7 +33302,7 @@
         <v>621</v>
       </c>
       <c r="V469" t="n">
-        <v>30.64529411764706</v>
+        <v>29.95357142857143</v>
       </c>
     </row>
     <row r="470">
@@ -33372,7 +33372,7 @@
         <v>621</v>
       </c>
       <c r="V470" t="n">
-        <v>30.63408496732026</v>
+        <v>29.96904761904762</v>
       </c>
     </row>
     <row r="471">
@@ -33442,7 +33442,7 @@
         <v>621</v>
       </c>
       <c r="V471" t="n">
-        <v>30.62287581699346</v>
+        <v>29.98452380952381</v>
       </c>
     </row>
     <row r="472">
@@ -33512,7 +33512,7 @@
         <v>621</v>
       </c>
       <c r="V472" t="n">
-        <v>30.61166666666666</v>
+        <v>30</v>
       </c>
     </row>
     <row r="473">
@@ -33582,7 +33582,7 @@
         <v>621</v>
       </c>
       <c r="V473" t="n">
-        <v>30.60045751633987</v>
+        <v>30.00143097643098</v>
       </c>
     </row>
     <row r="474">
@@ -33652,7 +33652,7 @@
         <v>621</v>
       </c>
       <c r="V474" t="n">
-        <v>30.58924836601307</v>
+        <v>30.00286195286195</v>
       </c>
     </row>
     <row r="475">
@@ -33722,7 +33722,7 @@
         <v>622</v>
       </c>
       <c r="V475" t="n">
-        <v>30.57803921568627</v>
+        <v>30.00429292929293</v>
       </c>
     </row>
     <row r="476">
@@ -33792,7 +33792,7 @@
         <v>622</v>
       </c>
       <c r="V476" t="n">
-        <v>30.56683006535948</v>
+        <v>30.0057239057239</v>
       </c>
     </row>
     <row r="477">
@@ -33862,7 +33862,7 @@
         <v>624</v>
       </c>
       <c r="V477" t="n">
-        <v>30.55562091503268</v>
+        <v>30.00715488215488</v>
       </c>
     </row>
     <row r="478">
@@ -33932,7 +33932,7 @@
         <v>624</v>
       </c>
       <c r="V478" t="n">
-        <v>30.54441176470588</v>
+        <v>30.00858585858586</v>
       </c>
     </row>
     <row r="479">
@@ -34002,7 +34002,7 @@
         <v>624</v>
       </c>
       <c r="V479" t="n">
-        <v>30.53320261437909</v>
+        <v>30.01001683501683</v>
       </c>
     </row>
     <row r="480">
@@ -34072,7 +34072,7 @@
         <v>624</v>
       </c>
       <c r="V480" t="n">
-        <v>30.52199346405229</v>
+        <v>30.01144781144781</v>
       </c>
     </row>
     <row r="481">
@@ -34142,7 +34142,7 @@
         <v>622</v>
       </c>
       <c r="V481" t="n">
-        <v>30.51078431372549</v>
+        <v>30.01287878787879</v>
       </c>
     </row>
     <row r="482">
@@ -34212,7 +34212,7 @@
         <v>622</v>
       </c>
       <c r="V482" t="n">
-        <v>30.49957516339869</v>
+        <v>30.01430976430976</v>
       </c>
     </row>
     <row r="483">
@@ -34282,7 +34282,7 @@
         <v>622</v>
       </c>
       <c r="V483" t="n">
-        <v>30.48836601307189</v>
+        <v>30.01574074074074</v>
       </c>
     </row>
     <row r="484">
@@ -34352,7 +34352,7 @@
         <v>622</v>
       </c>
       <c r="V484" t="n">
-        <v>30.4771568627451</v>
+        <v>30.01717171717172</v>
       </c>
     </row>
     <row r="485">
@@ -34422,7 +34422,7 @@
         <v>622</v>
       </c>
       <c r="V485" t="n">
-        <v>30.4659477124183</v>
+        <v>30.01860269360269</v>
       </c>
     </row>
     <row r="486">
@@ -34492,7 +34492,7 @@
         <v>622</v>
       </c>
       <c r="V486" t="n">
-        <v>30.4547385620915</v>
+        <v>30.02003367003367</v>
       </c>
     </row>
     <row r="487">
@@ -34562,7 +34562,7 @@
         <v>622</v>
       </c>
       <c r="V487" t="n">
-        <v>30.4435294117647</v>
+        <v>30.02146464646465</v>
       </c>
     </row>
     <row r="488">
@@ -34632,7 +34632,7 @@
         <v>616</v>
       </c>
       <c r="V488" t="n">
-        <v>30.43232026143791</v>
+        <v>30.02289562289562</v>
       </c>
     </row>
     <row r="489">
@@ -34702,7 +34702,7 @@
         <v>616</v>
       </c>
       <c r="V489" t="n">
-        <v>30.42111111111111</v>
+        <v>30.0243265993266</v>
       </c>
     </row>
     <row r="490">
@@ -34772,7 +34772,7 @@
         <v>616</v>
       </c>
       <c r="V490" t="n">
-        <v>30.40990196078431</v>
+        <v>30.02575757575757</v>
       </c>
     </row>
     <row r="491">
@@ -34842,7 +34842,7 @@
         <v>616</v>
       </c>
       <c r="V491" t="n">
-        <v>30.39869281045751</v>
+        <v>30.02718855218855</v>
       </c>
     </row>
     <row r="492">
@@ -34912,7 +34912,7 @@
         <v>616</v>
       </c>
       <c r="V492" t="n">
-        <v>30.38748366013072</v>
+        <v>30.02861952861953</v>
       </c>
     </row>
     <row r="493">
@@ -34982,7 +34982,7 @@
         <v>616</v>
       </c>
       <c r="V493" t="n">
-        <v>30.37627450980392</v>
+        <v>30.0300505050505</v>
       </c>
     </row>
     <row r="494">
@@ -35052,7 +35052,7 @@
         <v>618</v>
       </c>
       <c r="V494" t="n">
-        <v>30.36506535947712</v>
+        <v>30.03148148148148</v>
       </c>
     </row>
     <row r="495">
@@ -35122,7 +35122,7 @@
         <v>618</v>
       </c>
       <c r="V495" t="n">
-        <v>30.35385620915033</v>
+        <v>30.03291245791246</v>
       </c>
     </row>
     <row r="496">
@@ -35192,7 +35192,7 @@
         <v>618</v>
       </c>
       <c r="V496" t="n">
-        <v>30.34264705882353</v>
+        <v>30.03434343434343</v>
       </c>
     </row>
     <row r="497">
@@ -35262,7 +35262,7 @@
         <v>618</v>
       </c>
       <c r="V497" t="n">
-        <v>30.33143790849673</v>
+        <v>30.03577441077441</v>
       </c>
     </row>
     <row r="498">
@@ -35332,7 +35332,7 @@
         <v>618</v>
       </c>
       <c r="V498" t="n">
-        <v>30.32022875816993</v>
+        <v>30.03720538720539</v>
       </c>
     </row>
     <row r="499">
@@ -35402,7 +35402,7 @@
         <v>618</v>
       </c>
       <c r="V499" t="n">
-        <v>30.30901960784314</v>
+        <v>30.03863636363636</v>
       </c>
     </row>
     <row r="500">
@@ -35472,7 +35472,7 @@
         <v>618</v>
       </c>
       <c r="V500" t="n">
-        <v>30.29781045751634</v>
+        <v>30.04006734006734</v>
       </c>
     </row>
     <row r="501">
@@ -35542,7 +35542,7 @@
         <v>618</v>
       </c>
       <c r="V501" t="n">
-        <v>30.28660130718954</v>
+        <v>30.04149831649832</v>
       </c>
     </row>
     <row r="502">
@@ -35612,7 +35612,7 @@
         <v>618</v>
       </c>
       <c r="V502" t="n">
-        <v>30.27539215686274</v>
+        <v>30.04292929292929</v>
       </c>
     </row>
     <row r="503">
@@ -35682,7 +35682,7 @@
         <v>618</v>
       </c>
       <c r="V503" t="n">
-        <v>30.26418300653595</v>
+        <v>30.04436026936027</v>
       </c>
     </row>
     <row r="504">
@@ -35752,7 +35752,7 @@
         <v>618</v>
       </c>
       <c r="V504" t="n">
-        <v>30.25297385620915</v>
+        <v>30.04579124579124</v>
       </c>
     </row>
     <row r="505">
@@ -35822,7 +35822,7 @@
         <v>618</v>
       </c>
       <c r="V505" t="n">
-        <v>30.24176470588235</v>
+        <v>30.04722222222222</v>
       </c>
     </row>
     <row r="506">
@@ -36382,7 +36382,7 @@
         <v>617</v>
       </c>
       <c r="V513" t="n">
-        <v>33.00490578297596</v>
+        <v>33.36111111111111</v>
       </c>
     </row>
     <row r="514">
@@ -36452,7 +36452,7 @@
         <v>617</v>
       </c>
       <c r="V514" t="n">
-        <v>33.01536712150747</v>
+        <v>33.61944444444445</v>
       </c>
     </row>
     <row r="515">
@@ -36522,7 +36522,7 @@
         <v>617</v>
       </c>
       <c r="V515" t="n">
-        <v>33.02582846003899</v>
+        <v>33.68777777777778</v>
       </c>
     </row>
     <row r="516">
@@ -36592,7 +36592,7 @@
         <v>617</v>
       </c>
       <c r="V516" t="n">
-        <v>33.0362897985705</v>
+        <v>33.75611111111111</v>
       </c>
     </row>
     <row r="517">
@@ -36662,7 +36662,7 @@
         <v>617</v>
       </c>
       <c r="V517" t="n">
-        <v>33.04675113710201</v>
+        <v>33.82444444444445</v>
       </c>
     </row>
     <row r="518">
@@ -36732,7 +36732,7 @@
         <v>617</v>
       </c>
       <c r="V518" t="n">
-        <v>33.05721247563353</v>
+        <v>33.89277777777777</v>
       </c>
     </row>
     <row r="519">
@@ -36802,7 +36802,7 @@
         <v>617</v>
       </c>
       <c r="V519" t="n">
-        <v>33.06767381416505</v>
+        <v>33.96111111111111</v>
       </c>
     </row>
     <row r="520">
@@ -36872,7 +36872,7 @@
         <v>617</v>
       </c>
       <c r="V520" t="n">
-        <v>33.07813515269656</v>
+        <v>34.01666666666667</v>
       </c>
     </row>
     <row r="521">
@@ -36942,7 +36942,7 @@
         <v>617</v>
       </c>
       <c r="V521" t="n">
-        <v>33.08859649122807</v>
+        <v>34.07222222222222</v>
       </c>
     </row>
     <row r="522">
@@ -37012,7 +37012,7 @@
         <v>617</v>
       </c>
       <c r="V522" t="n">
-        <v>33.09905782975959</v>
+        <v>34.12777777777777</v>
       </c>
     </row>
     <row r="523">
@@ -37082,7 +37082,7 @@
         <v>617</v>
       </c>
       <c r="V523" t="n">
-        <v>33.1095191682911</v>
+        <v>34.18333333333333</v>
       </c>
     </row>
     <row r="524">
@@ -37152,7 +37152,7 @@
         <v>617</v>
       </c>
       <c r="V524" t="n">
-        <v>33.11998050682261</v>
+        <v>34.23888888888889</v>
       </c>
     </row>
     <row r="525">
@@ -37222,7 +37222,7 @@
         <v>617</v>
       </c>
       <c r="V525" t="n">
-        <v>33.13044184535413</v>
+        <v>34.30833333333333</v>
       </c>
     </row>
     <row r="526">
@@ -37292,7 +37292,7 @@
         <v>617</v>
       </c>
       <c r="V526" t="n">
-        <v>33.14090318388564</v>
+        <v>34.37777777777778</v>
       </c>
     </row>
     <row r="527">
@@ -37362,7 +37362,7 @@
         <v>617</v>
       </c>
       <c r="V527" t="n">
-        <v>33.15136452241715</v>
+        <v>34.44722222222222</v>
       </c>
     </row>
     <row r="528">
@@ -37432,7 +37432,7 @@
         <v>617</v>
       </c>
       <c r="V528" t="n">
-        <v>33.16182586094867</v>
+        <v>34.51666666666667</v>
       </c>
     </row>
     <row r="529">
@@ -37502,7 +37502,7 @@
         <v>617</v>
       </c>
       <c r="V529" t="n">
-        <v>33.17228719948019</v>
+        <v>34.58611111111111</v>
       </c>
     </row>
     <row r="530">
@@ -37572,7 +37572,7 @@
         <v>617</v>
       </c>
       <c r="V530" t="n">
-        <v>33.1827485380117</v>
+        <v>34.65555555555555</v>
       </c>
     </row>
     <row r="531">
@@ -37642,7 +37642,7 @@
         <v>617</v>
       </c>
       <c r="V531" t="n">
-        <v>33.19320987654321</v>
+        <v>34.725</v>
       </c>
     </row>
     <row r="532">
@@ -37712,7 +37712,7 @@
         <v>617</v>
       </c>
       <c r="V532" t="n">
-        <v>33.20367121507473</v>
+        <v>34.74398148148148</v>
       </c>
     </row>
     <row r="533">
@@ -37782,7 +37782,7 @@
         <v>617</v>
       </c>
       <c r="V533" t="n">
-        <v>33.21413255360624</v>
+        <v>34.76296296296297</v>
       </c>
     </row>
     <row r="534">
@@ -37852,7 +37852,7 @@
         <v>617</v>
       </c>
       <c r="V534" t="n">
-        <v>33.22459389213775</v>
+        <v>34.78194444444445</v>
       </c>
     </row>
     <row r="535">
@@ -37922,7 +37922,7 @@
         <v>618</v>
       </c>
       <c r="V535" t="n">
-        <v>33.23505523066927</v>
+        <v>34.80092592592592</v>
       </c>
     </row>
     <row r="536">
@@ -37992,7 +37992,7 @@
         <v>618</v>
       </c>
       <c r="V536" t="n">
-        <v>33.24551656920078</v>
+        <v>34.81990740740741</v>
       </c>
     </row>
     <row r="537">
@@ -38062,7 +38062,7 @@
         <v>618</v>
       </c>
       <c r="V537" t="n">
-        <v>33.25597790773229</v>
+        <v>34.83888888888889</v>
       </c>
     </row>
     <row r="538">
@@ -38132,7 +38132,7 @@
         <v>615</v>
       </c>
       <c r="V538" t="n">
-        <v>33.26643924626381</v>
+        <v>34.85787037037037</v>
       </c>
     </row>
     <row r="539">
@@ -38202,7 +38202,7 @@
         <v>615</v>
       </c>
       <c r="V539" t="n">
-        <v>33.27690058479532</v>
+        <v>34.87685185185185</v>
       </c>
     </row>
     <row r="540">
@@ -38272,7 +38272,7 @@
         <v>615</v>
       </c>
       <c r="V540" t="n">
-        <v>33.28736192332684</v>
+        <v>34.89583333333333</v>
       </c>
     </row>
     <row r="541">
@@ -38342,7 +38342,7 @@
         <v>616</v>
       </c>
       <c r="V541" t="n">
-        <v>33.29782326185835</v>
+        <v>34.91481481481481</v>
       </c>
     </row>
     <row r="542">
@@ -38412,7 +38412,7 @@
         <v>616</v>
       </c>
       <c r="V542" t="n">
-        <v>33.30828460038987</v>
+        <v>34.93379629629629</v>
       </c>
     </row>
     <row r="543">
@@ -38482,7 +38482,7 @@
         <v>616</v>
       </c>
       <c r="V543" t="n">
-        <v>33.31874593892138</v>
+        <v>34.95277777777778</v>
       </c>
     </row>
     <row r="544">
@@ -38552,7 +38552,7 @@
         <v>616</v>
       </c>
       <c r="V544" t="n">
-        <v>33.32920727745289</v>
+        <v>34.74722222222222</v>
       </c>
     </row>
     <row r="545">
@@ -38622,7 +38622,7 @@
         <v>616</v>
       </c>
       <c r="V545" t="n">
-        <v>33.33966861598441</v>
+        <v>34.44444444444444</v>
       </c>
     </row>
     <row r="546">
@@ -38692,7 +38692,7 @@
         <v>616</v>
       </c>
       <c r="V546" t="n">
-        <v>33.35012995451592</v>
+        <v>34.16388888888888</v>
       </c>
     </row>
     <row r="547">
@@ -38762,7 +38762,7 @@
         <v>616</v>
       </c>
       <c r="V547" t="n">
-        <v>33.36059129304743</v>
+        <v>33.87777777777777</v>
       </c>
     </row>
     <row r="548">
@@ -38832,7 +38832,7 @@
         <v>616</v>
       </c>
       <c r="V548" t="n">
-        <v>33.37105263157895</v>
+        <v>33.70277777777778</v>
       </c>
     </row>
     <row r="549">
@@ -38902,7 +38902,7 @@
         <v>616</v>
       </c>
       <c r="V549" t="n">
-        <v>33.38151397011046</v>
+        <v>33.55277777777778</v>
       </c>
     </row>
     <row r="550">
@@ -38972,7 +38972,7 @@
         <v>616</v>
       </c>
       <c r="V550" t="n">
-        <v>33.39197530864197</v>
+        <v>33.33055555555556</v>
       </c>
     </row>
     <row r="551">
@@ -39042,7 +39042,7 @@
         <v>616</v>
       </c>
       <c r="V551" t="n">
-        <v>33.4024366471735</v>
+        <v>33.27361111111111</v>
       </c>
     </row>
     <row r="552">
@@ -39112,7 +39112,7 @@
         <v>615</v>
       </c>
       <c r="V552" t="n">
-        <v>33.41289798570501</v>
+        <v>33.21666666666667</v>
       </c>
     </row>
     <row r="553">
@@ -39182,7 +39182,7 @@
         <v>615</v>
       </c>
       <c r="V553" t="n">
-        <v>33.42335932423652</v>
+        <v>33.15972222222222</v>
       </c>
     </row>
     <row r="554">
@@ -39252,7 +39252,7 @@
         <v>615</v>
       </c>
       <c r="V554" t="n">
-        <v>33.43382066276803</v>
+        <v>33.10277777777777</v>
       </c>
     </row>
     <row r="555">
@@ -39322,7 +39322,7 @@
         <v>615</v>
       </c>
       <c r="V555" t="n">
-        <v>33.44428200129955</v>
+        <v>33.1323754789272</v>
       </c>
     </row>
     <row r="556">
@@ -39392,7 +39392,7 @@
         <v>615</v>
       </c>
       <c r="V556" t="n">
-        <v>33.45474333983106</v>
+        <v>33.16197318007662</v>
       </c>
     </row>
     <row r="557">
@@ -39462,7 +39462,7 @@
         <v>616</v>
       </c>
       <c r="V557" t="n">
-        <v>33.46520467836257</v>
+        <v>33.19157088122605</v>
       </c>
     </row>
     <row r="558">
@@ -39532,7 +39532,7 @@
         <v>616</v>
       </c>
       <c r="V558" t="n">
-        <v>33.47566601689409</v>
+        <v>33.22116858237548</v>
       </c>
     </row>
     <row r="559">
@@ -39602,7 +39602,7 @@
         <v>616</v>
       </c>
       <c r="V559" t="n">
-        <v>33.4861273554256</v>
+        <v>33.2507662835249</v>
       </c>
     </row>
     <row r="560">
@@ -39672,7 +39672,7 @@
         <v>616</v>
       </c>
       <c r="V560" t="n">
-        <v>33.49658869395711</v>
+        <v>33.28036398467432</v>
       </c>
     </row>
     <row r="561">
@@ -39742,7 +39742,7 @@
         <v>616</v>
       </c>
       <c r="V561" t="n">
-        <v>33.50705003248863</v>
+        <v>33.30996168582375</v>
       </c>
     </row>
     <row r="562">
@@ -39812,7 +39812,7 @@
         <v>616</v>
       </c>
       <c r="V562" t="n">
-        <v>33.51751137102015</v>
+        <v>33.33955938697318</v>
       </c>
     </row>
     <row r="563">
@@ -39882,7 +39882,7 @@
         <v>616</v>
       </c>
       <c r="V563" t="n">
-        <v>33.52797270955166</v>
+        <v>33.36915708812261</v>
       </c>
     </row>
     <row r="564">
@@ -39952,7 +39952,7 @@
         <v>616</v>
       </c>
       <c r="V564" t="n">
-        <v>33.53843404808318</v>
+        <v>33.39875478927203</v>
       </c>
     </row>
     <row r="565">
@@ -40022,7 +40022,7 @@
         <v>616</v>
       </c>
       <c r="V565" t="n">
-        <v>33.54889538661469</v>
+        <v>33.42835249042145</v>
       </c>
     </row>
     <row r="566">
@@ -40092,7 +40092,7 @@
         <v>616</v>
       </c>
       <c r="V566" t="n">
-        <v>33.5593567251462</v>
+        <v>33.45795019157088</v>
       </c>
     </row>
     <row r="567">
@@ -40162,7 +40162,7 @@
         <v>615</v>
       </c>
       <c r="V567" t="n">
-        <v>33.56981806367772</v>
+        <v>33.4875478927203</v>
       </c>
     </row>
     <row r="568">
@@ -40232,7 +40232,7 @@
         <v>617</v>
       </c>
       <c r="V568" t="n">
-        <v>33.58027940220923</v>
+        <v>33.51714559386973</v>
       </c>
     </row>
     <row r="569">
@@ -40302,7 +40302,7 @@
         <v>617</v>
       </c>
       <c r="V569" t="n">
-        <v>33.59074074074074</v>
+        <v>33.54674329501916</v>
       </c>
     </row>
     <row r="570">
@@ -40372,7 +40372,7 @@
         <v>617</v>
       </c>
       <c r="V570" t="n">
-        <v>33.60120207927226</v>
+        <v>33.57634099616858</v>
       </c>
     </row>
     <row r="571">
@@ -40442,7 +40442,7 @@
         <v>617</v>
       </c>
       <c r="V571" t="n">
-        <v>33.61166341780377</v>
+        <v>33.605938697318</v>
       </c>
     </row>
     <row r="572">
@@ -40512,7 +40512,7 @@
         <v>617</v>
       </c>
       <c r="V572" t="n">
-        <v>33.62212475633528</v>
+        <v>33.63553639846743</v>
       </c>
     </row>
     <row r="573">
@@ -40582,7 +40582,7 @@
         <v>617</v>
       </c>
       <c r="V573" t="n">
-        <v>33.6325860948668</v>
+        <v>33.66513409961686</v>
       </c>
     </row>
     <row r="574">
@@ -40652,7 +40652,7 @@
         <v>616</v>
       </c>
       <c r="V574" t="n">
-        <v>33.64304743339832</v>
+        <v>33.69473180076628</v>
       </c>
     </row>
     <row r="575">
@@ -40722,7 +40722,7 @@
         <v>616</v>
       </c>
       <c r="V575" t="n">
-        <v>33.65350877192983</v>
+        <v>33.7243295019157</v>
       </c>
     </row>
     <row r="576">
@@ -40792,7 +40792,7 @@
         <v>616</v>
       </c>
       <c r="V576" t="n">
-        <v>33.66397011046134</v>
+        <v>33.75392720306513</v>
       </c>
     </row>
     <row r="577">
@@ -40862,7 +40862,7 @@
         <v>616</v>
       </c>
       <c r="V577" t="n">
-        <v>33.67443144899286</v>
+        <v>33.78352490421456</v>
       </c>
     </row>
     <row r="578">
@@ -40932,7 +40932,7 @@
         <v>616</v>
       </c>
       <c r="V578" t="n">
-        <v>33.68489278752437</v>
+        <v>33.81312260536398</v>
       </c>
     </row>
     <row r="579">
@@ -41002,7 +41002,7 @@
         <v>617</v>
       </c>
       <c r="V579" t="n">
-        <v>33.69535412605588</v>
+        <v>33.84272030651341</v>
       </c>
     </row>
     <row r="580">
@@ -41072,7 +41072,7 @@
         <v>617</v>
       </c>
       <c r="V580" t="n">
-        <v>33.7058154645874</v>
+        <v>33.87231800766283</v>
       </c>
     </row>
     <row r="581">
@@ -41142,7 +41142,7 @@
         <v>617</v>
       </c>
       <c r="V581" t="n">
-        <v>33.71627680311891</v>
+        <v>33.90191570881226</v>
       </c>
     </row>
     <row r="582">
@@ -41212,7 +41212,7 @@
         <v>617</v>
       </c>
       <c r="V582" t="n">
-        <v>33.72673814165042</v>
+        <v>33.93151340996168</v>
       </c>
     </row>
     <row r="583">
@@ -41282,7 +41282,7 @@
         <v>617</v>
       </c>
       <c r="V583" t="n">
-        <v>33.73719948018194</v>
+        <v>33.96111111111111</v>
       </c>
     </row>
     <row r="584">
@@ -41352,7 +41352,7 @@
         <v>614</v>
       </c>
       <c r="V584" t="n">
-        <v>33.74766081871346</v>
+        <v>34.01388888888889</v>
       </c>
     </row>
     <row r="585">
@@ -41422,7 +41422,7 @@
         <v>614</v>
       </c>
       <c r="V585" t="n">
-        <v>33.75812215724497</v>
+        <v>34.06666666666666</v>
       </c>
     </row>
     <row r="586">
@@ -41492,7 +41492,7 @@
         <v>614</v>
       </c>
       <c r="V586" t="n">
-        <v>33.76858349577648</v>
+        <v>34.11944444444444</v>
       </c>
     </row>
     <row r="587">
@@ -41562,7 +41562,7 @@
         <v>614</v>
       </c>
       <c r="V587" t="n">
-        <v>33.779044834308</v>
+        <v>34.17222222222222</v>
       </c>
     </row>
     <row r="588">
@@ -41632,7 +41632,7 @@
         <v>614</v>
       </c>
       <c r="V588" t="n">
-        <v>33.78950617283951</v>
+        <v>34.18091787439613</v>
       </c>
     </row>
     <row r="589">
@@ -41702,7 +41702,7 @@
         <v>614</v>
       </c>
       <c r="V589" t="n">
-        <v>33.79996751137102</v>
+        <v>34.18961352657004</v>
       </c>
     </row>
     <row r="590">
@@ -41772,7 +41772,7 @@
         <v>615</v>
       </c>
       <c r="V590" t="n">
-        <v>33.81042884990254</v>
+        <v>34.19830917874395</v>
       </c>
     </row>
     <row r="591">
@@ -41842,7 +41842,7 @@
         <v>615</v>
       </c>
       <c r="V591" t="n">
-        <v>33.82089018843405</v>
+        <v>34.20700483091787</v>
       </c>
     </row>
     <row r="592">
@@ -41912,7 +41912,7 @@
         <v>615</v>
       </c>
       <c r="V592" t="n">
-        <v>33.83135152696556</v>
+        <v>34.21570048309178</v>
       </c>
     </row>
     <row r="593">
@@ -41982,7 +41982,7 @@
         <v>615</v>
       </c>
       <c r="V593" t="n">
-        <v>33.84181286549708</v>
+        <v>34.2243961352657</v>
       </c>
     </row>
     <row r="594">
@@ -42052,7 +42052,7 @@
         <v>615</v>
       </c>
       <c r="V594" t="n">
-        <v>33.85227420402859</v>
+        <v>34.23309178743961</v>
       </c>
     </row>
     <row r="595">
@@ -42122,7 +42122,7 @@
         <v>616</v>
       </c>
       <c r="V595" t="n">
-        <v>33.86273554256011</v>
+        <v>34.24178743961352</v>
       </c>
     </row>
     <row r="596">
@@ -42192,7 +42192,7 @@
         <v>616</v>
       </c>
       <c r="V596" t="n">
-        <v>33.87319688109162</v>
+        <v>34.25048309178744</v>
       </c>
     </row>
     <row r="597">
@@ -42262,7 +42262,7 @@
         <v>616</v>
       </c>
       <c r="V597" t="n">
-        <v>33.88365821962314</v>
+        <v>34.25917874396135</v>
       </c>
     </row>
     <row r="598">
@@ -42332,7 +42332,7 @@
         <v>616</v>
       </c>
       <c r="V598" t="n">
-        <v>33.89411955815465</v>
+        <v>34.26787439613526</v>
       </c>
     </row>
     <row r="599">
@@ -42402,7 +42402,7 @@
         <v>616</v>
       </c>
       <c r="V599" t="n">
-        <v>33.90458089668616</v>
+        <v>34.27657004830917</v>
       </c>
     </row>
     <row r="600">
@@ -42472,7 +42472,7 @@
         <v>616</v>
       </c>
       <c r="V600" t="n">
-        <v>33.91504223521768</v>
+        <v>34.28526570048309</v>
       </c>
     </row>
     <row r="601">
@@ -42542,7 +42542,7 @@
         <v>616</v>
       </c>
       <c r="V601" t="n">
-        <v>33.92550357374919</v>
+        <v>34.293961352657</v>
       </c>
     </row>
     <row r="602">
@@ -42612,7 +42612,7 @@
         <v>616</v>
       </c>
       <c r="V602" t="n">
-        <v>33.9359649122807</v>
+        <v>34.30265700483091</v>
       </c>
     </row>
     <row r="603">
@@ -42682,7 +42682,7 @@
         <v>616</v>
       </c>
       <c r="V603" t="n">
-        <v>33.94642625081222</v>
+        <v>34.31135265700483</v>
       </c>
     </row>
     <row r="604">
@@ -42752,7 +42752,7 @@
         <v>616</v>
       </c>
       <c r="V604" t="n">
-        <v>33.95688758934373</v>
+        <v>34.32004830917874</v>
       </c>
     </row>
     <row r="605">
@@ -42822,7 +42822,7 @@
         <v>616</v>
       </c>
       <c r="V605" t="n">
-        <v>33.96734892787524</v>
+        <v>34.32874396135266</v>
       </c>
     </row>
     <row r="606">
@@ -42892,7 +42892,7 @@
         <v>616</v>
       </c>
       <c r="V606" t="n">
-        <v>33.97781026640676</v>
+        <v>34.33743961352657</v>
       </c>
     </row>
     <row r="607">
@@ -42962,7 +42962,7 @@
         <v>616</v>
       </c>
       <c r="V607" t="n">
-        <v>33.98827160493828</v>
+        <v>34.34613526570048</v>
       </c>
     </row>
     <row r="608">
@@ -43032,7 +43032,7 @@
         <v>616</v>
       </c>
       <c r="V608" t="n">
-        <v>33.99873294346979</v>
+        <v>34.35483091787439</v>
       </c>
     </row>
     <row r="609">
@@ -43102,7 +43102,7 @@
         <v>616</v>
       </c>
       <c r="V609" t="n">
-        <v>34.0091942820013</v>
+        <v>34.36352657004831</v>
       </c>
     </row>
     <row r="610">
@@ -43172,7 +43172,7 @@
         <v>615</v>
       </c>
       <c r="V610" t="n">
-        <v>34.01965562053282</v>
+        <v>34.37222222222222</v>
       </c>
     </row>
     <row r="611">
@@ -43242,7 +43242,7 @@
         <v>615</v>
       </c>
       <c r="V611" t="n">
-        <v>34.03011695906433</v>
+        <v>34.31666666666666</v>
       </c>
     </row>
     <row r="612">
@@ -43312,7 +43312,7 @@
         <v>615</v>
       </c>
       <c r="V612" t="n">
-        <v>34.04057829759584</v>
+        <v>34.26111111111111</v>
       </c>
     </row>
     <row r="613">
@@ -43382,7 +43382,7 @@
         <v>615</v>
       </c>
       <c r="V613" t="n">
-        <v>34.05103963612736</v>
+        <v>34.20555555555556</v>
       </c>
     </row>
     <row r="614">
@@ -43452,7 +43452,7 @@
         <v>615</v>
       </c>
       <c r="V614" t="n">
-        <v>34.06150097465887</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="615">
@@ -43522,7 +43522,7 @@
         <v>615</v>
       </c>
       <c r="V615" t="n">
-        <v>34.07196231319038</v>
+        <v>34.13111111111111</v>
       </c>
     </row>
     <row r="616">
@@ -43592,7 +43592,7 @@
         <v>616</v>
       </c>
       <c r="V616" t="n">
-        <v>34.0824236517219</v>
+        <v>34.11222222222222</v>
       </c>
     </row>
     <row r="617">
@@ -43662,7 +43662,7 @@
         <v>616</v>
       </c>
       <c r="V617" t="n">
-        <v>34.09288499025341</v>
+        <v>34.09333333333333</v>
       </c>
     </row>
     <row r="618">
@@ -43732,7 +43732,7 @@
         <v>616</v>
       </c>
       <c r="V618" t="n">
-        <v>34.10334632878493</v>
+        <v>34.07444444444445</v>
       </c>
     </row>
     <row r="619">
@@ -43802,7 +43802,7 @@
         <v>616</v>
       </c>
       <c r="V619" t="n">
-        <v>34.11380766731644</v>
+        <v>34.05555555555556</v>
       </c>
     </row>
     <row r="620">
@@ -43872,7 +43872,7 @@
         <v>616</v>
       </c>
       <c r="V620" t="n">
-        <v>34.12426900584796</v>
+        <v>34.03666666666666</v>
       </c>
     </row>
     <row r="621">
@@ -43942,7 +43942,7 @@
         <v>614</v>
       </c>
       <c r="V621" t="n">
-        <v>34.13473034437947</v>
+        <v>34.01777777777777</v>
       </c>
     </row>
     <row r="622">
@@ -44012,7 +44012,7 @@
         <v>614</v>
       </c>
       <c r="V622" t="n">
-        <v>34.14519168291098</v>
+        <v>33.99888888888889</v>
       </c>
     </row>
     <row r="623">
@@ -44082,7 +44082,7 @@
         <v>614</v>
       </c>
       <c r="V623" t="n">
-        <v>34.1556530214425</v>
+        <v>33.98</v>
       </c>
     </row>
     <row r="624">
@@ -44152,7 +44152,7 @@
         <v>614</v>
       </c>
       <c r="V624" t="n">
-        <v>34.16611435997401</v>
+        <v>33.96111111111111</v>
       </c>
     </row>
     <row r="625">
@@ -44222,7 +44222,7 @@
         <v>614</v>
       </c>
       <c r="V625" t="n">
-        <v>34.17657569850552</v>
+        <v>34.07222222222222</v>
       </c>
     </row>
     <row r="626">
@@ -44292,7 +44292,7 @@
         <v>615</v>
       </c>
       <c r="V626" t="n">
-        <v>34.18703703703704</v>
+        <v>34.26111111111111</v>
       </c>
     </row>
     <row r="627">
@@ -44362,7 +44362,7 @@
         <v>615</v>
       </c>
       <c r="V627" t="n">
-        <v>34.19749837556855</v>
+        <v>34.325</v>
       </c>
     </row>
     <row r="628">
@@ -44432,7 +44432,7 @@
         <v>615</v>
       </c>
       <c r="V628" t="n">
-        <v>34.20795971410007</v>
+        <v>34.38888888888889</v>
       </c>
     </row>
     <row r="629">
@@ -44502,7 +44502,7 @@
         <v>615</v>
       </c>
       <c r="V629" t="n">
-        <v>34.21842105263158</v>
+        <v>34.45277777777778</v>
       </c>
     </row>
     <row r="630">
@@ -44572,7 +44572,7 @@
         <v>615</v>
       </c>
       <c r="V630" t="n">
-        <v>34.2288823911631</v>
+        <v>34.50972222222222</v>
       </c>
     </row>
     <row r="631">
@@ -44642,7 +44642,7 @@
         <v>615</v>
       </c>
       <c r="V631" t="n">
-        <v>34.23934372969461</v>
+        <v>34.56666666666666</v>
       </c>
     </row>
     <row r="632">
@@ -44712,7 +44712,7 @@
         <v>614</v>
       </c>
       <c r="V632" t="n">
-        <v>34.24980506822612</v>
+        <v>34.61666666666666</v>
       </c>
     </row>
     <row r="633">
@@ -44782,7 +44782,7 @@
         <v>614</v>
       </c>
       <c r="V633" t="n">
-        <v>34.26026640675764</v>
+        <v>34.66666666666666</v>
       </c>
     </row>
     <row r="634">
@@ -44852,7 +44852,7 @@
         <v>614</v>
       </c>
       <c r="V634" t="n">
-        <v>34.27072774528915</v>
+        <v>34.71666666666667</v>
       </c>
     </row>
     <row r="635">
@@ -44922,7 +44922,7 @@
         <v>615</v>
       </c>
       <c r="V635" t="n">
-        <v>34.28118908382066</v>
+        <v>34.76666666666667</v>
       </c>
     </row>
     <row r="636">
@@ -44992,7 +44992,7 @@
         <v>617</v>
       </c>
       <c r="V636" t="n">
-        <v>34.29165042235218</v>
+        <v>34.77905982905983</v>
       </c>
     </row>
     <row r="637">
@@ -45062,7 +45062,7 @@
         <v>617</v>
       </c>
       <c r="V637" t="n">
-        <v>34.30211176088369</v>
+        <v>34.79145299145299</v>
       </c>
     </row>
     <row r="638">
@@ -45132,7 +45132,7 @@
         <v>617</v>
       </c>
       <c r="V638" t="n">
-        <v>34.3125730994152</v>
+        <v>34.80384615384615</v>
       </c>
     </row>
     <row r="639">
@@ -45202,7 +45202,7 @@
         <v>617</v>
       </c>
       <c r="V639" t="n">
-        <v>34.32303443794672</v>
+        <v>34.81623931623932</v>
       </c>
     </row>
     <row r="640">
@@ -45272,7 +45272,7 @@
         <v>617</v>
       </c>
       <c r="V640" t="n">
-        <v>34.33349577647824</v>
+        <v>34.82863247863248</v>
       </c>
     </row>
     <row r="641">
@@ -45342,7 +45342,7 @@
         <v>617</v>
       </c>
       <c r="V641" t="n">
-        <v>34.34395711500975</v>
+        <v>34.84102564102564</v>
       </c>
     </row>
     <row r="642">
@@ -45412,7 +45412,7 @@
         <v>618</v>
       </c>
       <c r="V642" t="n">
-        <v>34.35441845354126</v>
+        <v>34.8534188034188</v>
       </c>
     </row>
     <row r="643">
@@ -45482,7 +45482,7 @@
         <v>618</v>
       </c>
       <c r="V643" t="n">
-        <v>34.36487979207278</v>
+        <v>34.86581196581196</v>
       </c>
     </row>
     <row r="644">
@@ -45552,7 +45552,7 @@
         <v>618</v>
       </c>
       <c r="V644" t="n">
-        <v>34.37534113060429</v>
+        <v>34.87820512820512</v>
       </c>
     </row>
     <row r="645">
@@ -45622,7 +45622,7 @@
         <v>618</v>
       </c>
       <c r="V645" t="n">
-        <v>34.3858024691358</v>
+        <v>34.89059829059829</v>
       </c>
     </row>
     <row r="646">
@@ -45692,7 +45692,7 @@
         <v>618</v>
       </c>
       <c r="V646" t="n">
-        <v>34.39626380766732</v>
+        <v>34.90299145299145</v>
       </c>
     </row>
     <row r="647">
@@ -45762,7 +45762,7 @@
         <v>618</v>
       </c>
       <c r="V647" t="n">
-        <v>34.40672514619883</v>
+        <v>34.91538461538462</v>
       </c>
     </row>
     <row r="648">
@@ -45832,7 +45832,7 @@
         <v>617</v>
       </c>
       <c r="V648" t="n">
-        <v>34.41718648473034</v>
+        <v>34.92777777777778</v>
       </c>
     </row>
     <row r="649">
@@ -45902,7 +45902,7 @@
         <v>617</v>
       </c>
       <c r="V649" t="n">
-        <v>34.42764782326186</v>
+        <v>34.81666666666667</v>
       </c>
     </row>
     <row r="650">
@@ -45972,7 +45972,7 @@
         <v>617</v>
       </c>
       <c r="V650" t="n">
-        <v>34.43810916179338</v>
+        <v>34.62777777777777</v>
       </c>
     </row>
     <row r="651">
@@ -46042,7 +46042,7 @@
         <v>617</v>
       </c>
       <c r="V651" t="n">
-        <v>34.44857050032489</v>
+        <v>34.56388888888888</v>
       </c>
     </row>
     <row r="652">
@@ -46112,7 +46112,7 @@
         <v>617</v>
       </c>
       <c r="V652" t="n">
-        <v>34.4590318388564</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="653">
@@ -46182,7 +46182,7 @@
         <v>614</v>
       </c>
       <c r="V653" t="n">
-        <v>34.46949317738792</v>
+        <v>34.43611111111111</v>
       </c>
     </row>
     <row r="654">
@@ -46252,7 +46252,7 @@
         <v>614</v>
       </c>
       <c r="V654" t="n">
-        <v>34.47995451591943</v>
+        <v>34.44230769230769</v>
       </c>
     </row>
     <row r="655">
@@ -46322,7 +46322,7 @@
         <v>618</v>
       </c>
       <c r="V655" t="n">
-        <v>34.49041585445094</v>
+        <v>34.44850427350427</v>
       </c>
     </row>
     <row r="656">
@@ -46392,7 +46392,7 @@
         <v>618</v>
       </c>
       <c r="V656" t="n">
-        <v>34.50087719298246</v>
+        <v>34.45470085470085</v>
       </c>
     </row>
     <row r="657">
@@ -46462,7 +46462,7 @@
         <v>618</v>
       </c>
       <c r="V657" t="n">
-        <v>34.51133853151397</v>
+        <v>34.46089743589744</v>
       </c>
     </row>
     <row r="658">
@@ -46532,7 +46532,7 @@
         <v>618</v>
       </c>
       <c r="V658" t="n">
-        <v>34.52179987004548</v>
+        <v>34.46709401709401</v>
       </c>
     </row>
     <row r="659">
@@ -46602,7 +46602,7 @@
         <v>616</v>
       </c>
       <c r="V659" t="n">
-        <v>34.532261208577</v>
+        <v>34.4732905982906</v>
       </c>
     </row>
     <row r="660">
@@ -46672,7 +46672,7 @@
         <v>616</v>
       </c>
       <c r="V660" t="n">
-        <v>34.54272254710851</v>
+        <v>34.47948717948718</v>
       </c>
     </row>
     <row r="661">
@@ -46742,7 +46742,7 @@
         <v>616</v>
       </c>
       <c r="V661" t="n">
-        <v>34.55318388564002</v>
+        <v>34.48568376068376</v>
       </c>
     </row>
     <row r="662">
@@ -46812,7 +46812,7 @@
         <v>616</v>
       </c>
       <c r="V662" t="n">
-        <v>34.56364522417154</v>
+        <v>34.49188034188034</v>
       </c>
     </row>
     <row r="663">
@@ -46882,7 +46882,7 @@
         <v>616</v>
       </c>
       <c r="V663" t="n">
-        <v>34.57410656270306</v>
+        <v>34.49807692307692</v>
       </c>
     </row>
     <row r="664">
@@ -46952,7 +46952,7 @@
         <v>616</v>
       </c>
       <c r="V664" t="n">
-        <v>34.58456790123457</v>
+        <v>34.50427350427351</v>
       </c>
     </row>
     <row r="665">
@@ -47022,7 +47022,7 @@
         <v>618</v>
       </c>
       <c r="V665" t="n">
-        <v>34.59502923976608</v>
+        <v>34.51047008547008</v>
       </c>
     </row>
     <row r="666">
@@ -47092,7 +47092,7 @@
         <v>618</v>
       </c>
       <c r="V666" t="n">
-        <v>34.6054905782976</v>
+        <v>34.51666666666667</v>
       </c>
     </row>
     <row r="667">
@@ -47162,7 +47162,7 @@
         <v>618</v>
       </c>
       <c r="V667" t="n">
-        <v>34.61595191682911</v>
+        <v>34.57222222222222</v>
       </c>
     </row>
     <row r="668">
@@ -47232,7 +47232,7 @@
         <v>618</v>
       </c>
       <c r="V668" t="n">
-        <v>34.62641325536062</v>
+        <v>34.62777777777778</v>
       </c>
     </row>
     <row r="669">
@@ -47302,7 +47302,7 @@
         <v>615</v>
       </c>
       <c r="V669" t="n">
-        <v>34.63687459389214</v>
+        <v>34.68333333333333</v>
       </c>
     </row>
     <row r="670">
@@ -47372,7 +47372,7 @@
         <v>615</v>
       </c>
       <c r="V670" t="n">
-        <v>34.64733593242365</v>
+        <v>34.68995726495726</v>
       </c>
     </row>
     <row r="671">
@@ -47442,7 +47442,7 @@
         <v>615</v>
       </c>
       <c r="V671" t="n">
-        <v>34.65779727095516</v>
+        <v>34.69658119658119</v>
       </c>
     </row>
     <row r="672">
@@ -47512,7 +47512,7 @@
         <v>615</v>
       </c>
       <c r="V672" t="n">
-        <v>34.66825860948668</v>
+        <v>34.70320512820513</v>
       </c>
     </row>
     <row r="673">
@@ -47582,7 +47582,7 @@
         <v>615</v>
       </c>
       <c r="V673" t="n">
-        <v>34.6787199480182</v>
+        <v>34.70982905982905</v>
       </c>
     </row>
     <row r="674">
@@ -47652,7 +47652,7 @@
         <v>615</v>
       </c>
       <c r="V674" t="n">
-        <v>34.68918128654971</v>
+        <v>34.71645299145299</v>
       </c>
     </row>
     <row r="675">
@@ -47722,7 +47722,7 @@
         <v>615</v>
       </c>
       <c r="V675" t="n">
-        <v>34.69964262508122</v>
+        <v>34.72307692307692</v>
       </c>
     </row>
     <row r="676">
@@ -47792,7 +47792,7 @@
         <v>615</v>
       </c>
       <c r="V676" t="n">
-        <v>34.71010396361274</v>
+        <v>34.72970085470085</v>
       </c>
     </row>
     <row r="677">
@@ -47862,7 +47862,7 @@
         <v>615</v>
       </c>
       <c r="V677" t="n">
-        <v>34.72056530214425</v>
+        <v>34.73632478632479</v>
       </c>
     </row>
     <row r="678">
@@ -47932,7 +47932,7 @@
         <v>620</v>
       </c>
       <c r="V678" t="n">
-        <v>34.73102664067576</v>
+        <v>34.74294871794872</v>
       </c>
     </row>
     <row r="679">
@@ -48002,7 +48002,7 @@
         <v>620</v>
       </c>
       <c r="V679" t="n">
-        <v>34.74148797920728</v>
+        <v>34.74957264957265</v>
       </c>
     </row>
     <row r="680">
@@ -48072,7 +48072,7 @@
         <v>620</v>
       </c>
       <c r="V680" t="n">
-        <v>34.75194931773879</v>
+        <v>34.75619658119658</v>
       </c>
     </row>
     <row r="681">
@@ -48142,7 +48142,7 @@
         <v>615</v>
       </c>
       <c r="V681" t="n">
-        <v>34.7624106562703</v>
+        <v>34.76282051282051</v>
       </c>
     </row>
     <row r="682">
@@ -48212,7 +48212,7 @@
         <v>615</v>
       </c>
       <c r="V682" t="n">
-        <v>34.77287199480182</v>
+        <v>34.76944444444445</v>
       </c>
     </row>
     <row r="683">
@@ -48282,7 +48282,7 @@
         <v>615</v>
       </c>
       <c r="V683" t="n">
-        <v>34.78333333333333</v>
+        <v>34.96944444444444</v>
       </c>
     </row>
     <row r="684">
@@ -48352,7 +48352,7 @@
         <v>616</v>
       </c>
       <c r="V684" t="n">
-        <v>34.79379467186485</v>
+        <v>35.30555555555555</v>
       </c>
     </row>
     <row r="685">
@@ -48422,7 +48422,7 @@
         <v>616</v>
       </c>
       <c r="V685" t="n">
-        <v>34.80425601039637</v>
+        <v>35.59444444444444</v>
       </c>
     </row>
     <row r="686">
@@ -48492,7 +48492,7 @@
         <v>616</v>
       </c>
       <c r="V686" t="n">
-        <v>34.81471734892788</v>
+        <v>35.61488095238095</v>
       </c>
     </row>
     <row r="687">
@@ -48562,7 +48562,7 @@
         <v>616</v>
       </c>
       <c r="V687" t="n">
-        <v>34.82517868745939</v>
+        <v>35.63531746031746</v>
       </c>
     </row>
     <row r="688">
@@ -48632,7 +48632,7 @@
         <v>616</v>
       </c>
       <c r="V688" t="n">
-        <v>34.83564002599091</v>
+        <v>35.65575396825397</v>
       </c>
     </row>
     <row r="689">
@@ -48702,7 +48702,7 @@
         <v>616</v>
       </c>
       <c r="V689" t="n">
-        <v>34.84610136452242</v>
+        <v>35.67619047619047</v>
       </c>
     </row>
     <row r="690">
@@ -48772,7 +48772,7 @@
         <v>616</v>
       </c>
       <c r="V690" t="n">
-        <v>34.85656270305393</v>
+        <v>35.69662698412698</v>
       </c>
     </row>
     <row r="691">
@@ -48842,7 +48842,7 @@
         <v>616</v>
       </c>
       <c r="V691" t="n">
-        <v>34.86702404158545</v>
+        <v>35.71706349206349</v>
       </c>
     </row>
     <row r="692">
@@ -48912,7 +48912,7 @@
         <v>616</v>
       </c>
       <c r="V692" t="n">
-        <v>34.87748538011696</v>
+        <v>35.7375</v>
       </c>
     </row>
     <row r="693">
@@ -48982,7 +48982,7 @@
         <v>616</v>
       </c>
       <c r="V693" t="n">
-        <v>34.88794671864847</v>
+        <v>35.75793650793651</v>
       </c>
     </row>
     <row r="694">
@@ -49052,7 +49052,7 @@
         <v>616</v>
       </c>
       <c r="V694" t="n">
-        <v>34.89840805717999</v>
+        <v>35.77837301587302</v>
       </c>
     </row>
     <row r="695">
@@ -49122,7 +49122,7 @@
         <v>614</v>
       </c>
       <c r="V695" t="n">
-        <v>34.90886939571151</v>
+        <v>35.79880952380952</v>
       </c>
     </row>
     <row r="696">
@@ -49192,7 +49192,7 @@
         <v>614</v>
       </c>
       <c r="V696" t="n">
-        <v>34.91933073424302</v>
+        <v>35.81924603174603</v>
       </c>
     </row>
     <row r="697">
@@ -49262,7 +49262,7 @@
         <v>614</v>
       </c>
       <c r="V697" t="n">
-        <v>34.92979207277453</v>
+        <v>35.83968253968253</v>
       </c>
     </row>
     <row r="698">
@@ -49332,7 +49332,7 @@
         <v>614</v>
       </c>
       <c r="V698" t="n">
-        <v>34.94025341130605</v>
+        <v>35.86011904761904</v>
       </c>
     </row>
     <row r="699">
@@ -49402,7 +49402,7 @@
         <v>614</v>
       </c>
       <c r="V699" t="n">
-        <v>34.95071474983756</v>
+        <v>35.88055555555555</v>
       </c>
     </row>
     <row r="700">
@@ -49472,7 +49472,7 @@
         <v>615</v>
       </c>
       <c r="V700" t="n">
-        <v>34.96117608836907</v>
+        <v>36.08611111111111</v>
       </c>
     </row>
     <row r="701">
@@ -49542,7 +49542,7 @@
         <v>615</v>
       </c>
       <c r="V701" t="n">
-        <v>34.97163742690059</v>
+        <v>36.38888888888889</v>
       </c>
     </row>
     <row r="702">
@@ -49612,7 +49612,7 @@
         <v>615</v>
       </c>
       <c r="V702" t="n">
-        <v>34.9820987654321</v>
+        <v>36.69166666666667</v>
       </c>
     </row>
     <row r="703">
@@ -49682,7 +49682,7 @@
         <v>615</v>
       </c>
       <c r="V703" t="n">
-        <v>34.99256010396361</v>
+        <v>36.87222222222223</v>
       </c>
     </row>
     <row r="704">
@@ -49752,7 +49752,7 @@
         <v>615</v>
       </c>
       <c r="V704" t="n">
-        <v>35.00302144249513</v>
+        <v>36.93611111111112</v>
       </c>
     </row>
     <row r="705">
@@ -49822,7 +49822,7 @@
         <v>617</v>
       </c>
       <c r="V705" t="n">
-        <v>35.01348278102664</v>
+        <v>37</v>
       </c>
     </row>
     <row r="706">
@@ -49892,7 +49892,7 @@
         <v>617</v>
       </c>
       <c r="V706" t="n">
-        <v>35.02394411955816</v>
+        <v>37.06388888888888</v>
       </c>
     </row>
     <row r="707">
@@ -49962,7 +49962,7 @@
         <v>617</v>
       </c>
       <c r="V707" t="n">
-        <v>35.03440545808967</v>
+        <v>37.12777777777777</v>
       </c>
     </row>
     <row r="708">
@@ -50032,7 +50032,7 @@
         <v>617</v>
       </c>
       <c r="V708" t="n">
-        <v>35.04486679662119</v>
+        <v>37.14861111111111</v>
       </c>
     </row>
     <row r="709">
@@ -50102,7 +50102,7 @@
         <v>617</v>
       </c>
       <c r="V709" t="n">
-        <v>35.0553281351527</v>
+        <v>37.16944444444444</v>
       </c>
     </row>
     <row r="710">
@@ -50172,7 +50172,7 @@
         <v>617</v>
       </c>
       <c r="V710" t="n">
-        <v>35.06578947368421</v>
+        <v>37.19027777777777</v>
       </c>
     </row>
     <row r="711">
@@ -50242,7 +50242,7 @@
         <v>615</v>
       </c>
       <c r="V711" t="n">
-        <v>35.07625081221573</v>
+        <v>37.21111111111111</v>
       </c>
     </row>
     <row r="712">
@@ -50312,7 +50312,7 @@
         <v>615</v>
       </c>
       <c r="V712" t="n">
-        <v>35.08671215074724</v>
+        <v>37.23194444444444</v>
       </c>
     </row>
     <row r="713">
@@ -50382,7 +50382,7 @@
         <v>615</v>
       </c>
       <c r="V713" t="n">
-        <v>35.09717348927875</v>
+        <v>37.25277777777778</v>
       </c>
     </row>
     <row r="714">
@@ -50452,7 +50452,7 @@
         <v>615</v>
       </c>
       <c r="V714" t="n">
-        <v>35.10763482781027</v>
+        <v>37.27361111111111</v>
       </c>
     </row>
     <row r="715">
@@ -50522,7 +50522,7 @@
         <v>616</v>
       </c>
       <c r="V715" t="n">
-        <v>35.11809616634178</v>
+        <v>37.29444444444444</v>
       </c>
     </row>
     <row r="716">
@@ -50592,7 +50592,7 @@
         <v>616</v>
       </c>
       <c r="V716" t="n">
-        <v>35.1285575048733</v>
+        <v>37.35</v>
       </c>
     </row>
     <row r="717">
@@ -50662,7 +50662,7 @@
         <v>616</v>
       </c>
       <c r="V717" t="n">
-        <v>35.13901884340481</v>
+        <v>37.40555555555555</v>
       </c>
     </row>
     <row r="718">
@@ -50732,7 +50732,7 @@
         <v>616</v>
       </c>
       <c r="V718" t="n">
-        <v>35.14948018193633</v>
+        <v>37.46111111111111</v>
       </c>
     </row>
     <row r="719">
@@ -50802,7 +50802,7 @@
         <v>616</v>
       </c>
       <c r="V719" t="n">
-        <v>35.15994152046784</v>
+        <v>37.51666666666666</v>
       </c>
     </row>
     <row r="720">
@@ -50872,7 +50872,7 @@
         <v>616</v>
       </c>
       <c r="V720" t="n">
-        <v>35.17040285899935</v>
+        <v>37.53555555555555</v>
       </c>
     </row>
     <row r="721">
@@ -50942,7 +50942,7 @@
         <v>616</v>
       </c>
       <c r="V721" t="n">
-        <v>35.18086419753087</v>
+        <v>37.55444444444444</v>
       </c>
     </row>
     <row r="722">
@@ -51012,7 +51012,7 @@
         <v>616</v>
       </c>
       <c r="V722" t="n">
-        <v>35.19132553606238</v>
+        <v>37.57333333333333</v>
       </c>
     </row>
     <row r="723">
@@ -51082,7 +51082,7 @@
         <v>616</v>
       </c>
       <c r="V723" t="n">
-        <v>35.20178687459389</v>
+        <v>37.59222222222222</v>
       </c>
     </row>
     <row r="724">
@@ -51152,7 +51152,7 @@
         <v>616</v>
       </c>
       <c r="V724" t="n">
-        <v>35.21224821312541</v>
+        <v>37.61111111111111</v>
       </c>
     </row>
     <row r="725">
@@ -51222,7 +51222,7 @@
         <v>624</v>
       </c>
       <c r="V725" t="n">
-        <v>35.22270955165692</v>
+        <v>37.63</v>
       </c>
     </row>
     <row r="726">
@@ -51292,7 +51292,7 @@
         <v>624</v>
       </c>
       <c r="V726" t="n">
-        <v>35.23317089018843</v>
+        <v>37.64888888888888</v>
       </c>
     </row>
     <row r="727">
@@ -51362,7 +51362,7 @@
         <v>624</v>
       </c>
       <c r="V727" t="n">
-        <v>35.24363222871995</v>
+        <v>37.66777777777778</v>
       </c>
     </row>
     <row r="728">
@@ -51432,7 +51432,7 @@
         <v>624</v>
       </c>
       <c r="V728" t="n">
-        <v>35.25409356725147</v>
+        <v>37.68666666666667</v>
       </c>
     </row>
     <row r="729">
@@ -51502,7 +51502,7 @@
         <v>624</v>
       </c>
       <c r="V729" t="n">
-        <v>35.26455490578298</v>
+        <v>37.70555555555556</v>
       </c>
     </row>
     <row r="730">
@@ -51572,7 +51572,7 @@
         <v>623</v>
       </c>
       <c r="V730" t="n">
-        <v>35.27501624431449</v>
+        <v>37.59444444444444</v>
       </c>
     </row>
     <row r="731">
@@ -51642,7 +51642,7 @@
         <v>623</v>
       </c>
       <c r="V731" t="n">
-        <v>35.28547758284601</v>
+        <v>37.40555555555555</v>
       </c>
     </row>
     <row r="732">
@@ -51712,7 +51712,7 @@
         <v>623</v>
       </c>
       <c r="V732" t="n">
-        <v>35.29593892137752</v>
+        <v>37.32037037037037</v>
       </c>
     </row>
     <row r="733">
@@ -51782,7 +51782,7 @@
         <v>623</v>
       </c>
       <c r="V733" t="n">
-        <v>35.30640025990903</v>
+        <v>37.23518518518518</v>
       </c>
     </row>
     <row r="734">
@@ -51852,7 +51852,7 @@
         <v>619</v>
       </c>
       <c r="V734" t="n">
-        <v>35.31686159844055</v>
+        <v>37.20474537037037</v>
       </c>
     </row>
     <row r="735">
@@ -51922,7 +51922,7 @@
         <v>619</v>
       </c>
       <c r="V735" t="n">
-        <v>35.32732293697206</v>
+        <v>37.17430555555555</v>
       </c>
     </row>
     <row r="736">
@@ -51992,7 +51992,7 @@
         <v>619</v>
       </c>
       <c r="V736" t="n">
-        <v>35.33778427550357</v>
+        <v>37.14386574074074</v>
       </c>
     </row>
     <row r="737">
@@ -52062,7 +52062,7 @@
         <v>619</v>
       </c>
       <c r="V737" t="n">
-        <v>35.34824561403509</v>
+        <v>37.11342592592592</v>
       </c>
     </row>
     <row r="738">
@@ -52132,7 +52132,7 @@
         <v>619</v>
       </c>
       <c r="V738" t="n">
-        <v>35.35870695256661</v>
+        <v>37.0829861111111</v>
       </c>
     </row>
     <row r="739">
@@ -52202,7 +52202,7 @@
         <v>618</v>
       </c>
       <c r="V739" t="n">
-        <v>35.36916829109812</v>
+        <v>37.05254629629629</v>
       </c>
     </row>
     <row r="740">
@@ -52272,7 +52272,7 @@
         <v>618</v>
       </c>
       <c r="V740" t="n">
-        <v>35.37962962962963</v>
+        <v>37.02210648148147</v>
       </c>
     </row>
     <row r="741">
@@ -52342,7 +52342,7 @@
         <v>618</v>
       </c>
       <c r="V741" t="n">
-        <v>35.39009096816115</v>
+        <v>36.99166666666666</v>
       </c>
     </row>
     <row r="742">
@@ -52412,7 +52412,7 @@
         <v>618</v>
       </c>
       <c r="V742" t="n">
-        <v>35.40055230669266</v>
+        <v>37.19722222222222</v>
       </c>
     </row>
     <row r="743">
@@ -52482,7 +52482,7 @@
         <v>618</v>
       </c>
       <c r="V743" t="n">
-        <v>35.41101364522417</v>
+        <v>37.26018518518519</v>
       </c>
     </row>
     <row r="744">
@@ -52552,7 +52552,7 @@
         <v>622</v>
       </c>
       <c r="V744" t="n">
-        <v>35.42147498375569</v>
+        <v>37.32314814814815</v>
       </c>
     </row>
     <row r="745">
@@ -52622,7 +52622,7 @@
         <v>618</v>
       </c>
       <c r="V745" t="n">
-        <v>35.4319363222872</v>
+        <v>37.38611111111111</v>
       </c>
     </row>
     <row r="746">
@@ -52692,7 +52692,7 @@
         <v>618</v>
       </c>
       <c r="V746" t="n">
-        <v>35.44239766081871</v>
+        <v>37.44907407407408</v>
       </c>
     </row>
     <row r="747">
@@ -52762,7 +52762,7 @@
         <v>618</v>
       </c>
       <c r="V747" t="n">
-        <v>35.45285899935023</v>
+        <v>37.51203703703703</v>
       </c>
     </row>
     <row r="748">
@@ -52832,7 +52832,7 @@
         <v>618</v>
       </c>
       <c r="V748" t="n">
-        <v>35.46332033788174</v>
+        <v>37.575</v>
       </c>
     </row>
     <row r="749">
@@ -52902,7 +52902,7 @@
         <v>617</v>
       </c>
       <c r="V749" t="n">
-        <v>35.47378167641325</v>
+        <v>37.63796296296296</v>
       </c>
     </row>
     <row r="750">
@@ -52972,7 +52972,7 @@
         <v>617</v>
       </c>
       <c r="V750" t="n">
-        <v>35.48424301494477</v>
+        <v>37.70092592592592</v>
       </c>
     </row>
     <row r="751">
@@ -53042,7 +53042,7 @@
         <v>617</v>
       </c>
       <c r="V751" t="n">
-        <v>35.49470435347629</v>
+        <v>37.76388888888889</v>
       </c>
     </row>
     <row r="752">
@@ -53112,7 +53112,7 @@
         <v>617</v>
       </c>
       <c r="V752" t="n">
-        <v>35.5051656920078</v>
+        <v>37.65277777777778</v>
       </c>
     </row>
     <row r="753">
@@ -53182,7 +53182,7 @@
         <v>617</v>
       </c>
       <c r="V753" t="n">
-        <v>35.51562703053931</v>
+        <v>37.55925925925926</v>
       </c>
     </row>
     <row r="754">
@@ -53252,7 +53252,7 @@
         <v>617</v>
       </c>
       <c r="V754" t="n">
-        <v>35.52608836907083</v>
+        <v>37.46574074074074</v>
       </c>
     </row>
     <row r="755">
@@ -53322,7 +53322,7 @@
         <v>620</v>
       </c>
       <c r="V755" t="n">
-        <v>35.53654970760234</v>
+        <v>37.37222222222222</v>
       </c>
     </row>
     <row r="756">
@@ -53392,7 +53392,7 @@
         <v>620</v>
       </c>
       <c r="V756" t="n">
-        <v>35.54701104613385</v>
+        <v>37.29814814814814</v>
       </c>
     </row>
     <row r="757">
@@ -53462,7 +53462,7 @@
         <v>620</v>
       </c>
       <c r="V757" t="n">
-        <v>35.55747238466537</v>
+        <v>37.22407407407407</v>
       </c>
     </row>
     <row r="758">
@@ -53532,7 +53532,7 @@
         <v>620</v>
       </c>
       <c r="V758" t="n">
-        <v>35.56793372319688</v>
+        <v>37.15</v>
       </c>
     </row>
     <row r="759">
@@ -53602,7 +53602,7 @@
         <v>620</v>
       </c>
       <c r="V759" t="n">
-        <v>35.57839506172839</v>
+        <v>37.07083333333333</v>
       </c>
     </row>
     <row r="760">
@@ -53672,7 +53672,7 @@
         <v>620</v>
       </c>
       <c r="V760" t="n">
-        <v>35.58885640025991</v>
+        <v>36.99166666666666</v>
       </c>
     </row>
     <row r="761">
@@ -53742,7 +53742,7 @@
         <v>620</v>
       </c>
       <c r="V761" t="n">
-        <v>35.59931773879143</v>
+        <v>37.12777777777777</v>
       </c>
     </row>
     <row r="762">
@@ -53812,7 +53812,7 @@
         <v>618</v>
       </c>
       <c r="V762" t="n">
-        <v>35.60977907732294</v>
+        <v>37.17777777777778</v>
       </c>
     </row>
     <row r="763">
@@ -53882,7 +53882,7 @@
         <v>618</v>
       </c>
       <c r="V763" t="n">
-        <v>35.62024041585445</v>
+        <v>37.22777777777777</v>
       </c>
     </row>
     <row r="764">
@@ -53952,7 +53952,7 @@
         <v>618</v>
       </c>
       <c r="V764" t="n">
-        <v>35.63070175438597</v>
+        <v>37.27777777777777</v>
       </c>
     </row>
     <row r="765">
@@ -54022,7 +54022,7 @@
         <v>615</v>
       </c>
       <c r="V765" t="n">
-        <v>35.64116309291748</v>
+        <v>37.32777777777778</v>
       </c>
     </row>
     <row r="766">
@@ -54092,7 +54092,7 @@
         <v>615</v>
       </c>
       <c r="V766" t="n">
-        <v>35.65162443144899</v>
+        <v>37.37777777777778</v>
       </c>
     </row>
     <row r="767">
@@ -54162,7 +54162,7 @@
         <v>615</v>
       </c>
       <c r="V767" t="n">
-        <v>35.66208576998051</v>
+        <v>37.42777777777778</v>
       </c>
     </row>
     <row r="768">
@@ -54232,7 +54232,7 @@
         <v>615</v>
       </c>
       <c r="V768" t="n">
-        <v>35.67254710851202</v>
+        <v>37.31666666666667</v>
       </c>
     </row>
     <row r="769">
@@ -54302,7 +54302,7 @@
         <v>615</v>
       </c>
       <c r="V769" t="n">
-        <v>35.68300844704353</v>
+        <v>37.12777777777777</v>
       </c>
     </row>
     <row r="770">
@@ -54372,7 +54372,7 @@
         <v>616</v>
       </c>
       <c r="V770" t="n">
-        <v>35.69346978557505</v>
+        <v>37.06722222222222</v>
       </c>
     </row>
     <row r="771">
@@ -54442,7 +54442,7 @@
         <v>616</v>
       </c>
       <c r="V771" t="n">
-        <v>35.70393112410656</v>
+        <v>37.00666666666666</v>
       </c>
     </row>
     <row r="772">
@@ -54512,7 +54512,7 @@
         <v>616</v>
       </c>
       <c r="V772" t="n">
-        <v>35.71439246263808</v>
+        <v>36.94611111111111</v>
       </c>
     </row>
     <row r="773">
@@ -54582,7 +54582,7 @@
         <v>616</v>
       </c>
       <c r="V773" t="n">
-        <v>35.72485380116959</v>
+        <v>36.88555555555555</v>
       </c>
     </row>
     <row r="774">
@@ -54652,7 +54652,7 @@
         <v>619</v>
       </c>
       <c r="V774" t="n">
-        <v>35.73531513970111</v>
+        <v>36.825</v>
       </c>
     </row>
     <row r="775">
@@ -54722,7 +54722,7 @@
         <v>619</v>
       </c>
       <c r="V775" t="n">
-        <v>35.74577647823262</v>
+        <v>37.01666666666667</v>
       </c>
     </row>
     <row r="776">
@@ -54792,7 +54792,7 @@
         <v>619</v>
       </c>
       <c r="V776" t="n">
-        <v>35.75623781676413</v>
+        <v>37.19722222222222</v>
       </c>
     </row>
     <row r="777">
@@ -54862,7 +54862,7 @@
         <v>619</v>
       </c>
       <c r="V777" t="n">
-        <v>35.76669915529565</v>
+        <v>37.29888888888889</v>
       </c>
     </row>
     <row r="778">
@@ -54932,7 +54932,7 @@
         <v>619</v>
       </c>
       <c r="V778" t="n">
-        <v>35.77716049382716</v>
+        <v>37.40055555555556</v>
       </c>
     </row>
     <row r="779">
@@ -55002,7 +55002,7 @@
         <v>619</v>
       </c>
       <c r="V779" t="n">
-        <v>35.78762183235867</v>
+        <v>37.50222222222222</v>
       </c>
     </row>
     <row r="780">
@@ -55072,7 +55072,7 @@
         <v>619</v>
       </c>
       <c r="V780" t="n">
-        <v>35.79808317089019</v>
+        <v>37.60388888888889</v>
       </c>
     </row>
     <row r="781">
@@ -55142,7 +55142,7 @@
         <v>619</v>
       </c>
       <c r="V781" t="n">
-        <v>35.8085445094217</v>
+        <v>37.70555555555556</v>
       </c>
     </row>
     <row r="782">
@@ -55212,7 +55212,7 @@
         <v>619</v>
       </c>
       <c r="V782" t="n">
-        <v>35.81900584795321</v>
+        <v>37.59583333333333</v>
       </c>
     </row>
     <row r="783">
@@ -55282,7 +55282,7 @@
         <v>619</v>
       </c>
       <c r="V783" t="n">
-        <v>35.82946718648473</v>
+        <v>37.48611111111111</v>
       </c>
     </row>
     <row r="784">
@@ -55352,7 +55352,7 @@
         <v>619</v>
       </c>
       <c r="V784" t="n">
-        <v>35.83992852501625</v>
+        <v>37.60138888888889</v>
       </c>
     </row>
     <row r="785">
@@ -55422,7 +55422,7 @@
         <v>623</v>
       </c>
       <c r="V785" t="n">
-        <v>35.85038986354776</v>
+        <v>37.71666666666667</v>
       </c>
     </row>
     <row r="786">
@@ -55492,7 +55492,7 @@
         <v>623</v>
       </c>
       <c r="V786" t="n">
-        <v>35.86085120207927</v>
+        <v>37.86388888888889</v>
       </c>
     </row>
     <row r="787">
@@ -55562,7 +55562,7 @@
         <v>623</v>
       </c>
       <c r="V787" t="n">
-        <v>35.87131254061079</v>
+        <v>37.91203703703704</v>
       </c>
     </row>
     <row r="788">
@@ -55632,7 +55632,7 @@
         <v>636</v>
       </c>
       <c r="V788" t="n">
-        <v>35.8817738791423</v>
+        <v>37.96018518518518</v>
       </c>
     </row>
     <row r="789">
@@ -55702,7 +55702,7 @@
         <v>630</v>
       </c>
       <c r="V789" t="n">
-        <v>35.89223521767381</v>
+        <v>38.00833333333333</v>
       </c>
     </row>
     <row r="790">
@@ -55772,7 +55772,7 @@
         <v>630</v>
       </c>
       <c r="V790" t="n">
-        <v>35.90269655620533</v>
+        <v>37.77777777777778</v>
       </c>
     </row>
     <row r="791">
@@ -55842,7 +55842,7 @@
         <v>630</v>
       </c>
       <c r="V791" t="n">
-        <v>35.91315789473684</v>
+        <v>37.66944444444444</v>
       </c>
     </row>
     <row r="792">
@@ -55912,7 +55912,7 @@
         <v>630</v>
       </c>
       <c r="V792" t="n">
-        <v>35.92361923326835</v>
+        <v>37.56111111111112</v>
       </c>
     </row>
     <row r="793">
@@ -55982,7 +55982,7 @@
         <v>630</v>
       </c>
       <c r="V793" t="n">
-        <v>35.93408057179987</v>
+        <v>37.45277777777778</v>
       </c>
     </row>
     <row r="794">
@@ -56052,7 +56052,7 @@
         <v>631</v>
       </c>
       <c r="V794" t="n">
-        <v>35.94454191033139</v>
+        <v>37.24722222222222</v>
       </c>
     </row>
     <row r="795">
@@ -56122,7 +56122,7 @@
         <v>631</v>
       </c>
       <c r="V795" t="n">
-        <v>35.9550032488629</v>
+        <v>36.91944444444444</v>
       </c>
     </row>
     <row r="796">
@@ -56192,7 +56192,7 @@
         <v>631</v>
       </c>
       <c r="V796" t="n">
-        <v>35.96546458739441</v>
+        <v>36.73888888888889</v>
       </c>
     </row>
     <row r="797">
@@ -56262,7 +56262,7 @@
         <v>631</v>
       </c>
       <c r="V797" t="n">
-        <v>35.97592592592593</v>
+        <v>36.61111111111111</v>
       </c>
     </row>
     <row r="798">
@@ -56332,7 +56332,7 @@
         <v>631</v>
       </c>
       <c r="V798" t="n">
-        <v>35.98638726445744</v>
+        <v>36.48333333333333</v>
       </c>
     </row>
     <row r="799">
@@ -56402,7 +56402,7 @@
         <v>631</v>
       </c>
       <c r="V799" t="n">
-        <v>35.99684860298895</v>
+        <v>36.45</v>
       </c>
     </row>
     <row r="800">
@@ -56472,7 +56472,7 @@
         <v>625</v>
       </c>
       <c r="V800" t="n">
-        <v>36.00730994152047</v>
+        <v>36.41666666666666</v>
       </c>
     </row>
     <row r="801">
@@ -56542,7 +56542,7 @@
         <v>625</v>
       </c>
       <c r="V801" t="n">
-        <v>36.01777128005198</v>
+        <v>36.38333333333333</v>
       </c>
     </row>
     <row r="802">
@@ -56612,7 +56612,7 @@
         <v>625</v>
       </c>
       <c r="V802" t="n">
-        <v>36.02823261858349</v>
+        <v>36.35</v>
       </c>
     </row>
     <row r="803">
@@ -56682,7 +56682,7 @@
         <v>625</v>
       </c>
       <c r="V803" t="n">
-        <v>36.03869395711501</v>
+        <v>36.31666666666666</v>
       </c>
     </row>
     <row r="804">
@@ -56752,7 +56752,7 @@
         <v>633</v>
       </c>
       <c r="V804" t="n">
-        <v>36.04915529564652</v>
+        <v>36.28333333333333</v>
       </c>
     </row>
     <row r="805">
@@ -56822,7 +56822,7 @@
         <v>625</v>
       </c>
       <c r="V805" t="n">
-        <v>36.05961663417804</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="806">
@@ -56892,7 +56892,7 @@
         <v>625</v>
       </c>
       <c r="V806" t="n">
-        <v>36.07007797270956</v>
+        <v>36.21666666666666</v>
       </c>
     </row>
     <row r="807">
@@ -56962,7 +56962,7 @@
         <v>625</v>
       </c>
       <c r="V807" t="n">
-        <v>36.08053931124107</v>
+        <v>36.18333333333333</v>
       </c>
     </row>
     <row r="808">
@@ -57032,7 +57032,7 @@
         <v>625</v>
       </c>
       <c r="V808" t="n">
-        <v>36.09100064977258</v>
+        <v>36.25277777777777</v>
       </c>
     </row>
     <row r="809">
@@ -57102,7 +57102,7 @@
         <v>625</v>
       </c>
       <c r="V809" t="n">
-        <v>36.1014619883041</v>
+        <v>36.32222222222222</v>
       </c>
     </row>
     <row r="810">
@@ -57172,7 +57172,7 @@
         <v>625</v>
       </c>
       <c r="V810" t="n">
-        <v>36.11192332683561</v>
+        <v>36.39166666666667</v>
       </c>
     </row>
     <row r="811">
@@ -57242,7 +57242,7 @@
         <v>627</v>
       </c>
       <c r="V811" t="n">
-        <v>36.12238466536712</v>
+        <v>36.42232905982906</v>
       </c>
     </row>
     <row r="812">
@@ -57312,7 +57312,7 @@
         <v>627</v>
       </c>
       <c r="V812" t="n">
-        <v>36.13284600389863</v>
+        <v>36.45299145299145</v>
       </c>
     </row>
     <row r="813">
@@ -57382,7 +57382,7 @@
         <v>627</v>
       </c>
       <c r="V813" t="n">
-        <v>36.14330734243015</v>
+        <v>36.48365384615384</v>
       </c>
     </row>
     <row r="814">
@@ -57452,7 +57452,7 @@
         <v>627</v>
       </c>
       <c r="V814" t="n">
-        <v>36.15376868096166</v>
+        <v>36.51431623931624</v>
       </c>
     </row>
     <row r="815">
@@ -57522,7 +57522,7 @@
         <v>627</v>
       </c>
       <c r="V815" t="n">
-        <v>36.16423001949317</v>
+        <v>36.54497863247863</v>
       </c>
     </row>
     <row r="816">
@@ -57592,7 +57592,7 @@
         <v>629</v>
       </c>
       <c r="V816" t="n">
-        <v>36.1746913580247</v>
+        <v>36.57564102564103</v>
       </c>
     </row>
     <row r="817">
@@ -57662,7 +57662,7 @@
         <v>629</v>
       </c>
       <c r="V817" t="n">
-        <v>36.18515269655621</v>
+        <v>36.60630341880342</v>
       </c>
     </row>
     <row r="818">
@@ -57732,7 +57732,7 @@
         <v>629</v>
       </c>
       <c r="V818" t="n">
-        <v>36.19561403508772</v>
+        <v>36.63696581196581</v>
       </c>
     </row>
     <row r="819">
@@ -57802,7 +57802,7 @@
         <v>630</v>
       </c>
       <c r="V819" t="n">
-        <v>36.20607537361924</v>
+        <v>36.6676282051282</v>
       </c>
     </row>
     <row r="820">
@@ -57872,7 +57872,7 @@
         <v>630</v>
       </c>
       <c r="V820" t="n">
-        <v>36.21653671215075</v>
+        <v>36.6982905982906</v>
       </c>
     </row>
     <row r="821">
@@ -57942,7 +57942,7 @@
         <v>630</v>
       </c>
       <c r="V821" t="n">
-        <v>36.22699805068226</v>
+        <v>36.72895299145299</v>
       </c>
     </row>
     <row r="822">
@@ -58012,7 +58012,7 @@
         <v>639</v>
       </c>
       <c r="V822" t="n">
-        <v>36.23745938921378</v>
+        <v>36.75961538461539</v>
       </c>
     </row>
     <row r="823">
@@ -58082,7 +58082,7 @@
         <v>639</v>
       </c>
       <c r="V823" t="n">
-        <v>36.24792072774529</v>
+        <v>36.79027777777777</v>
       </c>
     </row>
     <row r="824">
@@ -58152,7 +58152,7 @@
         <v>639</v>
       </c>
       <c r="V824" t="n">
-        <v>36.2583820662768</v>
+        <v>36.82094017094017</v>
       </c>
     </row>
     <row r="825">
@@ -58222,7 +58222,7 @@
         <v>639</v>
       </c>
       <c r="V825" t="n">
-        <v>36.26884340480832</v>
+        <v>36.85160256410256</v>
       </c>
     </row>
     <row r="826">
@@ -58292,7 +58292,7 @@
         <v>633</v>
       </c>
       <c r="V826" t="n">
-        <v>36.27930474333983</v>
+        <v>36.88226495726496</v>
       </c>
     </row>
     <row r="827">
@@ -58362,7 +58362,7 @@
         <v>633</v>
       </c>
       <c r="V827" t="n">
-        <v>36.28976608187135</v>
+        <v>36.91292735042735</v>
       </c>
     </row>
     <row r="828">
@@ -58432,7 +58432,7 @@
         <v>633</v>
       </c>
       <c r="V828" t="n">
-        <v>36.30022742040286</v>
+        <v>36.94358974358975</v>
       </c>
     </row>
     <row r="829">
@@ -58502,7 +58502,7 @@
         <v>633</v>
       </c>
       <c r="V829" t="n">
-        <v>36.31068875893438</v>
+        <v>36.97425213675213</v>
       </c>
     </row>
     <row r="830">
@@ -58572,7 +58572,7 @@
         <v>633</v>
       </c>
       <c r="V830" t="n">
-        <v>36.32115009746589</v>
+        <v>37.00491452991453</v>
       </c>
     </row>
     <row r="831">
@@ -58642,7 +58642,7 @@
         <v>633</v>
       </c>
       <c r="V831" t="n">
-        <v>36.3316114359974</v>
+        <v>37.03557692307692</v>
       </c>
     </row>
     <row r="832">
@@ -58712,7 +58712,7 @@
         <v>638</v>
       </c>
       <c r="V832" t="n">
-        <v>36.34207277452892</v>
+        <v>37.06623931623932</v>
       </c>
     </row>
     <row r="833">
@@ -58782,7 +58782,7 @@
         <v>638</v>
       </c>
       <c r="V833" t="n">
-        <v>36.35253411306043</v>
+        <v>37.09690170940171</v>
       </c>
     </row>
     <row r="834">
@@ -58852,7 +58852,7 @@
         <v>638</v>
       </c>
       <c r="V834" t="n">
-        <v>36.36299545159194</v>
+        <v>37.1275641025641</v>
       </c>
     </row>
     <row r="835">
@@ -58922,7 +58922,7 @@
         <v>638</v>
       </c>
       <c r="V835" t="n">
-        <v>36.37345679012346</v>
+        <v>37.1582264957265</v>
       </c>
     </row>
     <row r="836">
@@ -58992,7 +58992,7 @@
         <v>638</v>
       </c>
       <c r="V836" t="n">
-        <v>36.38391812865497</v>
+        <v>37.18888888888889</v>
       </c>
     </row>
     <row r="837">
@@ -59062,7 +59062,7 @@
         <v>639</v>
       </c>
       <c r="V837" t="n">
-        <v>36.39437946718648</v>
+        <v>37.06944444444444</v>
       </c>
     </row>
     <row r="838">
@@ -59132,7 +59132,7 @@
         <v>639</v>
       </c>
       <c r="V838" t="n">
-        <v>36.404840805718</v>
+        <v>37.00370370370371</v>
       </c>
     </row>
     <row r="839">
@@ -59202,7 +59202,7 @@
         <v>639</v>
       </c>
       <c r="V839" t="n">
-        <v>36.41530214424952</v>
+        <v>36.93796296296296</v>
       </c>
     </row>
     <row r="840">
@@ -59272,7 +59272,7 @@
         <v>627</v>
       </c>
       <c r="V840" t="n">
-        <v>36.42576348278103</v>
+        <v>36.87222222222223</v>
       </c>
     </row>
     <row r="841">
@@ -59342,7 +59342,7 @@
         <v>627</v>
       </c>
       <c r="V841" t="n">
-        <v>36.43622482131254</v>
+        <v>36.80277777777778</v>
       </c>
     </row>
     <row r="842">
@@ -59412,7 +59412,7 @@
         <v>628</v>
       </c>
       <c r="V842" t="n">
-        <v>36.44668615984406</v>
+        <v>36.73333333333333</v>
       </c>
     </row>
     <row r="843">
@@ -59482,7 +59482,7 @@
         <v>628</v>
       </c>
       <c r="V843" t="n">
-        <v>36.45714749837557</v>
+        <v>36.66388888888889</v>
       </c>
     </row>
     <row r="844">
@@ -59552,7 +59552,7 @@
         <v>628</v>
       </c>
       <c r="V844" t="n">
-        <v>36.46760883690708</v>
+        <v>36.64135802469136</v>
       </c>
     </row>
     <row r="845">
@@ -59622,7 +59622,7 @@
         <v>628</v>
       </c>
       <c r="V845" t="n">
-        <v>36.4780701754386</v>
+        <v>36.61882716049383</v>
       </c>
     </row>
     <row r="846">
@@ -59692,7 +59692,7 @@
         <v>628</v>
       </c>
       <c r="V846" t="n">
-        <v>36.48853151397011</v>
+        <v>36.59629629629629</v>
       </c>
     </row>
     <row r="847">
@@ -59762,7 +59762,7 @@
         <v>629</v>
       </c>
       <c r="V847" t="n">
-        <v>36.49899285250162</v>
+        <v>36.57376543209877</v>
       </c>
     </row>
     <row r="848">
@@ -59832,7 +59832,7 @@
         <v>629</v>
       </c>
       <c r="V848" t="n">
-        <v>36.50945419103314</v>
+        <v>36.55123456790123</v>
       </c>
     </row>
     <row r="849">
@@ -59902,7 +59902,7 @@
         <v>629</v>
       </c>
       <c r="V849" t="n">
-        <v>36.51991552956466</v>
+        <v>36.52870370370371</v>
       </c>
     </row>
     <row r="850">
@@ -59972,7 +59972,7 @@
         <v>629</v>
       </c>
       <c r="V850" t="n">
-        <v>36.53037686809617</v>
+        <v>36.50617283950617</v>
       </c>
     </row>
     <row r="851">
@@ -60042,7 +60042,7 @@
         <v>629</v>
       </c>
       <c r="V851" t="n">
-        <v>36.54083820662768</v>
+        <v>36.48364197530864</v>
       </c>
     </row>
     <row r="852">
@@ -60112,7 +60112,7 @@
         <v>627</v>
       </c>
       <c r="V852" t="n">
-        <v>36.5512995451592</v>
+        <v>36.46111111111111</v>
       </c>
     </row>
     <row r="853">
@@ -60182,7 +60182,7 @@
         <v>627</v>
       </c>
       <c r="V853" t="n">
-        <v>36.56176088369071</v>
+        <v>36.51666666666667</v>
       </c>
     </row>
     <row r="854">
@@ -60392,7 +60392,7 @@
         <v>627</v>
       </c>
       <c r="V856" t="n">
-        <v>36.14867424242424</v>
+        <v>35.80833333333333</v>
       </c>
     </row>
     <row r="857">
@@ -60462,7 +60462,7 @@
         <v>627</v>
       </c>
       <c r="V857" t="n">
-        <v>36.09179292929293</v>
+        <v>35.53055555555555</v>
       </c>
     </row>
     <row r="858">
@@ -60532,7 +60532,7 @@
         <v>627</v>
       </c>
       <c r="V858" t="n">
-        <v>36.03491161616162</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="859">
@@ -60602,7 +60602,7 @@
         <v>627</v>
       </c>
       <c r="V859" t="n">
-        <v>35.9780303030303</v>
+        <v>35.22222222222222</v>
       </c>
     </row>
     <row r="860">
@@ -60672,7 +60672,7 @@
         <v>627</v>
       </c>
       <c r="V860" t="n">
-        <v>35.92114898989899</v>
+        <v>35.09444444444444</v>
       </c>
     </row>
     <row r="861">
@@ -60742,7 +60742,7 @@
         <v>627</v>
       </c>
       <c r="V861" t="n">
-        <v>35.86426767676767</v>
+        <v>34.90555555555555</v>
       </c>
     </row>
     <row r="862">
@@ -60812,7 +60812,7 @@
         <v>628</v>
       </c>
       <c r="V862" t="n">
-        <v>35.80738636363636</v>
+        <v>34.82013888888888</v>
       </c>
     </row>
     <row r="863">
@@ -60882,7 +60882,7 @@
         <v>628</v>
       </c>
       <c r="V863" t="n">
-        <v>35.75050505050505</v>
+        <v>34.73472222222222</v>
       </c>
     </row>
     <row r="864">
@@ -60952,7 +60952,7 @@
         <v>628</v>
       </c>
       <c r="V864" t="n">
-        <v>35.69362373737373</v>
+        <v>34.64930555555556</v>
       </c>
     </row>
     <row r="865">
@@ -61022,7 +61022,7 @@
         <v>626</v>
       </c>
       <c r="V865" t="n">
-        <v>35.63674242424242</v>
+        <v>34.56388888888889</v>
       </c>
     </row>
     <row r="866">
@@ -61092,7 +61092,7 @@
         <v>626</v>
       </c>
       <c r="V866" t="n">
-        <v>35.57986111111111</v>
+        <v>34.69722222222222</v>
       </c>
     </row>
     <row r="867">
@@ -61162,7 +61162,7 @@
         <v>626</v>
       </c>
       <c r="V867" t="n">
-        <v>35.5229797979798</v>
+        <v>34.76722222222222</v>
       </c>
     </row>
     <row r="868">
@@ -61232,7 +61232,7 @@
         <v>627</v>
       </c>
       <c r="V868" t="n">
-        <v>35.46609848484849</v>
+        <v>34.83722222222222</v>
       </c>
     </row>
     <row r="869">
@@ -61302,7 +61302,7 @@
         <v>627</v>
       </c>
       <c r="V869" t="n">
-        <v>35.40921717171717</v>
+        <v>34.90722222222222</v>
       </c>
     </row>
     <row r="870">
@@ -61372,7 +61372,7 @@
         <v>627</v>
       </c>
       <c r="V870" t="n">
-        <v>35.35233585858586</v>
+        <v>34.97722222222222</v>
       </c>
     </row>
     <row r="871">
@@ -61442,7 +61442,7 @@
         <v>627</v>
       </c>
       <c r="V871" t="n">
-        <v>35.29545454545455</v>
+        <v>35.04722222222222</v>
       </c>
     </row>
     <row r="872">
@@ -61512,7 +61512,7 @@
         <v>627</v>
       </c>
       <c r="V872" t="n">
-        <v>35.23857323232323</v>
+        <v>35.27777777777778</v>
       </c>
     </row>
     <row r="873">
@@ -61582,7 +61582,7 @@
         <v>627</v>
       </c>
       <c r="V873" t="n">
-        <v>35.18169191919192</v>
+        <v>35.34777777777778</v>
       </c>
     </row>
     <row r="874">
@@ -61652,7 +61652,7 @@
         <v>626</v>
       </c>
       <c r="V874" t="n">
-        <v>35.12481060606061</v>
+        <v>35.41777777777778</v>
       </c>
     </row>
     <row r="875">
@@ -61722,7 +61722,7 @@
         <v>626</v>
       </c>
       <c r="V875" t="n">
-        <v>35.06792929292929</v>
+        <v>35.48777777777777</v>
       </c>
     </row>
     <row r="876">
@@ -61792,7 +61792,7 @@
         <v>626</v>
       </c>
       <c r="V876" t="n">
-        <v>35.01104797979798</v>
+        <v>35.55777777777777</v>
       </c>
     </row>
     <row r="877">
@@ -61862,7 +61862,7 @@
         <v>626</v>
       </c>
       <c r="V877" t="n">
-        <v>34.95416666666667</v>
+        <v>35.55339869281045</v>
       </c>
     </row>
     <row r="878">
@@ -61932,7 +61932,7 @@
         <v>626</v>
       </c>
       <c r="V878" t="n">
-        <v>34.89728535353535</v>
+        <v>35.54901960784314</v>
       </c>
     </row>
     <row r="879">
@@ -62002,7 +62002,7 @@
         <v>626</v>
       </c>
       <c r="V879" t="n">
-        <v>34.84040404040404</v>
+        <v>35.54464052287581</v>
       </c>
     </row>
     <row r="880">
@@ -62072,7 +62072,7 @@
         <v>625</v>
       </c>
       <c r="V880" t="n">
-        <v>34.78352272727273</v>
+        <v>35.54026143790849</v>
       </c>
     </row>
     <row r="881">
@@ -62142,7 +62142,7 @@
         <v>625</v>
       </c>
       <c r="V881" t="n">
-        <v>34.72664141414141</v>
+        <v>35.53588235294117</v>
       </c>
     </row>
     <row r="882">
@@ -62212,7 +62212,7 @@
         <v>625</v>
       </c>
       <c r="V882" t="n">
-        <v>34.6697601010101</v>
+        <v>35.53150326797385</v>
       </c>
     </row>
     <row r="883">
@@ -62282,7 +62282,7 @@
         <v>625</v>
       </c>
       <c r="V883" t="n">
-        <v>34.61287878787878</v>
+        <v>35.52712418300653</v>
       </c>
     </row>
     <row r="884">
@@ -62352,7 +62352,7 @@
         <v>625</v>
       </c>
       <c r="V884" t="n">
-        <v>34.55599747474747</v>
+        <v>35.52274509803922</v>
       </c>
     </row>
     <row r="885">
@@ -62422,7 +62422,7 @@
         <v>625</v>
       </c>
       <c r="V885" t="n">
-        <v>34.49911616161616</v>
+        <v>35.51836601307189</v>
       </c>
     </row>
     <row r="886">
@@ -62492,7 +62492,7 @@
         <v>625</v>
       </c>
       <c r="V886" t="n">
-        <v>34.44223484848484</v>
+        <v>35.51398692810457</v>
       </c>
     </row>
     <row r="887">
@@ -62562,7 +62562,7 @@
         <v>627</v>
       </c>
       <c r="V887" t="n">
-        <v>34.38535353535353</v>
+        <v>35.50960784313725</v>
       </c>
     </row>
     <row r="888">
@@ -62632,7 +62632,7 @@
         <v>627</v>
       </c>
       <c r="V888" t="n">
-        <v>34.32847222222222</v>
+        <v>35.50522875816993</v>
       </c>
     </row>
     <row r="889">
@@ -62702,7 +62702,7 @@
         <v>627</v>
       </c>
       <c r="V889" t="n">
-        <v>34.27159090909091</v>
+        <v>35.50084967320262</v>
       </c>
     </row>
     <row r="890">
@@ -62772,7 +62772,7 @@
         <v>627</v>
       </c>
       <c r="V890" t="n">
-        <v>34.2147095959596</v>
+        <v>35.4964705882353</v>
       </c>
     </row>
     <row r="891">
@@ -62842,7 +62842,7 @@
         <v>627</v>
       </c>
       <c r="V891" t="n">
-        <v>34.15782828282828</v>
+        <v>35.49209150326797</v>
       </c>
     </row>
     <row r="892">
@@ -62912,7 +62912,7 @@
         <v>627</v>
       </c>
       <c r="V892" t="n">
-        <v>34.10094696969697</v>
+        <v>35.48771241830065</v>
       </c>
     </row>
     <row r="893">
@@ -62982,7 +62982,7 @@
         <v>627</v>
       </c>
       <c r="V893" t="n">
-        <v>34.04406565656566</v>
+        <v>35.48333333333333</v>
       </c>
     </row>
     <row r="894">
@@ -63052,7 +63052,7 @@
         <v>627</v>
       </c>
       <c r="V894" t="n">
-        <v>33.98718434343434</v>
+        <v>35.40648148148148</v>
       </c>
     </row>
     <row r="895">
@@ -63122,7 +63122,7 @@
         <v>627</v>
       </c>
       <c r="V895" t="n">
-        <v>33.93030303030303</v>
+        <v>35.32962962962963</v>
       </c>
     </row>
     <row r="896">
@@ -63192,7 +63192,7 @@
         <v>627</v>
       </c>
       <c r="V896" t="n">
-        <v>33.87342171717172</v>
+        <v>35.30895061728395</v>
       </c>
     </row>
     <row r="897">
@@ -63262,7 +63262,7 @@
         <v>627</v>
       </c>
       <c r="V897" t="n">
-        <v>33.8165404040404</v>
+        <v>35.28827160493827</v>
       </c>
     </row>
     <row r="898">
@@ -63332,7 +63332,7 @@
         <v>627</v>
       </c>
       <c r="V898" t="n">
-        <v>33.75965909090909</v>
+        <v>35.26759259259259</v>
       </c>
     </row>
     <row r="899">
@@ -63402,7 +63402,7 @@
         <v>630</v>
       </c>
       <c r="V899" t="n">
-        <v>33.70277777777778</v>
+        <v>35.24691358024691</v>
       </c>
     </row>
     <row r="900">
@@ -63472,7 +63472,7 @@
         <v>628</v>
       </c>
       <c r="V900" t="n">
-        <v>33.64589646464646</v>
+        <v>35.22623456790124</v>
       </c>
     </row>
     <row r="901">
@@ -63542,7 +63542,7 @@
         <v>628</v>
       </c>
       <c r="V901" t="n">
-        <v>33.58901515151515</v>
+        <v>35.20555555555556</v>
       </c>
     </row>
     <row r="902">
@@ -63612,7 +63612,7 @@
         <v>628</v>
       </c>
       <c r="V902" t="n">
-        <v>33.53213383838384</v>
+        <v>35.13611111111111</v>
       </c>
     </row>
     <row r="903">
@@ -63682,7 +63682,7 @@
         <v>628</v>
       </c>
       <c r="V903" t="n">
-        <v>33.47525252525252</v>
+        <v>35.06666666666666</v>
       </c>
     </row>
     <row r="904">
@@ -63752,7 +63752,7 @@
         <v>628</v>
       </c>
       <c r="V904" t="n">
-        <v>33.41837121212121</v>
+        <v>34.99722222222222</v>
       </c>
     </row>
     <row r="905">
@@ -63822,7 +63822,7 @@
         <v>628</v>
       </c>
       <c r="V905" t="n">
-        <v>33.36148989898989</v>
+        <v>34.97179487179487</v>
       </c>
     </row>
     <row r="906">
@@ -63892,7 +63892,7 @@
         <v>628</v>
       </c>
       <c r="V906" t="n">
-        <v>33.30460858585858</v>
+        <v>34.94636752136752</v>
       </c>
     </row>
     <row r="907">
@@ -63962,7 +63962,7 @@
         <v>628</v>
       </c>
       <c r="V907" t="n">
-        <v>33.24772727272727</v>
+        <v>34.92094017094017</v>
       </c>
     </row>
     <row r="908">
@@ -64032,7 +64032,7 @@
         <v>628</v>
       </c>
       <c r="V908" t="n">
-        <v>33.19084595959595</v>
+        <v>34.89551282051282</v>
       </c>
     </row>
     <row r="909">
@@ -64102,7 +64102,7 @@
         <v>628</v>
       </c>
       <c r="V909" t="n">
-        <v>33.13396464646465</v>
+        <v>34.87008547008547</v>
       </c>
     </row>
     <row r="910">
@@ -64172,7 +64172,7 @@
         <v>628</v>
       </c>
       <c r="V910" t="n">
-        <v>33.07708333333333</v>
+        <v>34.84465811965812</v>
       </c>
     </row>
     <row r="911">
@@ -64242,7 +64242,7 @@
         <v>630</v>
       </c>
       <c r="V911" t="n">
-        <v>33.02020202020202</v>
+        <v>34.81923076923076</v>
       </c>
     </row>
     <row r="912">
@@ -64312,7 +64312,7 @@
         <v>630</v>
       </c>
       <c r="V912" t="n">
-        <v>32.96332070707071</v>
+        <v>34.79380341880341</v>
       </c>
     </row>
     <row r="913">
@@ -64382,7 +64382,7 @@
         <v>630</v>
       </c>
       <c r="V913" t="n">
-        <v>32.90643939393939</v>
+        <v>34.76837606837606</v>
       </c>
     </row>
     <row r="914">
@@ -64452,7 +64452,7 @@
         <v>630</v>
       </c>
       <c r="V914" t="n">
-        <v>32.84955808080808</v>
+        <v>34.74294871794871</v>
       </c>
     </row>
     <row r="915">
@@ -64522,7 +64522,7 @@
         <v>630</v>
       </c>
       <c r="V915" t="n">
-        <v>32.79267676767677</v>
+        <v>34.71752136752136</v>
       </c>
     </row>
     <row r="916">
@@ -64592,7 +64592,7 @@
         <v>630</v>
       </c>
       <c r="V916" t="n">
-        <v>32.73579545454545</v>
+        <v>34.69209401709401</v>
       </c>
     </row>
     <row r="917">
@@ -64662,7 +64662,7 @@
         <v>628</v>
       </c>
       <c r="V917" t="n">
-        <v>32.67891414141414</v>
+        <v>34.66666666666666</v>
       </c>
     </row>
     <row r="918">
@@ -64732,7 +64732,7 @@
         <v>628</v>
       </c>
       <c r="V918" t="n">
-        <v>32.62203282828283</v>
+        <v>34.47777777777778</v>
       </c>
     </row>
     <row r="919">
@@ -64802,7 +64802,7 @@
         <v>628</v>
       </c>
       <c r="V919" t="n">
-        <v>32.56515151515151</v>
+        <v>34.28611111111111</v>
       </c>
     </row>
     <row r="920">
@@ -64872,7 +64872,7 @@
         <v>628</v>
       </c>
       <c r="V920" t="n">
-        <v>32.5082702020202</v>
+        <v>34.10555555555555</v>
       </c>
     </row>
     <row r="921">
@@ -64942,7 +64942,7 @@
         <v>628</v>
       </c>
       <c r="V921" t="n">
-        <v>32.45138888888889</v>
+        <v>33.975</v>
       </c>
     </row>
     <row r="922">
@@ -65012,7 +65012,7 @@
         <v>626</v>
       </c>
       <c r="V922" t="n">
-        <v>32.39450757575757</v>
+        <v>33.81666666666666</v>
       </c>
     </row>
     <row r="923">
@@ -65082,7 +65082,7 @@
         <v>626</v>
       </c>
       <c r="V923" t="n">
-        <v>32.33762626262626</v>
+        <v>33.61111111111111</v>
       </c>
     </row>
     <row r="924">
@@ -65152,7 +65152,7 @@
         <v>626</v>
       </c>
       <c r="V924" t="n">
-        <v>32.28074494949495</v>
+        <v>33.40555555555556</v>
       </c>
     </row>
     <row r="925">
@@ -65222,7 +65222,7 @@
         <v>626</v>
       </c>
       <c r="V925" t="n">
-        <v>32.22386363636363</v>
+        <v>33.26111111111111</v>
       </c>
     </row>
     <row r="926">
@@ -65292,7 +65292,7 @@
         <v>626</v>
       </c>
       <c r="V926" t="n">
-        <v>32.16698232323232</v>
+        <v>33.08055555555556</v>
       </c>
     </row>
     <row r="927">
@@ -65362,7 +65362,7 @@
         <v>627</v>
       </c>
       <c r="V927" t="n">
-        <v>32.110101010101</v>
+        <v>32.77777777777778</v>
       </c>
     </row>
     <row r="928">
@@ -65432,7 +65432,7 @@
         <v>627</v>
       </c>
       <c r="V928" t="n">
-        <v>32.05321969696969</v>
+        <v>32.69722222222222</v>
       </c>
     </row>
     <row r="929">
@@ -65502,7 +65502,7 @@
         <v>627</v>
       </c>
       <c r="V929" t="n">
-        <v>31.99633838383838</v>
+        <v>32.61666666666667</v>
       </c>
     </row>
     <row r="930">
@@ -65572,7 +65572,7 @@
         <v>627</v>
       </c>
       <c r="V930" t="n">
-        <v>31.93945707070707</v>
+        <v>32.53611111111111</v>
       </c>
     </row>
     <row r="931">
@@ -65642,7 +65642,7 @@
         <v>627</v>
       </c>
       <c r="V931" t="n">
-        <v>31.88257575757575</v>
+        <v>32.45555555555556</v>
       </c>
     </row>
     <row r="932">
@@ -65712,7 +65712,7 @@
         <v>627</v>
       </c>
       <c r="V932" t="n">
-        <v>31.82569444444444</v>
+        <v>32.375</v>
       </c>
     </row>
     <row r="933">
@@ -65782,7 +65782,7 @@
         <v>627</v>
       </c>
       <c r="V933" t="n">
-        <v>31.76881313131313</v>
+        <v>32.29444444444444</v>
       </c>
     </row>
     <row r="934">
@@ -65852,7 +65852,7 @@
         <v>627</v>
       </c>
       <c r="V934" t="n">
-        <v>31.71193181818181</v>
+        <v>32.37361111111111</v>
       </c>
     </row>
     <row r="935">
@@ -65922,7 +65922,7 @@
         <v>627</v>
       </c>
       <c r="V935" t="n">
-        <v>31.6550505050505</v>
+        <v>32.45277777777778</v>
       </c>
     </row>
     <row r="936">
@@ -65992,7 +65992,7 @@
         <v>627</v>
       </c>
       <c r="V936" t="n">
-        <v>31.59816919191919</v>
+        <v>32.35185185185185</v>
       </c>
     </row>
     <row r="937">
@@ -66062,7 +66062,7 @@
         <v>627</v>
       </c>
       <c r="V937" t="n">
-        <v>31.54128787878788</v>
+        <v>32.25092592592593</v>
       </c>
     </row>
     <row r="938">
@@ -66132,7 +66132,7 @@
         <v>627</v>
       </c>
       <c r="V938" t="n">
-        <v>31.48440656565656</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="939">
@@ -66202,7 +66202,7 @@
         <v>629</v>
       </c>
       <c r="V939" t="n">
-        <v>31.42752525252525</v>
+        <v>32.03888888888889</v>
       </c>
     </row>
     <row r="940">
@@ -66272,7 +66272,7 @@
         <v>629</v>
       </c>
       <c r="V940" t="n">
-        <v>31.37064393939394</v>
+        <v>31.90972222222222</v>
       </c>
     </row>
     <row r="941">
@@ -66342,7 +66342,7 @@
         <v>629</v>
       </c>
       <c r="V941" t="n">
-        <v>31.31376262626262</v>
+        <v>31.78055555555556</v>
       </c>
     </row>
     <row r="942">
@@ -66412,7 +66412,7 @@
         <v>629</v>
       </c>
       <c r="V942" t="n">
-        <v>31.25688131313131</v>
+        <v>31.51666666666667</v>
       </c>
     </row>
     <row r="943">
@@ -66552,7 +66552,7 @@
         <v>630</v>
       </c>
       <c r="V944" t="n">
-        <v>31.18585858585858</v>
+        <v>30.81111111111111</v>
       </c>
     </row>
     <row r="945">
@@ -66622,7 +66622,7 @@
         <v>627</v>
       </c>
       <c r="V945" t="n">
-        <v>31.17171717171717</v>
+        <v>30.55555555555555</v>
       </c>
     </row>
     <row r="946">
@@ -66692,7 +66692,7 @@
         <v>627</v>
       </c>
       <c r="V946" t="n">
-        <v>31.15757575757575</v>
+        <v>30.25277777777778</v>
       </c>
     </row>
     <row r="947">
@@ -66762,7 +66762,7 @@
         <v>627</v>
       </c>
       <c r="V947" t="n">
-        <v>31.14343434343434</v>
+        <v>30.07222222222222</v>
       </c>
     </row>
     <row r="948">
@@ -66832,7 +66832,7 @@
         <v>627</v>
       </c>
       <c r="V948" t="n">
-        <v>31.12929292929293</v>
+        <v>29.91666666666667</v>
       </c>
     </row>
     <row r="949">
@@ -66902,7 +66902,7 @@
         <v>627</v>
       </c>
       <c r="V949" t="n">
-        <v>31.11515151515151</v>
+        <v>29.76388888888889</v>
       </c>
     </row>
     <row r="950">
@@ -66972,7 +66972,7 @@
         <v>627</v>
       </c>
       <c r="V950" t="n">
-        <v>31.1010101010101</v>
+        <v>29.625</v>
       </c>
     </row>
     <row r="951">
@@ -67042,7 +67042,7 @@
         <v>628</v>
       </c>
       <c r="V951" t="n">
-        <v>31.08686868686868</v>
+        <v>29.48611111111111</v>
       </c>
     </row>
     <row r="952">
@@ -67112,7 +67112,7 @@
         <v>628</v>
       </c>
       <c r="V952" t="n">
-        <v>31.07272727272727</v>
+        <v>29.36111111111111</v>
       </c>
     </row>
     <row r="953">
@@ -67182,7 +67182,7 @@
         <v>628</v>
       </c>
       <c r="V953" t="n">
-        <v>31.05858585858585</v>
+        <v>29.23888888888889</v>
       </c>
     </row>
     <row r="954">
@@ -67252,7 +67252,7 @@
         <v>628</v>
       </c>
       <c r="V954" t="n">
-        <v>31.04444444444444</v>
+        <v>29.11944444444444</v>
       </c>
     </row>
     <row r="955">
@@ -67322,7 +67322,7 @@
         <v>628</v>
       </c>
       <c r="V955" t="n">
-        <v>31.03030303030303</v>
+        <v>29.23888888888889</v>
       </c>
     </row>
     <row r="956">
@@ -67392,7 +67392,7 @@
         <v>628</v>
       </c>
       <c r="V956" t="n">
-        <v>31.01616161616161</v>
+        <v>29.33333333333334</v>
       </c>
     </row>
     <row r="957">
@@ -67462,7 +67462,7 @@
         <v>627</v>
       </c>
       <c r="V957" t="n">
-        <v>31.0020202020202</v>
+        <v>29.42777777777778</v>
       </c>
     </row>
     <row r="958">
@@ -67532,7 +67532,7 @@
         <v>627</v>
       </c>
       <c r="V958" t="n">
-        <v>30.98787878787878</v>
+        <v>29.52222222222222</v>
       </c>
     </row>
     <row r="959">
@@ -67602,7 +67602,7 @@
         <v>627</v>
       </c>
       <c r="V959" t="n">
-        <v>30.97373737373737</v>
+        <v>29.63055555555556</v>
       </c>
     </row>
     <row r="960">
@@ -67672,7 +67672,7 @@
         <v>627</v>
       </c>
       <c r="V960" t="n">
-        <v>30.95959595959595</v>
+        <v>29.76805555555556</v>
       </c>
     </row>
     <row r="961">
@@ -67742,7 +67742,7 @@
         <v>627</v>
       </c>
       <c r="V961" t="n">
-        <v>30.94545454545454</v>
+        <v>29.90555555555556</v>
       </c>
     </row>
     <row r="962">
@@ -67812,7 +67812,7 @@
         <v>627</v>
       </c>
       <c r="V962" t="n">
-        <v>30.93131313131313</v>
+        <v>30.09444444444444</v>
       </c>
     </row>
     <row r="963">
@@ -67882,7 +67882,7 @@
         <v>627</v>
       </c>
       <c r="V963" t="n">
-        <v>30.91717171717172</v>
+        <v>30.15833333333333</v>
       </c>
     </row>
     <row r="964">
@@ -67952,7 +67952,7 @@
         <v>627</v>
       </c>
       <c r="V964" t="n">
-        <v>30.9030303030303</v>
+        <v>30.22222222222222</v>
       </c>
     </row>
     <row r="965">
@@ -68022,7 +68022,7 @@
         <v>627</v>
       </c>
       <c r="V965" t="n">
-        <v>30.88888888888889</v>
+        <v>30.28611111111111</v>
       </c>
     </row>
     <row r="966">
@@ -68092,7 +68092,7 @@
         <v>627</v>
       </c>
       <c r="V966" t="n">
-        <v>30.87474747474747</v>
+        <v>30.35</v>
       </c>
     </row>
     <row r="967">
@@ -68162,7 +68162,7 @@
         <v>627</v>
       </c>
       <c r="V967" t="n">
-        <v>30.86060606060606</v>
+        <v>30.46111111111111</v>
       </c>
     </row>
     <row r="968">
@@ -68232,7 +68232,7 @@
         <v>627</v>
       </c>
       <c r="V968" t="n">
-        <v>30.84646464646464</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="969">
@@ -68302,7 +68302,7 @@
         <v>627</v>
       </c>
       <c r="V969" t="n">
-        <v>30.83232323232323</v>
+        <v>30.73888888888889</v>
       </c>
     </row>
     <row r="970">
@@ -68372,7 +68372,7 @@
         <v>627</v>
       </c>
       <c r="V970" t="n">
-        <v>30.81818181818182</v>
+        <v>30.87777777777778</v>
       </c>
     </row>
     <row r="971">
@@ -68442,7 +68442,7 @@
         <v>627</v>
       </c>
       <c r="V971" t="n">
-        <v>30.8040404040404</v>
+        <v>31.01666666666667</v>
       </c>
     </row>
     <row r="972">
@@ -68512,7 +68512,7 @@
         <v>628</v>
       </c>
       <c r="V972" t="n">
-        <v>30.78989898989899</v>
+        <v>31.15555555555556</v>
       </c>
     </row>
     <row r="973">
@@ -68582,7 +68582,7 @@
         <v>628</v>
       </c>
       <c r="V973" t="n">
-        <v>30.77575757575757</v>
+        <v>31.29444444444444</v>
       </c>
     </row>
     <row r="974">
@@ -68652,7 +68652,7 @@
         <v>628</v>
       </c>
       <c r="V974" t="n">
-        <v>30.76161616161616</v>
+        <v>31.34907407407407</v>
       </c>
     </row>
     <row r="975">
@@ -68722,7 +68722,7 @@
         <v>630</v>
       </c>
       <c r="V975" t="n">
-        <v>30.74747474747474</v>
+        <v>31.40370370370371</v>
       </c>
     </row>
     <row r="976">
@@ -68792,7 +68792,7 @@
         <v>630</v>
       </c>
       <c r="V976" t="n">
-        <v>30.73333333333333</v>
+        <v>31.45833333333333</v>
       </c>
     </row>
     <row r="977">
@@ -68862,7 +68862,7 @@
         <v>630</v>
       </c>
       <c r="V977" t="n">
-        <v>30.71919191919192</v>
+        <v>31.51296296296296</v>
       </c>
     </row>
     <row r="978">
@@ -68932,7 +68932,7 @@
         <v>630</v>
       </c>
       <c r="V978" t="n">
-        <v>30.7050505050505</v>
+        <v>31.56759259259259</v>
       </c>
     </row>
     <row r="979">
@@ -69002,7 +69002,7 @@
         <v>630</v>
       </c>
       <c r="V979" t="n">
-        <v>30.69090909090909</v>
+        <v>31.62222222222222</v>
       </c>
     </row>
     <row r="980">
@@ -69072,7 +69072,7 @@
         <v>630</v>
       </c>
       <c r="V980" t="n">
-        <v>30.67676767676767</v>
+        <v>31.67685185185185</v>
       </c>
     </row>
     <row r="981">
@@ -69142,7 +69142,7 @@
         <v>628</v>
       </c>
       <c r="V981" t="n">
-        <v>30.66262626262626</v>
+        <v>31.73148148148148</v>
       </c>
     </row>
     <row r="982">
@@ -69212,7 +69212,7 @@
         <v>628</v>
       </c>
       <c r="V982" t="n">
-        <v>30.64848484848484</v>
+        <v>31.78611111111111</v>
       </c>
     </row>
     <row r="983">
@@ -69282,7 +69282,7 @@
         <v>628</v>
       </c>
       <c r="V983" t="n">
-        <v>30.63434343434343</v>
+        <v>31.59444444444444</v>
       </c>
     </row>
     <row r="984">
@@ -69352,7 +69352,7 @@
         <v>628</v>
       </c>
       <c r="V984" t="n">
-        <v>30.62020202020202</v>
+        <v>31.41388888888889</v>
       </c>
     </row>
     <row r="985">
@@ -69422,7 +69422,7 @@
         <v>628</v>
       </c>
       <c r="V985" t="n">
-        <v>30.60606060606061</v>
+        <v>31.11111111111111</v>
       </c>
     </row>
     <row r="986">
@@ -69492,7 +69492,7 @@
         <v>628</v>
       </c>
       <c r="V986" t="n">
-        <v>30.59191919191919</v>
+        <v>30.83333333333333</v>
       </c>
     </row>
     <row r="987">
@@ -69632,7 +69632,7 @@
         <v>627</v>
       </c>
       <c r="V988" t="n">
-        <v>30.50039682539682</v>
+        <v>30.18611111111111</v>
       </c>
     </row>
     <row r="989">
@@ -69702,7 +69702,7 @@
         <v>627</v>
       </c>
       <c r="V989" t="n">
-        <v>30.42301587301587</v>
+        <v>29.87222222222222</v>
       </c>
     </row>
     <row r="990">
@@ -69772,7 +69772,7 @@
         <v>627</v>
       </c>
       <c r="V990" t="n">
-        <v>30.34563492063492</v>
+        <v>29.60555555555555</v>
       </c>
     </row>
     <row r="991">
@@ -69842,7 +69842,7 @@
         <v>627</v>
       </c>
       <c r="V991" t="n">
-        <v>30.26825396825397</v>
+        <v>29.54583333333333</v>
       </c>
     </row>
     <row r="992">
@@ -69912,7 +69912,7 @@
         <v>627</v>
       </c>
       <c r="V992" t="n">
-        <v>30.19087301587301</v>
+        <v>29.48611111111111</v>
       </c>
     </row>
     <row r="993">
@@ -69982,7 +69982,7 @@
         <v>627</v>
       </c>
       <c r="V993" t="n">
-        <v>30.11349206349206</v>
+        <v>29.68611111111111</v>
       </c>
     </row>
     <row r="994">
@@ -70332,7 +70332,7 @@
         <v>626</v>
       </c>
       <c r="V998" t="n">
-        <v>31.76785714285714</v>
+        <v>31.86166666666666</v>
       </c>
     </row>
     <row r="999">
@@ -70402,7 +70402,7 @@
         <v>626</v>
       </c>
       <c r="V999" t="n">
-        <v>31.72460317460317</v>
+        <v>31.91222222222222</v>
       </c>
     </row>
     <row r="1000">
@@ -70472,7 +70472,7 @@
         <v>626</v>
       </c>
       <c r="V1000" t="n">
-        <v>31.68134920634921</v>
+        <v>31.96277777777778</v>
       </c>
     </row>
     <row r="1001">
@@ -70542,7 +70542,7 @@
         <v>629</v>
       </c>
       <c r="V1001" t="n">
-        <v>31.63809523809524</v>
+        <v>32.01333333333334</v>
       </c>
     </row>
     <row r="1002">
@@ -70612,7 +70612,7 @@
         <v>629</v>
       </c>
       <c r="V1002" t="n">
-        <v>31.59484126984127</v>
+        <v>32.06388888888889</v>
       </c>
     </row>
     <row r="1003">
@@ -70682,7 +70682,7 @@
         <v>634</v>
       </c>
       <c r="V1003" t="n">
-        <v>31.5515873015873</v>
+        <v>31.80277777777778</v>
       </c>
     </row>
     <row r="1004">
@@ -71032,7 +71032,7 @@
         <v>634</v>
       </c>
       <c r="V1008" t="n">
-        <v>29.79722222222222</v>
+        <v>29.69722222222222</v>
       </c>
     </row>
     <row r="1009">
@@ -71102,7 +71102,7 @@
         <v>634</v>
       </c>
       <c r="V1009" t="n">
-        <v>29.54722222222222</v>
+        <v>29.41944444444444</v>
       </c>
     </row>
     <row r="1010">
@@ -71172,7 +71172,7 @@
         <v>634</v>
       </c>
       <c r="V1010" t="n">
-        <v>29.29722222222222</v>
+        <v>29.26111111111111</v>
       </c>
     </row>
     <row r="1011">
@@ -72712,7 +72712,7 @@
         <v>634</v>
       </c>
       <c r="V1032" t="n">
-        <v>18.46203703703704</v>
+        <v>18.30833333333333</v>
       </c>
     </row>
     <row r="1033">
@@ -72782,7 +72782,7 @@
         <v>634</v>
       </c>
       <c r="V1033" t="n">
-        <v>18.24074074074074</v>
+        <v>18.03055555555556</v>
       </c>
     </row>
     <row r="1034">
@@ -72852,7 +72852,7 @@
         <v>634</v>
       </c>
       <c r="V1034" t="n">
-        <v>18.01944444444445</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="1035">
@@ -72922,7 +72922,7 @@
         <v>632</v>
       </c>
       <c r="V1035" t="n">
-        <v>17.79814814814815</v>
+        <v>17.72222222222222</v>
       </c>
     </row>
     <row r="1036">
@@ -72992,7 +72992,7 @@
         <v>632</v>
       </c>
       <c r="V1036" t="n">
-        <v>17.57685185185185</v>
+        <v>17.59444444444444</v>
       </c>
     </row>
     <row r="1037">
@@ -73062,7 +73062,7 @@
         <v>632</v>
       </c>
       <c r="V1037" t="n">
-        <v>17.35555555555555</v>
+        <v>17.42777777777778</v>
       </c>
     </row>
     <row r="1038">
@@ -73132,7 +73132,7 @@
         <v>632</v>
       </c>
       <c r="V1038" t="n">
-        <v>17.13425925925926</v>
+        <v>17.24722222222222</v>
       </c>
     </row>
     <row r="1039">
@@ -73202,7 +73202,7 @@
         <v>632</v>
       </c>
       <c r="V1039" t="n">
-        <v>16.91296296296296</v>
+        <v>16.94444444444444</v>
       </c>
     </row>
     <row r="1040">
@@ -74112,7 +74112,7 @@
         <v>640</v>
       </c>
       <c r="V1052" t="n">
-        <v>0.4861111111111111</v>
+        <v>1.327777777777778</v>
       </c>
     </row>
     <row r="1053">
@@ -74182,7 +74182,7 @@
         <v>640</v>
       </c>
       <c r="V1053" t="n">
-        <v>0.2430555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054">
